--- a/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
+++ b/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LOKACIJA" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,11 @@
     <sheet name="NOMENKALTURA_SPORTOVA" sheetId="8" r:id="rId7"/>
     <sheet name="VREDNOVANJE_DEFINICIJA_UPITNIKA" sheetId="9" r:id="rId8"/>
     <sheet name="VREDNOVANJE_VRIJEDNOSTI_PITANJA" sheetId="10" r:id="rId9"/>
+    <sheet name="USERS" sheetId="11" r:id="rId10"/>
+    <sheet name="AUTHORITIES" sheetId="12" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BANK_ACCOUNT!$A$1:$D$163</definedName>
@@ -152,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="1797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1807">
   <si>
     <t>RBR</t>
   </si>
@@ -5543,6 +5545,36 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>$2a$04$PGghSlPUBJtDCs8pMXrj0OAbJN3deO1FVUKcgheGuyQgnMN65lx5m</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>USER ID</t>
+  </si>
+  <si>
+    <t>ROLE_USER</t>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
   </si>
 </sst>
 </file>
@@ -5770,7 +5802,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5856,6 +5888,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6265,12 +6298,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f>"insert into diskobolos.users(username, password, email, enabled) values ('"&amp;A2&amp;"', '"&amp;B2&amp;"',  '"&amp;C2&amp;"',  "&amp;D2&amp;");"</f>
+        <v>insert into diskobolos.users(username, password, email, enabled) values ('test', '$2a$04$PGghSlPUBJtDCs8pMXrj0OAbJN3deO1FVUKcgheGuyQgnMN65lx5m',  'test@gmail.com',  TRUE);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f>"insert into diskobolos.authorities(role, user_id) values ('"&amp;A2&amp;"',  "&amp;B2&amp;");"</f>
+        <v>insert into diskobolos.authorities(role, user_id) values ('ROLE_USER',  1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f>"insert into diskobolos.authorities(role, user_id) values ('"&amp;A3&amp;"',  "&amp;B3&amp;");"</f>
+        <v>insert into diskobolos.authorities(role, user_id) values ('ROLE_ADMIN',  1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6375,6 +6514,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20857,7 +20997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
+++ b/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1808">
   <si>
     <t>RBR</t>
   </si>
@@ -5575,6 +5575,9 @@
   </si>
   <si>
     <t>ROLE_ADMIN</t>
+  </si>
+  <si>
+    <t>PERMISSION_LEVEL</t>
   </si>
 </sst>
 </file>
@@ -6353,49 +6356,59 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>1803</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C1" s="35" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1805</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="str">
-        <f>"insert into diskobolos.authorities(role, user_id) values ('"&amp;A2&amp;"',  "&amp;B2&amp;");"</f>
-        <v>insert into diskobolos.authorities(role, user_id) values ('ROLE_USER',  1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A2&amp;"',  "&amp;B2&amp;", "&amp;C2&amp;");"</f>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values ('ROLE_USER',  1, 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1806</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="str">
-        <f>"insert into diskobolos.authorities(role, user_id) values ('"&amp;A3&amp;"',  "&amp;B3&amp;");"</f>
-        <v>insert into diskobolos.authorities(role, user_id) values ('ROLE_ADMIN',  1);</v>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A3&amp;"',  "&amp;B3&amp;", "&amp;C3&amp;");"</f>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values ('ROLE_ADMIN',  1, 0);</v>
       </c>
     </row>
   </sheetData>

--- a/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
+++ b/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LOKACIJA" sheetId="2" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1960">
   <si>
     <t>RBR</t>
   </si>
@@ -5448,9 +5448,6 @@
     <t>ATLETIKA</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>SPORRTACCORD</t>
   </si>
   <si>
@@ -5755,6 +5752,288 @@
   </si>
   <si>
     <t>forthCategory</t>
+  </si>
+  <si>
+    <t>CROQUET</t>
+  </si>
+  <si>
+    <t>CURLING</t>
+  </si>
+  <si>
+    <t>DAME (igra)</t>
+  </si>
+  <si>
+    <t>DALJINSKO PLIVANJE</t>
+  </si>
+  <si>
+    <t>DIZANJE UTEGA</t>
+  </si>
+  <si>
+    <t>FISTBALL</t>
+  </si>
+  <si>
+    <t>FLOORBALL</t>
+  </si>
+  <si>
+    <t>FLYING DISC</t>
+  </si>
+  <si>
+    <t>GALOPSKI SPORT</t>
+  </si>
+  <si>
+    <t>GIMNASTIKA</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>HOKEJ (na travi)</t>
+  </si>
+  <si>
+    <t>HOKEJ NA LEDU</t>
+  </si>
+  <si>
+    <t>HRVANJE</t>
+  </si>
+  <si>
+    <t>JEDRENJE</t>
+  </si>
+  <si>
+    <t>JET SKI</t>
+  </si>
+  <si>
+    <t>JUDO</t>
+  </si>
+  <si>
+    <t>JU-JITSU</t>
+  </si>
+  <si>
+    <t>KAJAK-KANU</t>
+  </si>
+  <si>
+    <t>KARATE</t>
+  </si>
+  <si>
+    <t>KASAČKI SPORT</t>
+  </si>
+  <si>
+    <t>KENDO</t>
+  </si>
+  <si>
+    <t>KICK-BOXING</t>
+  </si>
+  <si>
+    <t>KLIZANJE</t>
+  </si>
+  <si>
+    <t>KONJIČKI SPORT</t>
+  </si>
+  <si>
+    <t>KORFBALL</t>
+  </si>
+  <si>
+    <t>KOŠARKA</t>
+  </si>
+  <si>
+    <t>KOTURALJKANJE</t>
+  </si>
+  <si>
+    <t>KRIKET</t>
+  </si>
+  <si>
+    <t>KUGLANJE</t>
+  </si>
+  <si>
+    <t>KUGLANJE NA LEDU</t>
+  </si>
+  <si>
+    <t>LACROSSE</t>
+  </si>
+  <si>
+    <t>MAČEVANJE</t>
+  </si>
+  <si>
+    <t>MINIGOLF</t>
+  </si>
+  <si>
+    <t>MODERNI PENTATLON</t>
+  </si>
+  <si>
+    <t>MOTOCIKLIZAM</t>
+  </si>
+  <si>
+    <t>MOTONAUTIKA (Powerboating)</t>
+  </si>
+  <si>
+    <t>NANBUDO</t>
+  </si>
+  <si>
+    <t>NETBALL</t>
+  </si>
+  <si>
+    <t>NOGOMET</t>
+  </si>
+  <si>
+    <t>NOGOTENIS</t>
+  </si>
+  <si>
+    <t>OBARANJE RUKU</t>
+  </si>
+  <si>
+    <t>ODBOJKA</t>
+  </si>
+  <si>
+    <t>ORIJENTACIJSKI SPORT</t>
+  </si>
+  <si>
+    <t>PELOTA BASQUE</t>
+  </si>
+  <si>
+    <t>PIKADO</t>
+  </si>
+  <si>
+    <t>PLANINARSTVO</t>
+  </si>
+  <si>
+    <t>ŠPORTSKO PENJANJE</t>
+  </si>
+  <si>
+    <t>PLANINSKO SKIJANJE</t>
+  </si>
+  <si>
+    <t>PLIVANJE</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>POTEZANJE UŽETA (lug-of.war)</t>
+  </si>
+  <si>
+    <t>POWERLIFTING</t>
+  </si>
+  <si>
+    <t>RACKETBALL</t>
+  </si>
+  <si>
+    <t>RAGBI</t>
+  </si>
+  <si>
+    <t>RONILAŠTVO</t>
+  </si>
+  <si>
+    <t>RUKOMET</t>
+  </si>
+  <si>
+    <t>SAMBO</t>
+  </si>
+  <si>
+    <t>SAMOSTREL</t>
+  </si>
+  <si>
+    <t>SAVATE</t>
+  </si>
+  <si>
+    <t>SEPAKTAKRAW</t>
+  </si>
+  <si>
+    <t>SINKRONIZIRANO PLIVANJE</t>
+  </si>
+  <si>
+    <t>SKATEBOARDING (koturaljkanje na dasci)</t>
+  </si>
+  <si>
+    <t>SKIBOB</t>
+  </si>
+  <si>
+    <t>SKIJANJE</t>
+  </si>
+  <si>
+    <t>SKIJANJE NA VODI I WAKEBOARD</t>
+  </si>
+  <si>
+    <t>SKOKOVI U VODU</t>
+  </si>
+  <si>
+    <t>SKVOŠ</t>
+  </si>
+  <si>
+    <t>SLEDDOG (sanjkanje sa psećom zaprekom)</t>
+  </si>
+  <si>
+    <t>SOFT TENNIS</t>
+  </si>
+  <si>
+    <t>SOFTBALL</t>
+  </si>
+  <si>
+    <t>SPORTSKA REKREACIJA (Sport za sve)</t>
+  </si>
+  <si>
+    <t>STOLNI TENIS</t>
+  </si>
+  <si>
+    <t>STRELIČARSTVO</t>
+  </si>
+  <si>
+    <t>STRELJAŠTVO</t>
+  </si>
+  <si>
+    <t>SUMO</t>
+  </si>
+  <si>
+    <t>SURFING (skijanje na dasci na vodi)</t>
+  </si>
+  <si>
+    <t>ŠAH</t>
+  </si>
+  <si>
+    <t>SPORT GLUHIH</t>
+  </si>
+  <si>
+    <t>SPORTSKI PLES</t>
+  </si>
+  <si>
+    <t>SPORTSKI RIBOLOV (slatke vode)</t>
+  </si>
+  <si>
+    <t>SPORTSKI RIBOLOV NA MORU</t>
+  </si>
+  <si>
+    <t>SPORT STUDENATA</t>
+  </si>
+  <si>
+    <t>SPORT VOJNIKA</t>
+  </si>
+  <si>
+    <t>TAKEWONDO</t>
+  </si>
+  <si>
+    <t>TAJLANDSKI BOKS</t>
+  </si>
+  <si>
+    <t>TENIS</t>
+  </si>
+  <si>
+    <t>TRIATLON</t>
+  </si>
+  <si>
+    <t>TWIRLING</t>
+  </si>
+  <si>
+    <t>VATERPOLO</t>
+  </si>
+  <si>
+    <t>VESLANJE</t>
+  </si>
+  <si>
+    <t>WUSHU</t>
+  </si>
+  <si>
+    <t>ZRAKOPLOVSTVO</t>
   </si>
 </sst>
 </file>
@@ -5989,7 +6268,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6055,17 +6334,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1"/>
@@ -6453,45 +6726,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1798</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>1799</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>1800</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="31" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1801</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>191</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>44.113518999999997</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>15.225152</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="33">
         <v>23000</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="26" t="str">
+      <c r="H2" s="25" t="str">
         <f>"insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( "&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;IF(C2="",0,C2)&amp;", "&amp;IF(D2="",0,D2)&amp;", "&amp;E2&amp;", '"&amp;F2&amp;"');"</f>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Stomorica 7', 44.113519, 15.225152, 23000, 'Zadar');</v>
       </c>
@@ -6500,22 +6773,22 @@
       <c r="A3">
         <v>191</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>44.121358999999998</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="33">
         <v>15.242531</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>23000</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26" t="str">
+      <c r="H3" s="25" t="str">
         <f t="shared" ref="H3:H66" si="0">"insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( "&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;IF(C3="",0,C3)&amp;", "&amp;IF(D3="",0,D3)&amp;", "&amp;E3&amp;", '"&amp;F3&amp;"');"</f>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Edvina Androvića 2', 44.121359, 15.242531, 23000, 'Zadar');</v>
       </c>
@@ -6524,22 +6797,22 @@
       <c r="A4">
         <v>191</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>44.138294000000002</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="33">
         <v>15.217923000000001</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>23000</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Julija Klovića 36', 44.138294, 15.217923, 23000, 'Zadar');</v>
       </c>
@@ -6548,22 +6821,22 @@
       <c r="A5">
         <v>191</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>44.120828000000003</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>15.255076000000001</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>23000</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Vinkovačka 35 f', 44.120828, 15.255076, 23000, 'Zadar');</v>
       </c>
@@ -6572,22 +6845,22 @@
       <c r="A6">
         <v>191</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>44.109743000000002</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="33">
         <v>15.234482</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>23000</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="26" t="str">
+      <c r="H6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ulica kralja S. Držislava 4', 44.109743, 15.234482, 23000, 'Zadar');</v>
       </c>
@@ -6596,22 +6869,22 @@
       <c r="A7">
         <v>191</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>44.12585</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>15.256862</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>23000</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Hrvatskog sabora 22', 44.12585, 15.256862, 23000, 'Zadar');</v>
       </c>
@@ -6620,22 +6893,22 @@
       <c r="A8">
         <v>191</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>44.128850999999997</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>15.252077999999999</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>23000</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="str">
+      <c r="H8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Pašmanski prilaz 15', 44.128851, 15.252078, 23000, 'Zadar');</v>
       </c>
@@ -6644,22 +6917,22 @@
       <c r="A9">
         <v>191</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>44.123516000000002</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>15.243228999999999</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>23000</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Božidara Adžije 13', 44.123516, 15.243229, 23000, 'Zadar');</v>
       </c>
@@ -6668,22 +6941,22 @@
       <c r="A10">
         <v>191</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <v>44.110245999999997</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>15.247101000000001</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>23000</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ante Starčevića 15d', 44.110246, 15.247101, 23000, 'Zadar');</v>
       </c>
@@ -6692,22 +6965,22 @@
       <c r="A11">
         <v>191</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>44.113937</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>15.251927</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>23000</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="26" t="str">
+      <c r="H11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Murvice 99', 44.113937, 15.251927, 23000, 'Zadar');</v>
       </c>
@@ -6716,22 +6989,22 @@
       <c r="A12">
         <v>191</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="33">
         <v>44.117040000000003</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>15.230964</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>23000</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="26" t="str">
+      <c r="H12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'R.K. Jeretova 5', 44.11704, 15.230964, 23000, 'Zadar');</v>
       </c>
@@ -6740,22 +7013,22 @@
       <c r="A13">
         <v>191</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>44.117040000000003</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>15.230964</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>23000</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="26" t="str">
+      <c r="H13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Stanova 3', 44.11704, 15.230964, 23000, 'Zadar');</v>
       </c>
@@ -6764,22 +7037,22 @@
       <c r="A14">
         <v>191</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>44.113796999999998</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>15.242174</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <v>23000</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="26" t="str">
+      <c r="H14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ugljanska 6a', 44.113797, 15.242174, 23000, 'Zadar');</v>
       </c>
@@ -6788,22 +7061,22 @@
       <c r="A15">
         <v>191</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>44.118174000000003</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>15.249328999999999</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>23000</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Kraljice mira 3', 44.118174, 15.249329, 23000, 'Zadar');</v>
       </c>
@@ -6812,22 +7085,22 @@
       <c r="A16">
         <v>191</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <v>44.122205999999998</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>15.2537</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <v>23000</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="26" t="str">
+      <c r="H16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Pudarice 11f', 44.122206, 15.2537, 23000, 'Zadar');</v>
       </c>
@@ -6836,22 +7109,22 @@
       <c r="A17">
         <v>191</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="33">
         <v>44.132730000000002</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>15.219452</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <v>23000</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Dikla bb', 44.13273, 15.219452, 23000, 'Zadar');</v>
       </c>
@@ -6860,22 +7133,22 @@
       <c r="A18">
         <v>191</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>44.132730000000002</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>15.219452</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>23000</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="26" t="str">
+      <c r="H18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Dikla bb', 44.13273, 15.219452, 23000, 'Zadar');</v>
       </c>
@@ -6884,22 +7157,22 @@
       <c r="A19">
         <v>191</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>44.105417000000003</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>15.253197</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>23000</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="26" t="str">
+      <c r="H19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, '22. lipnja 1941. br. 9', 44.105417, 15.253197, 23000, 'Zadar');</v>
       </c>
@@ -6908,22 +7181,22 @@
       <c r="A20">
         <v>191</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>44.114382999999997</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>15.260001000000001</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>23000</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Antuna Dobranića bb', 44.114383, 15.260001, 23000, 'Zadar');</v>
       </c>
@@ -6932,22 +7205,22 @@
       <c r="A21">
         <v>191</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>44.110398000000004</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>15.256743</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>23000</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="26" t="str">
+      <c r="H21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Jakova Mikalje 22', 44.110398, 15.256743, 23000, 'Zadar');</v>
       </c>
@@ -6956,22 +7229,22 @@
       <c r="A22">
         <v>191</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
         <v>44.12473</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>15.245582000000001</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <v>23000</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="26" t="str">
+      <c r="H22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Crno 40', 44.12473, 15.245582, 23000, 'Zadar');</v>
       </c>
@@ -6980,22 +7253,22 @@
       <c r="A23">
         <v>191</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <v>44.125746999999997</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>15.220701</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="33">
         <v>23000</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="26" t="str">
+      <c r="H23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Obala kneza Trpimira bb', 44.125747, 15.220701, 23000, 'Zadar');</v>
       </c>
@@ -7004,22 +7277,22 @@
       <c r="A24">
         <v>191</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
         <v>44.121599000000003</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>15.243012999999999</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="33">
         <v>23000</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="26" t="str">
+      <c r="H24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Edvina Androvića bb', 44.121599, 15.243013, 23000, 'Zadar');</v>
       </c>
@@ -7028,22 +7301,22 @@
       <c r="A25">
         <v>191</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="33">
         <v>44.126685999999999</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>15.229297000000001</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <v>23000</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Jakova Gotovca 18', 44.126686, 15.229297, 23000, 'Zadar');</v>
       </c>
@@ -7052,22 +7325,22 @@
       <c r="A26">
         <v>191</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="33">
         <v>44.111297999999998</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>15.233383</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="33">
         <v>23000</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="26" t="str">
+      <c r="H26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Obala kralja Tomislava 1', 44.111298, 15.233383, 23000, 'Zadar');</v>
       </c>
@@ -7076,22 +7349,22 @@
       <c r="A27">
         <v>191</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="33">
         <v>44.118800999999998</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>15.239174999999999</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="33">
         <v>23000</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="26" t="str">
+      <c r="H27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Andrije Hebranga 9a', 44.118801, 15.239175, 23000, 'Zadar');</v>
       </c>
@@ -7100,22 +7373,22 @@
       <c r="A28">
         <v>191</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="33">
         <v>44.131138999999997</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>15.22453</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="33">
         <v>23000</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="26" t="str">
+      <c r="H28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Brune Bušića 10', 44.131139, 15.22453, 23000, 'Zadar');</v>
       </c>
@@ -7124,22 +7397,22 @@
       <c r="A29">
         <v>191</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="33">
         <v>44.112577999999999</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>15.247745</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="33">
         <v>23000</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="26" t="str">
+      <c r="H29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Hrvoja Ćustića 2', 44.112578, 15.247745, 23000, 'Zadar');</v>
       </c>
@@ -7148,22 +7421,22 @@
       <c r="A30">
         <v>191</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>44.113030000000002</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>15.228521000000001</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <v>23000</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="26" t="str">
+      <c r="H30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Trg Petra Zoranića 1', 44.11303, 15.228521, 23000, 'Zadar');</v>
       </c>
@@ -7172,22 +7445,22 @@
       <c r="A31">
         <v>191</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>44.114105000000002</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>15.226673999999999</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>23000</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="26" t="str">
+      <c r="H31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Majke Margarite bb', 44.114105, 15.226674, 23000, 'Zadar');</v>
       </c>
@@ -7196,22 +7469,22 @@
       <c r="A32">
         <v>191</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>44.107621000000002</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>15.232319</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>23000</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="26" t="str">
+      <c r="H32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Kolovare 2 a', 44.107621, 15.232319, 23000, 'Zadar');</v>
       </c>
@@ -7220,22 +7493,22 @@
       <c r="A33">
         <v>191</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>44.125746999999997</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>15.220701</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>23000</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="26" t="str">
+      <c r="H33" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Obala kneza Trpimira bb', 44.125747, 15.220701, 23000, 'Zadar');</v>
       </c>
@@ -7244,22 +7517,22 @@
       <c r="A34">
         <v>191</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="33">
         <v>44.125377</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>15.236362</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="33">
         <v>23000</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="26" t="str">
+      <c r="H34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 14', 44.125377, 15.236362, 23000, 'Zadar');</v>
       </c>
@@ -7268,22 +7541,22 @@
       <c r="A35">
         <v>191</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>44.130431999999999</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>15.224454</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>23000</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="26" t="str">
+      <c r="H35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Brune Bašića 10', 44.130432, 15.224454, 23000, 'Zadar');</v>
       </c>
@@ -7292,22 +7565,22 @@
       <c r="A36">
         <v>191</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="33">
         <v>44.115954000000002</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>15.226746</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="33">
         <v>23000</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="26" t="str">
+      <c r="H36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Brune Krnarutića 6', 44.115954, 15.226746, 23000, 'Zadar');</v>
       </c>
@@ -7316,22 +7589,22 @@
       <c r="A37">
         <v>191</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="33">
         <v>44.113621999999999</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>15.230387</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="33">
         <v>23000</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="26" t="str">
+      <c r="H37" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Narodnog lista 2', 44.113622, 15.230387, 23000, 'Zadar');</v>
       </c>
@@ -7340,22 +7613,22 @@
       <c r="A38">
         <v>191</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="33">
         <v>44.115844000000003</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>15.225860000000001</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="33">
         <v>23000</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="26" t="str">
+      <c r="H38" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Knezova Šubića bribirskih 16', 44.115844, 15.22586, 23000, 'Zadar');</v>
       </c>
@@ -7364,22 +7637,22 @@
       <c r="A39">
         <v>191</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="33">
         <v>44.128557999999998</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>15.220449</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="33">
         <v>23000</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="26" t="str">
+      <c r="H39" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Sutomiška 1', 44.128558, 15.220449, 23000, 'Zadar');</v>
       </c>
@@ -7388,22 +7661,22 @@
       <c r="A40">
         <v>191</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="33">
         <v>44.134295000000002</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>44.134295000000002</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="33">
         <v>23000</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="26" t="str">
+      <c r="H40" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Mate Balote 56 a', 44.134295, 44.134295, 23000, 'Zadar');</v>
       </c>
@@ -7412,22 +7685,22 @@
       <c r="A41">
         <v>191</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="33">
         <v>44.113793000000001</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>15.232749999999999</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="33">
         <v>23000</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="26" t="str">
+      <c r="H41" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Obala Kneza Branimira 6a', 44.113793, 15.23275, 23000, 'Zadar');</v>
       </c>
@@ -7436,22 +7709,22 @@
       <c r="A42">
         <v>191</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="33">
         <v>44.130431999999999</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>15.224454</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="33">
         <v>23000</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="26" t="str">
+      <c r="H42" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Brune Bušića bb', 44.130432, 15.224454, 23000, 'Zadar');</v>
       </c>
@@ -7460,22 +7733,22 @@
       <c r="A43">
         <v>191</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="33">
         <v>44.122238000000003</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>15.229486</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="33">
         <v>23000</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="26" t="str">
+      <c r="H43" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Lukoranska 8', 44.122238, 15.229486, 23000, 'Zadar');</v>
       </c>
@@ -7484,22 +7757,22 @@
       <c r="A44">
         <v>191</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="33">
         <v>44.105325999999998</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>15.249198</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="33">
         <v>23000</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="26" t="str">
+      <c r="H44" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Tomislava Ivčića 7a', 44.105326, 15.249198, 23000, 'Zadar');</v>
       </c>
@@ -7508,22 +7781,22 @@
       <c r="A45">
         <v>191</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="33">
         <v>44.151595</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>15.203827</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="33">
         <v>23000</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="26" t="str">
+      <c r="H45" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Krešimirova Obala 164', 44.151595, 15.203827, 23000, 'Zadar');</v>
       </c>
@@ -7532,22 +7805,22 @@
       <c r="A46">
         <v>191</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="33">
         <v>44.128216000000002</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>15.228422999999999</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="33">
         <v>23000</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="26" t="str">
+      <c r="H46" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Petrića 43', 44.128216, 15.228423, 23000, 'Zadar');</v>
       </c>
@@ -7556,22 +7829,22 @@
       <c r="A47">
         <v>191</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="33">
         <v>44.11551</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>15.225312000000001</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="33">
         <v>23000</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="26" t="str">
+      <c r="H47" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Prolaz Opatice -vekenege 6', 44.11551, 15.225312, 23000, 'Zadar');</v>
       </c>
@@ -7580,22 +7853,22 @@
       <c r="A48">
         <v>191</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="33">
         <v>44.120828000000003</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>15.255076000000001</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="33">
         <v>23000</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="26" t="str">
+      <c r="H48" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Vinkovačka 35 F', 44.120828, 15.255076, 23000, 'Zadar');</v>
       </c>
@@ -7604,22 +7877,22 @@
       <c r="A49">
         <v>191</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="33">
         <v>44.112569000000001</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>15.248379</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="33">
         <v>23000</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="26" t="str">
+      <c r="H49" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Stadionska 2', 44.112569, 15.248379, 23000, 'Zadar');</v>
       </c>
@@ -7628,22 +7901,22 @@
       <c r="A50">
         <v>191</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="33">
         <v>44.126306999999997</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>15.220701999999999</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="33">
         <v>23000</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="26" t="str">
+      <c r="H50" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Obala Kneza Trpimira 34 C ( Put Stanova 3)', 44.126307, 15.220702, 23000, 'Zadar');</v>
       </c>
@@ -7652,22 +7925,22 @@
       <c r="A51">
         <v>191</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="33">
         <v>44.112727</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>15.244263999999999</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="33">
         <v>23000</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="26" t="str">
+      <c r="H51" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Rivanjski prilaz 1', 44.112727, 15.244264, 23000, 'Zadar');</v>
       </c>
@@ -7676,22 +7949,22 @@
       <c r="A52">
         <v>191</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="32" t="s">
         <v>539</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="33">
         <v>44.117292999999997</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>15.232958999999999</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="33">
         <v>23000</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="26" t="str">
+      <c r="H52" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Stjepana Radića 10', 44.117293, 15.232959, 23000, 'Zadar');</v>
       </c>
@@ -7700,22 +7973,22 @@
       <c r="A53">
         <v>191</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="33">
         <v>44.111873000000003</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>15.241923</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="33">
         <v>23000</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="26" t="str">
+      <c r="H53" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Sv. Vinka Paulskog 19', 44.111873, 15.241923, 23000, 'Zadar');</v>
       </c>
@@ -7724,22 +7997,22 @@
       <c r="A54">
         <v>191</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="32" t="s">
         <v>559</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="33">
         <v>44.115682999999997</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>15.234415</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="33">
         <v>23000</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="26" t="str">
+      <c r="H54" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Veslačka 2', 44.115683, 15.234415, 23000, 'Zadar');</v>
       </c>
@@ -7748,22 +8021,22 @@
       <c r="A55">
         <v>191</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <v>44.126302000000003</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>15.23686</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="33">
         <v>23000</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="26" t="str">
+      <c r="H55" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Franje Petrića 3', 44.126302, 15.23686, 23000, 'Zadar');</v>
       </c>
@@ -7772,22 +8045,22 @@
       <c r="A56">
         <v>191</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="33">
         <v>44.108386000000003</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>15.245089</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="33">
         <v>23000</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="26" t="str">
+      <c r="H56" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Fra Ivana Zadranina 1B', 44.108386, 15.245089, 23000, 'Zadar');</v>
       </c>
@@ -7796,22 +8069,22 @@
       <c r="A57">
         <v>191</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="33">
         <v>44.117638999999997</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>15.236625999999999</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="33">
         <v>23000</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="26" t="str">
+      <c r="H57" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Šimunova 4', 44.117639, 15.236626, 23000, 'Zadar');</v>
       </c>
@@ -7820,22 +8093,22 @@
       <c r="A58">
         <v>191</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="33">
         <v>44.130431999999999</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>15.224454</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="33">
         <v>23000</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="26" t="str">
+      <c r="H58" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Brune Bušića bb', 44.130432, 15.224454, 23000, 'Zadar');</v>
       </c>
@@ -7844,22 +8117,22 @@
       <c r="A59">
         <v>191</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="33">
         <v>44.136366000000002</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>15.239428999999999</v>
       </c>
-      <c r="E59" s="35">
+      <c r="E59" s="33">
         <v>23000</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="26" t="str">
+      <c r="H59" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Mile Gojsalić 4', 44.136366, 15.239429, 23000, 'Zadar');</v>
       </c>
@@ -7868,22 +8141,22 @@
       <c r="A60">
         <v>191</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="33">
         <v>44.110818000000002</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>15.243805999999999</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="33">
         <v>23000</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="26" t="str">
+      <c r="H60" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Murvice 29', 44.110818, 15.243806, 23000, 'Zadar');</v>
       </c>
@@ -7892,22 +8165,22 @@
       <c r="A61">
         <v>191</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <v>44.120828000000003</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>15.255076000000001</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="33">
         <v>23000</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="26" t="str">
+      <c r="H61" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Vinkovačka 35d', 44.120828, 15.255076, 23000, 'Zadar');</v>
       </c>
@@ -7916,22 +8189,22 @@
       <c r="A62">
         <v>191</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="33">
         <v>44.119892</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>15.260465999999999</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="33">
         <v>23000</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="26" t="str">
+      <c r="H62" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Vukovarska 65', 44.119892, 15.260466, 23000, 'Zadar');</v>
       </c>
@@ -7940,22 +8213,22 @@
       <c r="A63">
         <v>191</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="33">
         <v>44.116776000000002</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>15.243772999999999</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="33">
         <v>23000</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="26" t="str">
+      <c r="H63" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Splitska 3', 44.116776, 15.243773, 23000, 'Zadar');</v>
       </c>
@@ -7964,22 +8237,22 @@
       <c r="A64">
         <v>191</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="33">
         <v>44.109774000000002</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>15.232158999999999</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="33">
         <v>23000</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="26" t="str">
+      <c r="H64" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ravnice 4', 44.109774, 15.232159, 23000, 'Zadar');</v>
       </c>
@@ -7988,22 +8261,22 @@
       <c r="A65">
         <v>191</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="32" t="s">
         <v>663</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="33">
         <v>44.109127999999998</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>15.239993</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="33">
         <v>23000</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="26" t="str">
+      <c r="H65" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Murvice 8/6', 44.109128, 15.239993, 23000, 'Zadar');</v>
       </c>
@@ -8012,22 +8285,22 @@
       <c r="A66">
         <v>191</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="32" t="s">
         <v>672</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="33">
         <v>44.133857999999996</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>15.214670999999999</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="33">
         <v>23000</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="26" t="str">
+      <c r="H66" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'A. G. Matoša 26', 44.133858, 15.214671, 23000, 'Zadar');</v>
       </c>
@@ -8036,22 +8309,22 @@
       <c r="A67">
         <v>191</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="32" t="s">
         <v>682</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="33">
         <v>44.119154000000002</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="33">
         <v>15.253686999999999</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="33">
         <v>23000</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="26" t="str">
+      <c r="H67" s="25" t="str">
         <f t="shared" ref="H67:H130" si="1">"insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( "&amp;A67&amp;", '"&amp;B67&amp;"', "&amp;IF(C67="",0,C67)&amp;", "&amp;IF(D67="",0,D67)&amp;", "&amp;E67&amp;", '"&amp;F67&amp;"');"</f>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Šibenska 3d', 44.119154, 15.253687, 23000, 'Zadar');</v>
       </c>
@@ -8060,22 +8333,22 @@
       <c r="A68">
         <v>191</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="33">
         <v>44.033872000000002</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="33">
         <v>15.612651</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="33">
         <v>23000</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="26" t="str">
+      <c r="H68" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Trg Kardinala A. Stepinca', 44.033872, 15.612651, 23000, 'Zadar');</v>
       </c>
@@ -8084,22 +8357,22 @@
       <c r="A69">
         <v>191</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="33">
         <v>44.115980999999998</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="33">
         <v>15.23631</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="33">
         <v>23000</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="26" t="str">
+      <c r="H69" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Dr. Franje Tuđmana 30a', 44.115981, 15.23631, 23000, 'Zadar');</v>
       </c>
@@ -8108,22 +8381,22 @@
       <c r="A70">
         <v>191</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="33">
         <v>44.121236000000003</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="33">
         <v>15.24544</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="33">
         <v>23000</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="26" t="str">
+      <c r="H70" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Kolovare bb', 44.121236, 15.24544, 23000, 'Zadar');</v>
       </c>
@@ -8132,22 +8405,22 @@
       <c r="A71">
         <v>191</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="33">
         <v>44.107695999999997</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="33">
         <v>15.245271000000001</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="33">
         <v>23000</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="26" t="str">
+      <c r="H71" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ivana Zadranina 2', 44.107696, 15.245271, 23000, 'Zadar');</v>
       </c>
@@ -8156,22 +8429,22 @@
       <c r="A72">
         <v>191</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="32" t="s">
         <v>947</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="33">
         <v>44.112228000000002</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="33">
         <v>44.112228000000002</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="33">
         <v>23000</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="26" t="str">
+      <c r="H72" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Stanova 7', 44.112228, 44.112228, 23000, 'Zadar');</v>
       </c>
@@ -8180,22 +8453,22 @@
       <c r="A73">
         <v>191</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="32" t="s">
         <v>958</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="33">
         <v>44.112627000000003</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="33">
         <v>15.241070000000001</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="33">
         <v>23000</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="26" t="str">
+      <c r="H73" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Sv. Vinka Paulskog 9', 44.112627, 15.24107, 23000, 'Zadar');</v>
       </c>
@@ -8204,22 +8477,22 @@
       <c r="A74">
         <v>191</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="32" t="s">
         <v>968</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="33">
         <v>43.937528</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="33">
         <v>15.162898999999999</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="33">
         <v>23000</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="26" t="str">
+      <c r="H74" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, '23281 Sali', 43.937528, 15.162899, 23000, 'Zadar');</v>
       </c>
@@ -8228,22 +8501,22 @@
       <c r="A75">
         <v>191</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="32" t="s">
         <v>973</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="33">
         <v>44.115813000000003</v>
       </c>
-      <c r="D75" s="35">
+      <c r="D75" s="33">
         <v>15.235953</v>
       </c>
-      <c r="E75" s="35">
+      <c r="E75" s="33">
         <v>23000</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="26" t="str">
+      <c r="H75" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Dr. Franje Tuđmana bb', 44.115813, 15.235953, 23000, 'Zadar');</v>
       </c>
@@ -8252,22 +8525,22 @@
       <c r="A76">
         <v>191</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="33">
         <v>44.034790000000001</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="33">
         <v>15.160088</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="33">
         <v>23000</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="26" t="str">
+      <c r="H76" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Mala Rava 16', 44.03479, 15.160088, 23000, 'Zadar');</v>
       </c>
@@ -8276,22 +8549,22 @@
       <c r="A77">
         <v>191</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="33">
         <v>44.130431999999999</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D77" s="33">
         <v>15.224454</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E77" s="33">
         <v>23000</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="26" t="str">
+      <c r="H77" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Brune Bušića bb', 44.130432, 15.224454, 23000, 'Zadar');</v>
       </c>
@@ -8300,22 +8573,22 @@
       <c r="A78">
         <v>191</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="32" t="s">
         <v>722</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="33">
         <v>44.110550000000003</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="33">
         <v>15.241559000000001</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="33">
         <v>23000</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="26" t="str">
+      <c r="H78" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Savarska 22', 44.11055, 15.241559, 23000, 'Zadar');</v>
       </c>
@@ -8324,18 +8597,18 @@
       <c r="A79">
         <v>191</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="32" t="s">
         <v>733</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35">
+      <c r="C79" s="33"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33">
         <v>23000</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="26" t="str">
+      <c r="H79" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Cerodole 21', 0, 0, 23000, 'Zadar');</v>
       </c>
@@ -8344,22 +8617,22 @@
       <c r="A80">
         <v>191</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="33">
         <v>44.102364999999999</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="33">
         <v>15.241792</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="33">
         <v>23000</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="26" t="str">
+      <c r="H80" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Trg Gospe Loretske 3', 44.102365, 15.241792, 23000, 'Zadar');</v>
       </c>
@@ -8368,22 +8641,22 @@
       <c r="A81">
         <v>191</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="32" t="s">
         <v>754</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="33">
         <v>44.104790999999999</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="33">
         <v>15.23977</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="33">
         <v>23000</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="26" t="str">
+      <c r="H81" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Đure Marušića 23', 44.104791, 15.23977, 23000, 'Zadar');</v>
       </c>
@@ -8392,22 +8665,22 @@
       <c r="A82">
         <v>191</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="33">
         <v>44.144354</v>
       </c>
-      <c r="D82" s="35">
+      <c r="D82" s="33">
         <v>15.21538</v>
       </c>
-      <c r="E82" s="35">
+      <c r="E82" s="33">
         <v>23000</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="26" t="str">
+      <c r="H82" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Poljana D. Domjanića 46', 44.144354, 15.21538, 23000, 'Zadar');</v>
       </c>
@@ -8416,22 +8689,22 @@
       <c r="A83">
         <v>191</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="33">
         <v>44.144354</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="33">
         <v>15.21538</v>
       </c>
-      <c r="E83" s="35">
+      <c r="E83" s="33">
         <v>23000</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="26" t="str">
+      <c r="H83" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Poljana D. Domjanića 46', 44.144354, 15.21538, 23000, 'Zadar');</v>
       </c>
@@ -8440,22 +8713,22 @@
       <c r="A84">
         <v>191</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="32" t="s">
         <v>785</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="33">
         <v>44.119494000000003</v>
       </c>
-      <c r="D84" s="35">
+      <c r="D84" s="33">
         <v>15.255165999999999</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="33">
         <v>23000</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="26" t="str">
+      <c r="H84" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Šibenska 4f', 44.119494, 15.255166, 23000, 'Zadar');</v>
       </c>
@@ -8464,22 +8737,22 @@
       <c r="A85">
         <v>191</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="32" t="s">
         <v>722</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="33">
         <v>44.110550000000003</v>
       </c>
-      <c r="D85" s="35">
+      <c r="D85" s="33">
         <v>15.241559000000001</v>
       </c>
-      <c r="E85" s="35">
+      <c r="E85" s="33">
         <v>23000</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="26" t="str">
+      <c r="H85" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Savarska 22', 44.11055, 15.241559, 23000, 'Zadar');</v>
       </c>
@@ -8488,22 +8761,22 @@
       <c r="A86">
         <v>191</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="32" t="s">
         <v>805</v>
       </c>
-      <c r="C86" s="35">
+      <c r="C86" s="33">
         <v>44.115721999999998</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="33">
         <v>15.248125999999999</v>
       </c>
-      <c r="E86" s="35">
+      <c r="E86" s="33">
         <v>23000</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="26" t="str">
+      <c r="H86" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Senjska 7', 44.115722, 15.248126, 23000, 'Zadar');</v>
       </c>
@@ -8512,22 +8785,22 @@
       <c r="A87">
         <v>191</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="32" t="s">
         <v>805</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="33">
         <v>44.115721999999998</v>
       </c>
-      <c r="D87" s="35">
+      <c r="D87" s="33">
         <v>15.248125999999999</v>
       </c>
-      <c r="E87" s="35">
+      <c r="E87" s="33">
         <v>23000</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="26" t="str">
+      <c r="H87" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Senjska 7', 44.115722, 15.248126, 23000, 'Zadar');</v>
       </c>
@@ -8536,22 +8809,22 @@
       <c r="A88">
         <v>191</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="32" t="s">
         <v>822</v>
       </c>
-      <c r="C88" s="35">
+      <c r="C88" s="33">
         <v>44.122605999999998</v>
       </c>
-      <c r="D88" s="35">
+      <c r="D88" s="33">
         <v>15.256791</v>
       </c>
-      <c r="E88" s="35">
+      <c r="E88" s="33">
         <v>23000</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="26" t="str">
+      <c r="H88" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Pudarice 34e', 44.122606, 15.256791, 23000, 'Zadar');</v>
       </c>
@@ -8560,22 +8833,22 @@
       <c r="A89">
         <v>191</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="C89" s="35">
+      <c r="C89" s="33">
         <v>44.133147000000001</v>
       </c>
-      <c r="D89" s="35">
+      <c r="D89" s="33">
         <v>15.213101</v>
       </c>
-      <c r="E89" s="35">
+      <c r="E89" s="33">
         <v>23000</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="26" t="str">
+      <c r="H89" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'A.G. Matoša bb', 44.133147, 15.213101, 23000, 'Zadar');</v>
       </c>
@@ -8584,22 +8857,22 @@
       <c r="A90">
         <v>191</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="C90" s="35">
+      <c r="C90" s="33">
         <v>44.147557999999997</v>
       </c>
-      <c r="D90" s="35">
+      <c r="D90" s="33">
         <v>15.239924</v>
       </c>
-      <c r="E90" s="35">
+      <c r="E90" s="33">
         <v>23000</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="26" t="str">
+      <c r="H90" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Poljana Jurja Dragišića 40', 44.147558, 15.239924, 23000, 'Zadar');</v>
       </c>
@@ -8608,22 +8881,22 @@
       <c r="A91">
         <v>191</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C91" s="35">
+      <c r="C91" s="33">
         <v>44.130105999999998</v>
       </c>
-      <c r="D91" s="35">
+      <c r="D91" s="33">
         <v>15.221133</v>
       </c>
-      <c r="E91" s="35">
+      <c r="E91" s="33">
         <v>23000</v>
       </c>
       <c r="F91" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="26" t="str">
+      <c r="H91" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Dimitrija Demetra 6a', 44.130106, 15.221133, 23000, 'Zadar');</v>
       </c>
@@ -8632,22 +8905,22 @@
       <c r="A92">
         <v>191</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="32" t="s">
         <v>863</v>
       </c>
-      <c r="C92" s="35">
+      <c r="C92" s="33">
         <v>44.129216999999997</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D92" s="33">
         <v>15.231439</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E92" s="33">
         <v>23000</v>
       </c>
       <c r="F92" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="26" t="str">
+      <c r="H92" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Petrića 40b', 44.129217, 15.231439, 23000, 'Zadar');</v>
       </c>
@@ -8656,22 +8929,22 @@
       <c r="A93">
         <v>191</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="33">
         <v>44.110410000000002</v>
       </c>
-      <c r="D93" s="35">
+      <c r="D93" s="33">
         <v>15.237182000000001</v>
       </c>
-      <c r="E93" s="35">
+      <c r="E93" s="33">
         <v>23000</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="26" t="str">
+      <c r="H93" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Polačišće 11', 44.11041, 15.237182, 23000, 'Zadar');</v>
       </c>
@@ -8680,22 +8953,22 @@
       <c r="A94">
         <v>191</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="32" t="s">
         <v>885</v>
       </c>
-      <c r="C94" s="35">
+      <c r="C94" s="33">
         <v>44.113579000000001</v>
       </c>
-      <c r="D94" s="35">
+      <c r="D94" s="33">
         <v>15.247726999999999</v>
       </c>
-      <c r="E94" s="35">
+      <c r="E94" s="33">
         <v>23000</v>
       </c>
       <c r="F94" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="26" t="str">
+      <c r="H94" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Molatska bb', 44.113579, 15.247727, 23000, 'Zadar');</v>
       </c>
@@ -8704,22 +8977,22 @@
       <c r="A95">
         <v>191</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="C95" s="35">
+      <c r="C95" s="33">
         <v>44.116776000000002</v>
       </c>
-      <c r="D95" s="35">
+      <c r="D95" s="33">
         <v>15.243772999999999</v>
       </c>
-      <c r="E95" s="35">
+      <c r="E95" s="33">
         <v>23000</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="26" t="str">
+      <c r="H95" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Splitska 3', 44.116776, 15.243773, 23000, 'Zadar');</v>
       </c>
@@ -8728,22 +9001,22 @@
       <c r="A96">
         <v>191</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="33">
         <v>44.116776000000002</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="33">
         <v>15.243772999999999</v>
       </c>
-      <c r="E96" s="35">
+      <c r="E96" s="33">
         <v>23000</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="26" t="str">
+      <c r="H96" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Splitska 3', 44.116776, 15.243773, 23000, 'Zadar');</v>
       </c>
@@ -8752,22 +9025,22 @@
       <c r="A97">
         <v>191</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="32" t="s">
         <v>913</v>
       </c>
-      <c r="C97" s="35">
+      <c r="C97" s="33">
         <v>44.118507999999999</v>
       </c>
-      <c r="D97" s="35">
+      <c r="D97" s="33">
         <v>15.237964</v>
       </c>
-      <c r="E97" s="35">
+      <c r="E97" s="33">
         <v>23000</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="26" t="str">
+      <c r="H97" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Grigora Viteza 12', 44.118508, 15.237964, 23000, 'Zadar');</v>
       </c>
@@ -8776,22 +9049,22 @@
       <c r="A98">
         <v>191</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="32" t="s">
         <v>995</v>
       </c>
-      <c r="C98" s="35">
+      <c r="C98" s="33">
         <v>44.106434999999998</v>
       </c>
-      <c r="D98" s="35">
+      <c r="D98" s="33">
         <v>15.245742999999999</v>
       </c>
-      <c r="E98" s="35">
+      <c r="E98" s="33">
         <v>23000</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="26" t="str">
+      <c r="H98" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Kreste Hegedušića 7', 44.106435, 15.245743, 23000, 'Zadar');</v>
       </c>
@@ -8800,22 +9073,22 @@
       <c r="A99">
         <v>191</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="32" t="s">
         <v>1002</v>
       </c>
-      <c r="C99" s="35">
+      <c r="C99" s="33">
         <v>44.119304</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="33">
         <v>15.231194</v>
       </c>
-      <c r="E99" s="35">
+      <c r="E99" s="33">
         <v>23000</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="26" t="str">
+      <c r="H99" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ivana Mažuranića 32', 44.119304, 15.231194, 23000, 'Zadar');</v>
       </c>
@@ -8824,22 +9097,22 @@
       <c r="A100">
         <v>191</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="32" t="s">
         <v>1012</v>
       </c>
-      <c r="C100" s="35">
+      <c r="C100" s="33">
         <v>44.118296999999998</v>
       </c>
-      <c r="D100" s="35">
+      <c r="D100" s="33">
         <v>15.250840999999999</v>
       </c>
-      <c r="E100" s="35">
+      <c r="E100" s="33">
         <v>23000</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="26" t="str">
+      <c r="H100" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Dubrovačka 20 a', 44.118297, 15.250841, 23000, 'Zadar');</v>
       </c>
@@ -8848,22 +9121,22 @@
       <c r="A101">
         <v>191</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="32" t="s">
         <v>1022</v>
       </c>
-      <c r="C101" s="35">
+      <c r="C101" s="33">
         <v>44.118760000000002</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="33">
         <v>15.230071000000001</v>
       </c>
-      <c r="E101" s="35">
+      <c r="E101" s="33">
         <v>23000</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="26" t="str">
+      <c r="H101" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ivana Mažuranića 10', 44.11876, 15.230071, 23000, 'Zadar');</v>
       </c>
@@ -8872,22 +9145,22 @@
       <c r="A102">
         <v>191</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="32" t="s">
         <v>1032</v>
       </c>
-      <c r="C102" s="35">
+      <c r="C102" s="33">
         <v>44.117840000000001</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="33">
         <v>15.230434000000001</v>
       </c>
-      <c r="E102" s="35">
+      <c r="E102" s="33">
         <v>23000</v>
       </c>
       <c r="F102" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="26" t="str">
+      <c r="H102" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Franje Alfirevića 13', 44.11784, 15.230434, 23000, 'Zadar');</v>
       </c>
@@ -8896,22 +9169,22 @@
       <c r="A103">
         <v>191</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="32" t="s">
         <v>1040</v>
       </c>
-      <c r="C103" s="35">
+      <c r="C103" s="33">
         <v>44.127198999999997</v>
       </c>
-      <c r="D103" s="35">
+      <c r="D103" s="33">
         <v>15.249768</v>
       </c>
-      <c r="E103" s="35">
+      <c r="E103" s="33">
         <v>23000</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="26" t="str">
+      <c r="H103" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ravska 3', 44.127199, 15.249768, 23000, 'Zadar');</v>
       </c>
@@ -8920,22 +9193,22 @@
       <c r="A104">
         <v>191</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="32" t="s">
         <v>1051</v>
       </c>
-      <c r="C104" s="35">
+      <c r="C104" s="33">
         <v>44.109980999999998</v>
       </c>
-      <c r="D104" s="35">
+      <c r="D104" s="33">
         <v>15.232393999999999</v>
       </c>
-      <c r="E104" s="35">
+      <c r="E104" s="33">
         <v>23000</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="26" t="str">
+      <c r="H104" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ravnice 2', 44.109981, 15.232394, 23000, 'Zadar');</v>
       </c>
@@ -8944,22 +9217,22 @@
       <c r="A105">
         <v>191</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="32" t="s">
         <v>1121</v>
       </c>
-      <c r="C105" s="35">
+      <c r="C105" s="33">
         <v>44.119160999999998</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="33">
         <v>15.263491</v>
       </c>
-      <c r="E105" s="35">
+      <c r="E105" s="33">
         <v>23000</v>
       </c>
       <c r="F105" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="26" t="str">
+      <c r="H105" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Hrvatskog sabora 1', 44.119161, 15.263491, 23000, 'Zadar');</v>
       </c>
@@ -8968,22 +9241,22 @@
       <c r="A106">
         <v>191</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="32" t="s">
         <v>1132</v>
       </c>
-      <c r="C106" s="35">
+      <c r="C106" s="33">
         <v>44.118845999999998</v>
       </c>
-      <c r="D106" s="35">
+      <c r="D106" s="33">
         <v>44.118845999999998</v>
       </c>
-      <c r="E106" s="35">
+      <c r="E106" s="33">
         <v>23000</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="26" t="str">
+      <c r="H106" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Andrije Hebranga 10 a', 44.118846, 44.118846, 23000, 'Zadar');</v>
       </c>
@@ -8992,22 +9265,22 @@
       <c r="A107">
         <v>191</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="C107" s="35">
+      <c r="C107" s="33">
         <v>44.119391999999998</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="33">
         <v>15.232911</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E107" s="33">
         <v>23000</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="26" t="str">
+      <c r="H107" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Kolovare bb', 44.119392, 15.232911, 23000, 'Zadar');</v>
       </c>
@@ -9016,22 +9289,22 @@
       <c r="A108">
         <v>191</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="C108" s="35">
+      <c r="C108" s="33">
         <v>44.105139000000001</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="33">
         <v>15.236663999999999</v>
       </c>
-      <c r="E108" s="35">
+      <c r="E108" s="33">
         <v>23000</v>
       </c>
       <c r="F108" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="26" t="str">
+      <c r="H108" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Vlahe Paljetka 2', 44.105139, 15.236664, 23000, 'Zadar');</v>
       </c>
@@ -9040,22 +9313,22 @@
       <c r="A109">
         <v>191</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="32" t="s">
         <v>1161</v>
       </c>
-      <c r="C109" s="35">
+      <c r="C109" s="33">
         <v>46.183047000000002</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="33">
         <v>14.306868</v>
       </c>
-      <c r="E109" s="35">
+      <c r="E109" s="33">
         <v>23000</v>
       </c>
       <c r="F109" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="26" t="str">
+      <c r="H109" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Paprenica 615', 46.183047, 14.306868, 23000, 'Zadar');</v>
       </c>
@@ -9064,22 +9337,22 @@
       <c r="A110">
         <v>191</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="32" t="s">
         <v>1169</v>
       </c>
-      <c r="C110" s="35">
+      <c r="C110" s="33">
         <v>44.115276999999999</v>
       </c>
-      <c r="D110" s="35">
+      <c r="D110" s="33">
         <v>15.228161999999999</v>
       </c>
-      <c r="E110" s="35">
+      <c r="E110" s="33">
         <v>23000</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="26" t="str">
+      <c r="H110" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Pod bedemom 3', 44.115277, 15.228162, 23000, 'Zadar');</v>
       </c>
@@ -9088,22 +9361,22 @@
       <c r="A111">
         <v>191</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="32" t="s">
         <v>1179</v>
       </c>
-      <c r="C111" s="35">
+      <c r="C111" s="33">
         <v>44.115887999999998</v>
       </c>
-      <c r="D111" s="35">
+      <c r="D111" s="33">
         <v>15.232843000000001</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="33">
         <v>23000</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="26" t="str">
+      <c r="H111" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Bana Josipa Jelačića  3c', 44.115888, 15.232843, 23000, 'Zadar');</v>
       </c>
@@ -9112,22 +9385,22 @@
       <c r="A112">
         <v>191</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="32" t="s">
         <v>1061</v>
       </c>
-      <c r="C112" s="35">
+      <c r="C112" s="33">
         <v>44.121389000000001</v>
       </c>
-      <c r="D112" s="35">
+      <c r="D112" s="33">
         <v>15.254979000000001</v>
       </c>
-      <c r="E112" s="35">
+      <c r="E112" s="33">
         <v>23000</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="26" t="str">
+      <c r="H112" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Pudarice 30 b', 44.121389, 15.254979, 23000, 'Zadar');</v>
       </c>
@@ -9136,22 +9409,22 @@
       <c r="A113">
         <v>191</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="32" t="s">
         <v>1070</v>
       </c>
-      <c r="C113" s="35">
+      <c r="C113" s="33">
         <v>44.113534999999999</v>
       </c>
-      <c r="D113" s="35">
+      <c r="D113" s="33">
         <v>15.236865</v>
       </c>
-      <c r="E113" s="35">
+      <c r="E113" s="33">
         <v>23000</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="26" t="str">
+      <c r="H113" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Crno  145', 44.113535, 15.236865, 23000, 'Zadar');</v>
       </c>
@@ -9160,22 +9433,22 @@
       <c r="A114">
         <v>191</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="32" t="s">
         <v>1081</v>
       </c>
-      <c r="C114" s="35">
+      <c r="C114" s="33">
         <v>44.114586000000003</v>
       </c>
-      <c r="D114" s="35">
+      <c r="D114" s="33">
         <v>15.225160000000001</v>
       </c>
-      <c r="E114" s="35">
+      <c r="E114" s="33">
         <v>23000</v>
       </c>
       <c r="F114" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="26" t="str">
+      <c r="H114" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Poljana požarišće 1', 44.114586, 15.22516, 23000, 'Zadar');</v>
       </c>
@@ -9184,22 +9457,22 @@
       <c r="A115">
         <v>191</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="32" t="s">
         <v>1092</v>
       </c>
-      <c r="C115" s="35">
+      <c r="C115" s="33">
         <v>44.112141999999999</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D115" s="33">
         <v>15.226957000000001</v>
       </c>
-      <c r="E115" s="35">
+      <c r="E115" s="33">
         <v>23000</v>
       </c>
       <c r="F115" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="26" t="str">
+      <c r="H115" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ruđera Boškovića 6/3', 44.112142, 15.226957, 23000, 'Zadar');</v>
       </c>
@@ -9208,22 +9481,22 @@
       <c r="A116">
         <v>191</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="32" t="s">
         <v>1103</v>
       </c>
-      <c r="C116" s="35">
+      <c r="C116" s="33">
         <v>44.118071999999998</v>
       </c>
-      <c r="D116" s="35">
+      <c r="D116" s="33">
         <v>15.23709</v>
       </c>
-      <c r="E116" s="35">
+      <c r="E116" s="33">
         <v>23000</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="26" t="str">
+      <c r="H116" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Grigora Viteza 3', 44.118072, 15.23709, 23000, 'Zadar');</v>
       </c>
@@ -9232,22 +9505,22 @@
       <c r="A117">
         <v>191</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C117" s="35">
+      <c r="C117" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D117" s="35">
+      <c r="D117" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E117" s="35">
+      <c r="E117" s="33">
         <v>23000</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="26" t="str">
+      <c r="H117" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -9256,22 +9529,22 @@
       <c r="A118">
         <v>191</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C118" s="35">
+      <c r="C118" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D118" s="35">
+      <c r="D118" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E118" s="35">
+      <c r="E118" s="33">
         <v>23000</v>
       </c>
       <c r="F118" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="26" t="str">
+      <c r="H118" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -9280,22 +9553,22 @@
       <c r="A119">
         <v>191</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C119" s="35">
+      <c r="C119" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D119" s="35">
+      <c r="D119" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E119" s="35">
+      <c r="E119" s="33">
         <v>23000</v>
       </c>
       <c r="F119" t="s">
         <v>15</v>
       </c>
-      <c r="H119" s="26" t="str">
+      <c r="H119" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -9304,22 +9577,22 @@
       <c r="A120">
         <v>191</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C120" s="35">
+      <c r="C120" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D120" s="35">
+      <c r="D120" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E120" s="35">
+      <c r="E120" s="33">
         <v>23000</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="26" t="str">
+      <c r="H120" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -9328,22 +9601,22 @@
       <c r="A121">
         <v>191</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C121" s="35">
+      <c r="C121" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D121" s="35">
+      <c r="D121" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E121" s="35">
+      <c r="E121" s="33">
         <v>23000</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="26" t="str">
+      <c r="H121" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -9352,22 +9625,22 @@
       <c r="A122">
         <v>191</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C122" s="35">
+      <c r="C122" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D122" s="35">
+      <c r="D122" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E122" s="35">
+      <c r="E122" s="33">
         <v>23000</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="26" t="str">
+      <c r="H122" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -9376,22 +9649,22 @@
       <c r="A123">
         <v>191</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="32" t="s">
         <v>1229</v>
       </c>
-      <c r="C123" s="35">
+      <c r="C123" s="33">
         <v>44.032114</v>
       </c>
-      <c r="D123" s="35">
+      <c r="D123" s="33">
         <v>15.615842000000001</v>
       </c>
-      <c r="E123" s="35">
+      <c r="E123" s="33">
         <v>23000</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="26" t="str">
+      <c r="H123" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Domovinskog rata 6', 44.032114, 15.615842, 23000, 'Zadar');</v>
       </c>
@@ -9400,22 +9673,22 @@
       <c r="A124">
         <v>191</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="32" t="s">
         <v>1239</v>
       </c>
-      <c r="C124" s="35">
+      <c r="C124" s="33">
         <v>44.122501999999997</v>
       </c>
-      <c r="D124" s="35">
+      <c r="D124" s="33">
         <v>15.258615000000001</v>
       </c>
-      <c r="E124" s="35">
+      <c r="E124" s="33">
         <v>23000</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="26" t="str">
+      <c r="H124" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Vukovarska 1/c', 44.122502, 15.258615, 23000, 'Zadar');</v>
       </c>
@@ -9424,22 +9697,22 @@
       <c r="A125">
         <v>191</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="32" t="s">
         <v>1249</v>
       </c>
-      <c r="C125" s="35">
+      <c r="C125" s="33">
         <v>44.112555999999998</v>
       </c>
-      <c r="D125" s="35">
+      <c r="D125" s="33">
         <v>15.231258</v>
       </c>
-      <c r="E125" s="35">
+      <c r="E125" s="33">
         <v>23000</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
       </c>
-      <c r="H125" s="26" t="str">
+      <c r="H125" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Bartula Kašića 3', 44.112556, 15.231258, 23000, 'Zadar');</v>
       </c>
@@ -9448,22 +9721,22 @@
       <c r="A126">
         <v>191</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="32" t="s">
         <v>1260</v>
       </c>
-      <c r="C126" s="35">
+      <c r="C126" s="33">
         <v>44.113356000000003</v>
       </c>
-      <c r="D126" s="35">
+      <c r="D126" s="33">
         <v>15.233212</v>
       </c>
-      <c r="E126" s="35">
+      <c r="E126" s="33">
         <v>23000</v>
       </c>
       <c r="F126" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="26" t="str">
+      <c r="H126" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Branimirova obala 4 f', 44.113356, 15.233212, 23000, 'Zadar');</v>
       </c>
@@ -9472,22 +9745,22 @@
       <c r="A127">
         <v>191</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="32" t="s">
         <v>1269</v>
       </c>
-      <c r="C127" s="35">
+      <c r="C127" s="33">
         <v>44.123834000000002</v>
       </c>
-      <c r="D127" s="35">
+      <c r="D127" s="33">
         <v>15.231082000000001</v>
       </c>
-      <c r="E127" s="35">
+      <c r="E127" s="33">
         <v>23000</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="26" t="str">
+      <c r="H127" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ivana Gundulića 1D', 44.123834, 15.231082, 23000, 'Zadar');</v>
       </c>
@@ -9496,22 +9769,22 @@
       <c r="A128">
         <v>191</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="32" t="s">
         <v>1280</v>
       </c>
-      <c r="C128" s="35">
+      <c r="C128" s="33">
         <v>44.119961000000004</v>
       </c>
-      <c r="D128" s="35">
+      <c r="D128" s="33">
         <v>15.231275</v>
       </c>
-      <c r="E128" s="35">
+      <c r="E128" s="33">
         <v>23000</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
-      <c r="H128" s="26" t="str">
+      <c r="H128" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Oko Vrulja 8', 44.119961, 15.231275, 23000, 'Zadar');</v>
       </c>
@@ -9520,22 +9793,22 @@
       <c r="A129">
         <v>191</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="32" t="s">
         <v>1289</v>
       </c>
-      <c r="C129" s="35">
+      <c r="C129" s="33">
         <v>44.171456999999997</v>
       </c>
-      <c r="D129" s="35">
+      <c r="D129" s="33">
         <v>15.179061000000001</v>
       </c>
-      <c r="E129" s="35">
+      <c r="E129" s="33">
         <v>23000</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="26" t="str">
+      <c r="H129" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Petrčane Ulica 18', 44.171457, 15.179061, 23000, 'Zadar');</v>
       </c>
@@ -9544,18 +9817,18 @@
       <c r="A130">
         <v>191</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="32" t="s">
         <v>1299</v>
       </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="35">
+      <c r="C130" s="33"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="33">
         <v>23000</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="26" t="str">
+      <c r="H130" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Braće Bilšić 4', 0, 0, 23000, 'Zadar');</v>
       </c>
@@ -9564,22 +9837,22 @@
       <c r="A131">
         <v>191</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="34" t="s">
         <v>1309</v>
       </c>
-      <c r="C131" s="35">
+      <c r="C131" s="33">
         <v>44.144337999999998</v>
       </c>
-      <c r="D131" s="35">
+      <c r="D131" s="33">
         <v>15.237700999999999</v>
       </c>
-      <c r="E131" s="35">
+      <c r="E131" s="33">
         <v>23000</v>
       </c>
       <c r="F131" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="26" t="str">
+      <c r="H131" s="25" t="str">
         <f t="shared" ref="H131:H160" si="2">"insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( "&amp;A131&amp;", '"&amp;B131&amp;"', "&amp;IF(C131="",0,C131)&amp;", "&amp;IF(D131="",0,D131)&amp;", "&amp;E131&amp;", '"&amp;F131&amp;"');"</f>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Poljana Jaroslava Šidaka 17', 44.144338, 15.237701, 23000, 'Zadar');</v>
       </c>
@@ -9588,18 +9861,18 @@
       <c r="A132">
         <v>191</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="32" t="s">
         <v>1318</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35">
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33">
         <v>23000</v>
       </c>
       <c r="F132" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="26" t="str">
+      <c r="H132" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Zgona 5', 0, 0, 23000, 'Zadar');</v>
       </c>
@@ -9608,22 +9881,22 @@
       <c r="A133">
         <v>191</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="C133" s="35">
+      <c r="C133" s="33">
         <v>44.113835999999999</v>
       </c>
-      <c r="D133" s="35">
+      <c r="D133" s="33">
         <v>15.227370000000001</v>
       </c>
-      <c r="E133" s="35">
+      <c r="E133" s="33">
         <v>23000</v>
       </c>
       <c r="F133" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="26" t="str">
+      <c r="H133" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Mihe Klaića 4', 44.113836, 15.22737, 23000, 'Zadar');</v>
       </c>
@@ -9632,22 +9905,22 @@
       <c r="A134">
         <v>191</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="C134" s="35">
+      <c r="C134" s="33">
         <v>44.114457999999999</v>
       </c>
-      <c r="D134" s="35">
+      <c r="D134" s="33">
         <v>15.260123999999999</v>
       </c>
-      <c r="E134" s="35">
+      <c r="E134" s="33">
         <v>23000</v>
       </c>
       <c r="F134" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="26" t="str">
+      <c r="H134" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Antuna Dobronića 12', 44.114458, 15.260124, 23000, 'Zadar');</v>
       </c>
@@ -9656,18 +9929,18 @@
       <c r="A135">
         <v>191</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="32" t="s">
         <v>1352</v>
       </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35">
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33">
         <v>23000</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="26" t="str">
+      <c r="H135" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Trg Sv. Šimuna i Tadije 1', 0, 0, 23000, 'Zadar');</v>
       </c>
@@ -9676,22 +9949,22 @@
       <c r="A136">
         <v>191</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="32" t="s">
         <v>1361</v>
       </c>
-      <c r="C136" s="35">
+      <c r="C136" s="33">
         <v>44.121738999999998</v>
       </c>
-      <c r="D136" s="35">
+      <c r="D136" s="33">
         <v>15.253519000000001</v>
       </c>
-      <c r="E136" s="35">
+      <c r="E136" s="33">
         <v>23000</v>
       </c>
       <c r="F136" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="26" t="str">
+      <c r="H136" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Pudarice 11 J', 44.121739, 15.253519, 23000, 'Zadar');</v>
       </c>
@@ -9700,22 +9973,22 @@
       <c r="A137">
         <v>191</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="C137" s="35">
+      <c r="C137" s="33">
         <v>44.112248000000001</v>
       </c>
-      <c r="D137" s="35">
+      <c r="D137" s="33">
         <v>15.237651</v>
       </c>
-      <c r="E137" s="35">
+      <c r="E137" s="33">
         <v>23000</v>
       </c>
       <c r="F137" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="26" t="str">
+      <c r="H137" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Stanova BB', 44.112248, 15.237651, 23000, 'Zadar');</v>
       </c>
@@ -9724,22 +9997,22 @@
       <c r="A138">
         <v>191</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="C138" s="35">
+      <c r="C138" s="33">
         <v>44.324204999999999</v>
       </c>
-      <c r="D138" s="35">
+      <c r="D138" s="33">
         <v>14.858964</v>
       </c>
-      <c r="E138" s="35">
+      <c r="E138" s="33">
         <v>23000</v>
       </c>
       <c r="F138" t="s">
         <v>15</v>
       </c>
-      <c r="H138" s="26" t="str">
+      <c r="H138" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ist 126', 44.324205, 14.858964, 23000, 'Zadar');</v>
       </c>
@@ -9748,22 +10021,22 @@
       <c r="A139">
         <v>191</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="32" t="s">
         <v>1393</v>
       </c>
-      <c r="C139" s="35">
+      <c r="C139" s="33">
         <v>44.148609999999998</v>
       </c>
-      <c r="D139" s="35">
+      <c r="D139" s="33">
         <v>15.237344</v>
       </c>
-      <c r="E139" s="35">
+      <c r="E139" s="33">
         <v>23000</v>
       </c>
       <c r="F139" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="26" t="str">
+      <c r="H139" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Poljana Dragutina Gorjanovića Krambergera 28', 44.14861, 15.237344, 23000, 'Zadar');</v>
       </c>
@@ -9772,22 +10045,22 @@
       <c r="A140">
         <v>191</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="32" t="s">
         <v>1404</v>
       </c>
-      <c r="C140" s="35">
+      <c r="C140" s="33">
         <v>44.122509999999998</v>
       </c>
-      <c r="D140" s="35">
+      <c r="D140" s="33">
         <v>15.228583</v>
       </c>
-      <c r="E140" s="35">
+      <c r="E140" s="33">
         <v>23000</v>
       </c>
       <c r="F140" t="s">
         <v>15</v>
       </c>
-      <c r="H140" s="26" t="str">
+      <c r="H140" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Miroslava Krleže 16', 44.12251, 15.228583, 23000, 'Zadar');</v>
       </c>
@@ -9796,22 +10069,22 @@
       <c r="A141">
         <v>191</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="32" t="s">
         <v>1414</v>
       </c>
-      <c r="C141" s="35">
+      <c r="C141" s="33">
         <v>44.098286000000002</v>
       </c>
-      <c r="D141" s="35">
+      <c r="D141" s="33">
         <v>15.245775999999999</v>
       </c>
-      <c r="E141" s="35">
+      <c r="E141" s="33">
         <v>23000</v>
       </c>
       <c r="F141" t="s">
         <v>15</v>
       </c>
-      <c r="H141" s="26" t="str">
+      <c r="H141" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Bajla 4A', 44.098286, 15.245776, 23000, 'Zadar');</v>
       </c>
@@ -9820,22 +10093,22 @@
       <c r="A142">
         <v>191</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="32" t="s">
         <v>1426</v>
       </c>
-      <c r="C142" s="35">
+      <c r="C142" s="33">
         <v>44.121738999999998</v>
       </c>
-      <c r="D142" s="35">
+      <c r="D142" s="33">
         <v>15.253519000000001</v>
       </c>
-      <c r="E142" s="35">
+      <c r="E142" s="33">
         <v>23000</v>
       </c>
       <c r="F142" t="s">
         <v>15</v>
       </c>
-      <c r="H142" s="26" t="str">
+      <c r="H142" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Pudarice 11A', 44.121739, 15.253519, 23000, 'Zadar');</v>
       </c>
@@ -9844,22 +10117,22 @@
       <c r="A143">
         <v>191</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="32" t="s">
         <v>1487</v>
       </c>
-      <c r="C143" s="35">
+      <c r="C143" s="33">
         <v>44.127085000000001</v>
       </c>
-      <c r="D143" s="35">
+      <c r="D143" s="33">
         <v>15.246295</v>
       </c>
-      <c r="E143" s="35">
+      <c r="E143" s="33">
         <v>23000</v>
       </c>
       <c r="F143" t="s">
         <v>15</v>
       </c>
-      <c r="H143" s="26" t="str">
+      <c r="H143" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Nikole Tesle 63', 44.127085, 15.246295, 23000, 'Zadar');</v>
       </c>
@@ -9868,22 +10141,22 @@
       <c r="A144">
         <v>191</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="32" t="s">
         <v>1497</v>
       </c>
-      <c r="C144" s="35">
+      <c r="C144" s="33">
         <v>44.117716999999999</v>
       </c>
-      <c r="D144" s="35">
+      <c r="D144" s="33">
         <v>15.234769999999999</v>
       </c>
-      <c r="E144" s="35">
+      <c r="E144" s="33">
         <v>23000</v>
       </c>
       <c r="F144" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="26" t="str">
+      <c r="H144" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Velebitska 20', 44.117717, 15.23477, 23000, 'Zadar');</v>
       </c>
@@ -9892,22 +10165,22 @@
       <c r="A145">
         <v>191</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="32" t="s">
         <v>1508</v>
       </c>
-      <c r="C145" s="35">
+      <c r="C145" s="33">
         <v>44.100600999999997</v>
       </c>
-      <c r="D145" s="35">
+      <c r="D145" s="33">
         <v>15.283405999999999</v>
       </c>
-      <c r="E145" s="35">
+      <c r="E145" s="33">
         <v>23000</v>
       </c>
       <c r="F145" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="26" t="str">
+      <c r="H145" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Sv. Nikole Tavelića 8', 44.100601, 15.283406, 23000, 'Zadar');</v>
       </c>
@@ -9916,22 +10189,22 @@
       <c r="A146">
         <v>191</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="32" t="s">
         <v>1518</v>
       </c>
-      <c r="C146" s="35">
+      <c r="C146" s="33">
         <v>44.116784000000003</v>
       </c>
-      <c r="D146" s="35">
+      <c r="D146" s="33">
         <v>15.248271000000001</v>
       </c>
-      <c r="E146" s="35">
+      <c r="E146" s="33">
         <v>23000</v>
       </c>
       <c r="F146" t="s">
         <v>15</v>
       </c>
-      <c r="H146" s="26" t="str">
+      <c r="H146" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Rine Aras 2', 44.116784, 15.248271, 23000, 'Zadar');</v>
       </c>
@@ -9940,22 +10213,22 @@
       <c r="A147">
         <v>191</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="32" t="s">
         <v>1529</v>
       </c>
-      <c r="C147" s="35">
+      <c r="C147" s="33">
         <v>44.106769</v>
       </c>
-      <c r="D147" s="35">
+      <c r="D147" s="33">
         <v>15.254733999999999</v>
       </c>
-      <c r="E147" s="35">
+      <c r="E147" s="33">
         <v>23000</v>
       </c>
       <c r="F147" t="s">
         <v>15</v>
       </c>
-      <c r="H147" s="26" t="str">
+      <c r="H147" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Kliška 12', 44.106769, 15.254734, 23000, 'Zadar');</v>
       </c>
@@ -9964,22 +10237,22 @@
       <c r="A148">
         <v>191</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="32" t="s">
         <v>1540</v>
       </c>
-      <c r="C148" s="35">
+      <c r="C148" s="33">
         <v>44.121870999999999</v>
       </c>
-      <c r="D148" s="35">
+      <c r="D148" s="33">
         <v>15.24722</v>
       </c>
-      <c r="E148" s="35">
+      <c r="E148" s="33">
         <v>23000</v>
       </c>
       <c r="F148" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="26" t="str">
+      <c r="H148" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Luke Botića 26', 44.121871, 15.24722, 23000, 'Zadar');</v>
       </c>
@@ -9988,22 +10261,22 @@
       <c r="A149">
         <v>191</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="32" t="s">
         <v>985</v>
       </c>
-      <c r="C149" s="35">
+      <c r="C149" s="33">
         <v>44.039934000000002</v>
       </c>
-      <c r="D149" s="35">
+      <c r="D149" s="33">
         <v>15.056737999999999</v>
       </c>
-      <c r="E149" s="35">
+      <c r="E149" s="33">
         <v>23000</v>
       </c>
       <c r="F149" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="26" t="str">
+      <c r="H149" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Mala Rava', 44.039934, 15.056738, 23000, 'Zadar');</v>
       </c>
@@ -10012,22 +10285,22 @@
       <c r="A150">
         <v>191</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="32" t="s">
         <v>1559</v>
       </c>
-      <c r="C150" s="35">
+      <c r="C150" s="33">
         <v>44.106715999999999</v>
       </c>
-      <c r="D150" s="35">
+      <c r="D150" s="33">
         <v>15.262622</v>
       </c>
-      <c r="E150" s="35">
+      <c r="E150" s="33">
         <v>23000</v>
       </c>
       <c r="F150" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="26" t="str">
+      <c r="H150" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Andrje Maurovića 5', 44.106716, 15.262622, 23000, 'Zadar');</v>
       </c>
@@ -10036,22 +10309,22 @@
       <c r="A151">
         <v>191</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="32" t="s">
         <v>1571</v>
       </c>
-      <c r="C151" s="35">
+      <c r="C151" s="33">
         <v>44.112248000000001</v>
       </c>
-      <c r="D151" s="35">
+      <c r="D151" s="33">
         <v>15.237651</v>
       </c>
-      <c r="E151" s="35">
+      <c r="E151" s="33">
         <v>23000</v>
       </c>
       <c r="F151" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="26" t="str">
+      <c r="H151" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Bajla BB', 44.112248, 15.237651, 23000, 'Zadar');</v>
       </c>
@@ -10060,22 +10333,22 @@
       <c r="A152">
         <v>191</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="32" t="s">
         <v>1437</v>
       </c>
-      <c r="C152" s="35">
+      <c r="C152" s="33">
         <v>44.108628000000003</v>
       </c>
-      <c r="D152" s="35">
+      <c r="D152" s="33">
         <v>15.245257000000001</v>
       </c>
-      <c r="E152" s="35">
+      <c r="E152" s="33">
         <v>23000</v>
       </c>
       <c r="F152" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="26" t="str">
+      <c r="H152" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Ivana Zadranina 3D', 44.108628, 15.245257, 23000, 'Zadar');</v>
       </c>
@@ -10084,22 +10357,22 @@
       <c r="A153">
         <v>191</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="32" t="s">
         <v>1448</v>
       </c>
-      <c r="C153" s="35">
+      <c r="C153" s="33">
         <v>44.111347000000002</v>
       </c>
-      <c r="D153" s="35">
+      <c r="D153" s="33">
         <v>15.243145</v>
       </c>
-      <c r="E153" s="35">
+      <c r="E153" s="33">
         <v>23000</v>
       </c>
       <c r="F153" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="26" t="str">
+      <c r="H153" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Molatska 11', 44.111347, 15.243145, 23000, 'Zadar');</v>
       </c>
@@ -10108,22 +10381,22 @@
       <c r="A154">
         <v>191</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="C154" s="35">
+      <c r="C154" s="33">
         <v>44.125639</v>
       </c>
-      <c r="D154" s="35">
+      <c r="D154" s="33">
         <v>15.235198</v>
       </c>
-      <c r="E154" s="35">
+      <c r="E154" s="33">
         <v>23000</v>
       </c>
       <c r="F154" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="26" t="str">
+      <c r="H154" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Benka Benkovića 3', 44.125639, 15.235198, 23000, 'Zadar');</v>
       </c>
@@ -10132,22 +10405,22 @@
       <c r="A155">
         <v>191</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="32" t="s">
         <v>1468</v>
       </c>
-      <c r="C155" s="35">
+      <c r="C155" s="33">
         <v>44.127744</v>
       </c>
-      <c r="D155" s="35">
+      <c r="D155" s="33">
         <v>15.236214</v>
       </c>
-      <c r="E155" s="35">
+      <c r="E155" s="33">
         <v>23000</v>
       </c>
       <c r="F155" t="s">
         <v>15</v>
       </c>
-      <c r="H155" s="26" t="str">
+      <c r="H155" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Bokanjca 26', 44.127744, 15.236214, 23000, 'Zadar');</v>
       </c>
@@ -10156,22 +10429,22 @@
       <c r="A156">
         <v>191</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="32" t="s">
         <v>1479</v>
       </c>
-      <c r="C156" s="35">
+      <c r="C156" s="33">
         <v>44.121974000000002</v>
       </c>
-      <c r="D156" s="35">
+      <c r="D156" s="33">
         <v>15.253253000000001</v>
       </c>
-      <c r="E156" s="35">
+      <c r="E156" s="33">
         <v>23000</v>
       </c>
       <c r="F156" t="s">
         <v>15</v>
       </c>
-      <c r="H156" s="26" t="str">
+      <c r="H156" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Put Pudarice 11 C', 44.121974, 15.253253, 23000, 'Zadar');</v>
       </c>
@@ -10180,22 +10453,22 @@
       <c r="A157">
         <v>191</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="C157" s="35">
+      <c r="C157" s="33">
         <v>44.113835999999999</v>
       </c>
-      <c r="D157" s="35">
+      <c r="D157" s="33">
         <v>15.227370000000001</v>
       </c>
-      <c r="E157" s="35">
+      <c r="E157" s="33">
         <v>23000</v>
       </c>
       <c r="F157" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="26" t="str">
+      <c r="H157" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Mihe Klaića 4', 44.113836, 15.22737, 23000, 'Zadar');</v>
       </c>
@@ -10204,22 +10477,22 @@
       <c r="A158">
         <v>191</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="32" t="s">
         <v>1582</v>
       </c>
-      <c r="C158" s="35">
+      <c r="C158" s="33">
         <v>44.123834000000002</v>
       </c>
-      <c r="D158" s="35">
+      <c r="D158" s="33">
         <v>15.231082000000001</v>
       </c>
-      <c r="E158" s="35">
+      <c r="E158" s="33">
         <v>23000</v>
       </c>
       <c r="F158" t="s">
         <v>15</v>
       </c>
-      <c r="H158" s="26" t="str">
+      <c r="H158" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Iva Gundulića 1D', 44.123834, 15.231082, 23000, 'Zadar');</v>
       </c>
@@ -10228,22 +10501,22 @@
       <c r="A159">
         <v>191</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="32" t="s">
         <v>1592</v>
       </c>
-      <c r="C159" s="35">
+      <c r="C159" s="33">
         <v>44.119304</v>
       </c>
-      <c r="D159" s="35">
+      <c r="D159" s="33">
         <v>15.231194</v>
       </c>
-      <c r="E159" s="35">
+      <c r="E159" s="33">
         <v>23000</v>
       </c>
       <c r="F159" t="s">
         <v>15</v>
       </c>
-      <c r="H159" s="26" t="str">
+      <c r="H159" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'I. Mažuranića 32', 44.119304, 15.231194, 23000, 'Zadar');</v>
       </c>
@@ -10252,22 +10525,22 @@
       <c r="A160">
         <v>191</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="32" t="s">
         <v>1602</v>
       </c>
-      <c r="C160" s="35">
+      <c r="C160" s="33">
         <v>44.104703999999998</v>
       </c>
-      <c r="D160" s="35">
+      <c r="D160" s="33">
         <v>15.272314</v>
       </c>
-      <c r="E160" s="35">
+      <c r="E160" s="33">
         <v>23000</v>
       </c>
       <c r="F160" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="26" t="str">
+      <c r="H160" s="25" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.location (country_code, address, latitude, longitude, postal_code, city) values ( 191, 'Palih rodoljuba 12', 44.104704, 15.272314, 23000, 'Zadar');</v>
       </c>
@@ -10294,33 +10567,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1787</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>1788</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1790</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>1791</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1792</v>
       </c>
       <c r="D2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="25" t="str">
         <f>"insert into diskobolos.users(username, password, email, enabled) values ('"&amp;A2&amp;"', '"&amp;B2&amp;"',  '"&amp;C2&amp;"',  "&amp;D2&amp;");"</f>
         <v>insert into diskobolos.users(username, password, email, enabled) values ('test', '$2a$04$PGghSlPUBJtDCs8pMXrj0OAbJN3deO1FVUKcgheGuyQgnMN65lx5m',  'test@gmail.com',  TRUE);</v>
       </c>
@@ -10348,19 +10621,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1793</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>1797</v>
+      <c r="C1" s="30" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -10368,14 +10641,14 @@
       <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="25" t="str">
         <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A2&amp;"',  "&amp;B2&amp;", "&amp;C2&amp;");"</f>
         <v>insert into diskobolos.authorities(role, user_id, permission_level) values ('ROLE_USER',  1, 2);</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
@@ -10383,7 +10656,7 @@
       <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="25" t="str">
         <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A3&amp;"',  "&amp;B3&amp;", "&amp;C3&amp;");"</f>
         <v>insert into diskobolos.authorities(role, user_id, permission_level) values ('ROLE_ADMIN',  1, 0);</v>
       </c>
@@ -10409,8 +10682,8 @@
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1804</v>
+      <c r="B1" s="35" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -10418,7 +10691,7 @@
         <v>1673</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>"insert into membership_category (description, html_color) values ( '"&amp;A2&amp;"', '"&amp;B2&amp;"');"</f>
@@ -10430,7 +10703,7 @@
         <v>1674</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D11" si="0">"insert into membership_category (description, html_color) values ( '"&amp;A3&amp;"', '"&amp;B3&amp;"');"</f>
@@ -10442,7 +10715,7 @@
         <v>1675</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10454,7 +10727,7 @@
         <v>1676</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10466,7 +10739,7 @@
         <v>1677</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10478,7 +10751,7 @@
         <v>1678</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10490,7 +10763,7 @@
         <v>1679</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10502,7 +10775,7 @@
         <v>1680</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10514,7 +10787,7 @@
         <v>1681</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10526,7 +10799,7 @@
         <v>1682</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23734,347 +24007,1129 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="40.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>1763</v>
       </c>
-      <c r="D2" s="26" t="str">
-        <f t="shared" ref="D2:D19" si="0">"insert into diskobolos.sport (name) values ( '"&amp;B2&amp;"');"</f>
+      <c r="C2" s="25" t="str">
+        <f>"insert into diskobolos.sport (name) values ( '"&amp;A2&amp;"');"</f>
         <v>insert into diskobolos.sport (name) values ( 'ATLETIKA');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>1762</v>
       </c>
-      <c r="D3" s="26" t="str">
-        <f t="shared" si="0"/>
+      <c r="C3" s="25" t="str">
+        <f>"insert into diskobolos.sport (name) values ( '"&amp;A3&amp;"');"</f>
         <v>insert into diskobolos.sport (name) values ( 'AIKIDO');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>1761</v>
       </c>
-      <c r="D4" s="26" t="str">
-        <f t="shared" si="0"/>
+      <c r="C4" s="25" t="str">
+        <f>"insert into diskobolos.sport (name) values ( '"&amp;A4&amp;"');"</f>
         <v>insert into diskobolos.sport (name) values ( 'AKROBATSKI ROCK'N'ROLL');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>1760</v>
       </c>
-      <c r="D5" s="26" t="str">
-        <f t="shared" si="0"/>
+      <c r="C5" s="25" t="str">
+        <f t="shared" ref="C2:C116" si="0">"insert into diskobolos.sport (name) values ( '"&amp;A5&amp;"');"</f>
         <v>insert into diskobolos.sport (name) values ( 'AMERIČKI NOGOMET (FOOTBALL)');</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>1759</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="C6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'AUTOMOBILIZAM');</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>1758</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="C7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BADMINTON');</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>1757</v>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="C8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BANDY');</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>1756</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BASEBALL');</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>1755</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="C10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BIATLON');</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>1754</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BICIKLIZAM');</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>1753</v>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BILJAR');</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>1752</v>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BOB');</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>1751</v>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="C14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BOĆANJE');</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>1750</v>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BODY BUILDING');</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>1749</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="C16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BOKS');</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>1748</v>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="C17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'BRIDŽ');</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>1747</v>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="C18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'CASTING');</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>1746</v>
       </c>
-      <c r="D19" s="26" t="str">
+      <c r="C19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.sport (name) values ( 'CHEER/CHEERLEADING/NAVIJANJE');</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24"/>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24"/>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="24"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="24"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="24"/>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="24"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="24"/>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="24"/>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="24"/>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="24"/>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="24"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24"/>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'CROQUET');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'CURLING');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'DAME (igra)');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'DALJINSKO PLIVANJE');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'DIZANJE UTEGA');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'FISTBALL');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'FLOORBALL');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'FLYING DISC');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'GALOPSKI SPORT');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'GIMNASTIKA');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'GO');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'GOLF');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'HOKEJ (na travi)');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'HOKEJ NA LEDU');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'HRVANJE');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'JEDRENJE');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'JET SKI');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C37" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'JUDO');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'JU-JITSU');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C39" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KAJAK-KANU');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C40" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KARATE');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C41" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KASAČKI SPORT');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C42" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KENDO');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C43" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KICK-BOXING');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C44" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KLIZANJE');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C45" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KONJIČKI SPORT');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C46" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KORFBALL');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KOŠARKA');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KOTURALJKANJE');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KRIKET');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KUGLANJE');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'KUGLANJE NA LEDU');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'LACROSSE');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'MAČEVANJE');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'MINIGOLF');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'MODERNI PENTATLON');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'MOTOCIKLIZAM');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'MOTONAUTIKA (Powerboating)');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'NANBUDO');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'NETBALL');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'NOGOMET');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'NOGOTENIS');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'OBARANJE RUKU');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'ODBOJKA');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'ORIJENTACIJSKI SPORT');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'PELOTA BASQUE');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'PIKADO');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'PLANINARSTVO');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'ŠPORTSKO PENJANJE');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'PLANINSKO SKIJANJE');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'PLIVANJE');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'POLO');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'POTEZANJE UŽETA (lug-of.war)');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'POWERLIFTING');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'RACKETBALL');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'RAGBI');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'RONILAŠTVO');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'RUKOMET');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SAMBO');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SAMOSTREL');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SAVATE');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SEPAKTAKRAW');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SINKRONIZIRANO PLIVANJE');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SKATEBOARDING (koturaljkanje na dasci)');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SKIBOB');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SKIJANJE');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SKIJANJE NA VODI I WAKEBOARD');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SKOKOVI U VODU');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SKVOŠ');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SLEDDOG (sanjkanje sa psećom zaprekom)');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SOFT TENNIS');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SOFTBALL');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPECIJALNA OLIMPIJADA');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORTSKA REKREACIJA (Sport za sve)');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'STOLNI TENIS');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'STRELIČARSTVO');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'STRELJAŠTVO');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SUMO');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SURFING (skijanje na dasci na vodi)');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'ŠAH');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'ŠKOLSKI SPORT');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORT GLUHIH');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="28" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORT OSOBA S INVALIDITETOM');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORTSKI PLES');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="28" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORTSKI RIBOLOV (slatke vode)');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORTSKI RIBOLOV NA MORU');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="28" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORT STUDENATA');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="28" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'SPORT VOJNIKA');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="28" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'TAKEWONDO');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="28" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'TAJLANDSKI BOKS');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'TENIS');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'TRIATLON');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'TWIRLING');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="28" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'VATERPOLO');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'VESLANJE');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'WUSHU');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.sport (name) values ( 'ZRAKOPLOVSTVO');</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -24096,267 +25151,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>1783</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1782</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>1781</v>
       </c>
+      <c r="D1" s="29" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>1774</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F2" s="26" t="str">
+      <c r="C2" s="28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F2" s="25" t="str">
         <f>"insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"');"</f>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'Hrvatski atletski savez');</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1774</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>1773</v>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="D3" s="28" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F3" s="25" t="str">
         <f>"insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"');"</f>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'HOO');</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>1770</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F4" s="26" t="str">
+      <c r="C4" s="28" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F4" s="25" t="str">
         <f>"insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"');"</f>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'IAAF');</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>1767</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F5" s="26" t="str">
+      <c r="F5" s="25" t="str">
         <f>"insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  '"&amp;B5&amp;"', '"&amp;C5&amp;"', '"&amp;D5&amp;"');"</f>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'IOC');</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>1766</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>1765</v>
       </c>
-      <c r="F6" s="26" t="str">
+      <c r="D6" s="28" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F6" s="25" t="str">
         <f>"insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  '"&amp;B6&amp;"', '"&amp;C6&amp;"', '"&amp;D6&amp;"');"</f>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'ATLETIKA'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'SPORRTACCORD');</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>1774</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F7" s="26" t="str">
+      <c r="C7" s="28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F7" s="25" t="str">
         <f t="shared" ref="F7:F15" si="0">"insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  '"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;D7&amp;"');"</f>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'Hrvatski aikido savez');</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'IAF');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>2</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'SPORRTACCORD');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'Hrvatski rock'n'roll savez');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'HOO');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>3</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>1771</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="F12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'WRRC');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>1770</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'IAF');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>2</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="C13" s="28" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'IDSF');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>3</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>1767</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="F14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'IOC');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>3</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>1766</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>1765</v>
       </c>
-      <c r="F9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'SPORRTACCORD');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>3</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F10" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'Hrvatski rock'n'roll savez');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>3</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F11" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'NATIONAL_SPORTS_FEDERATION', 'NACIONALNI SPORTSKI SAVEZ/članstvo u HOO-u', 'HOO');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>3</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'WRRC');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>3</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'INTERNATIONAL_FEDERATION', 'MEĐUNARODNA FEDERACIJA', 'IDSF');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>3</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'IOC');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>3</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1765</v>
-      </c>
-      <c r="F15" s="26" t="str">
+      <c r="D15" s="28" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.nomenclature_of_sport (sport_id, category, category_description, value) values ( (select id from diskobolos.sport where name = 'AIKIDO'),  'IOC_SPORTACCORD', 'Priznati od IOC-a, članovi SPORTACCORD-a', 'SPORRTACCORD');</v>
       </c>
@@ -24383,20 +25438,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1815</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>1816</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>1817</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>1818</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -24413,7 +25468,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="G2" s="26" t="str">
+      <c r="G2" s="25" t="str">
         <f>"insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( "&amp;A2&amp;",  "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"');"</f>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 0,  0, 0, TRUE, '');</v>
       </c>
@@ -24432,7 +25487,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="25" t="str">
         <f t="shared" ref="G3:G44" si="0">"insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( "&amp;A3&amp;",  "&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", '"&amp;E3&amp;"');"</f>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 1,  0, 0, TRUE, '');</v>
       </c>
@@ -24451,7 +25506,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 2,  0, 0, TRUE, '');</v>
       </c>
@@ -24470,7 +25525,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="G5" s="26" t="str">
+      <c r="G5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 3,  0, 0, TRUE, '');</v>
       </c>
@@ -24489,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="G6" s="26" t="str">
+      <c r="G6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 4,  0, 0, TRUE, '');</v>
       </c>
@@ -24508,7 +25563,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 5,  0, 0, TRUE, '');</v>
       </c>
@@ -24527,7 +25582,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="G8" s="26" t="str">
+      <c r="G8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 6,  0, 0, TRUE, '');</v>
       </c>
@@ -24546,7 +25601,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 7,  0, 0, TRUE, '');</v>
       </c>
@@ -24565,7 +25620,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 8,  0, 0, TRUE, '');</v>
       </c>
@@ -24584,7 +25639,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 9,  0, 0, TRUE, '');</v>
       </c>
@@ -24603,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 10,  0, 0, TRUE, '');</v>
       </c>
@@ -24622,7 +25677,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 11,  0, 0, TRUE, '');</v>
       </c>
@@ -24641,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 12,  0, 0, TRUE, '');</v>
       </c>
@@ -24660,7 +25715,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 13,  0, 0, TRUE, '');</v>
       </c>
@@ -24679,7 +25734,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 14,  0, 0, TRUE, '');</v>
       </c>
@@ -24698,7 +25753,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 15,  0, 0, TRUE, '');</v>
       </c>
@@ -24717,7 +25772,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 16,  0, 0, TRUE, '');</v>
       </c>
@@ -24736,7 +25791,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 17,  0, 0, TRUE, '');</v>
       </c>
@@ -24755,7 +25810,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="G20" s="26" t="str">
+      <c r="G20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 18,  0, 0, TRUE, '');</v>
       </c>
@@ -24774,7 +25829,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="G21" s="26" t="str">
+      <c r="G21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 19,  0, 0, TRUE, '');</v>
       </c>
@@ -24793,7 +25848,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="G22" s="26" t="str">
+      <c r="G22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 20,  0, 0, TRUE, '');</v>
       </c>
@@ -24812,7 +25867,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 21,  0, 0, TRUE, '');</v>
       </c>
@@ -24831,7 +25886,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="G24" s="26" t="str">
+      <c r="G24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 22,  0, 0, TRUE, '');</v>
       </c>
@@ -24850,7 +25905,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="G25" s="26" t="str">
+      <c r="G25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 23,  0, 1, TRUE, '');</v>
       </c>
@@ -24869,7 +25924,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="G26" s="26" t="str">
+      <c r="G26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 24,  0, 1, TRUE, '');</v>
       </c>
@@ -24888,7 +25943,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="G27" s="26" t="str">
+      <c r="G27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 25,  0, 1, TRUE, '');</v>
       </c>
@@ -24907,7 +25962,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="G28" s="26" t="str">
+      <c r="G28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 26,  0, 1, TRUE, '');</v>
       </c>
@@ -24926,7 +25981,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="G29" s="26" t="str">
+      <c r="G29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 27,  0, 1, TRUE, '');</v>
       </c>
@@ -24945,7 +26000,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="G30" s="26" t="str">
+      <c r="G30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 28,  0, 1, TRUE, '');</v>
       </c>
@@ -24964,7 +26019,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="G31" s="26" t="str">
+      <c r="G31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 29,  0, 1, TRUE, '');</v>
       </c>
@@ -24983,7 +26038,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 30,  0, 1, TRUE, '');</v>
       </c>
@@ -25002,7 +26057,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="G33" s="26" t="str">
+      <c r="G33" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 31,  0, 1, TRUE, '');</v>
       </c>
@@ -25021,7 +26076,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="G34" s="26" t="str">
+      <c r="G34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 32,  0, 1, TRUE, '');</v>
       </c>
@@ -25040,7 +26095,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="G35" s="26" t="str">
+      <c r="G35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 33,  0, 1, TRUE, '');</v>
       </c>
@@ -25059,7 +26114,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 34,  0, 2, TRUE, '');</v>
       </c>
@@ -25078,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="G37" s="26" t="str">
+      <c r="G37" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 35,  0, 2, TRUE, '');</v>
       </c>
@@ -25097,7 +26152,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="G38" s="26" t="str">
+      <c r="G38" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 36,  0, 2, TRUE, '');</v>
       </c>
@@ -25116,7 +26171,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="G39" s="26" t="str">
+      <c r="G39" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 37,  0, 2, TRUE, '');</v>
       </c>
@@ -25135,7 +26190,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="G40" s="26" t="str">
+      <c r="G40" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 38,  0, 2, TRUE, '');</v>
       </c>
@@ -25154,7 +26209,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="G41" s="26" t="str">
+      <c r="G41" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 39,  0, 2, TRUE, '');</v>
       </c>
@@ -25173,7 +26228,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="G42" s="26" t="str">
+      <c r="G42" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 40,  0, 2, TRUE, '');</v>
       </c>
@@ -25192,7 +26247,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="13"/>
-      <c r="G43" s="26" t="str">
+      <c r="G43" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 41,  0, 2, TRUE, '');</v>
       </c>
@@ -25211,7 +26266,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="13"/>
-      <c r="G44" s="26" t="str">
+      <c r="G44" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.evaluation_question_def (question, value_type, questionnaire, mandatory, default_value) values ( 42,  0, 2, TRUE, '');</v>
       </c>
@@ -25226,7 +26281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25237,17 +26294,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1820</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>1821</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1816</v>
+      <c r="D1" s="36" t="s">
+        <v>1815</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -25255,15 +26312,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C2" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F2" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F2" s="25" t="str">
         <f>"insert into diskobolos.question_choices_def(question_id, label, value, value_type) values ("&amp;A2&amp;", '"&amp;B2&amp;"','"&amp;LOWER(C2)&amp;"', '"&amp;D2&amp;"');"</f>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (0, 'yes','true', 'Boolean');</v>
       </c>
@@ -25273,15 +26330,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C3" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F3" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F3" s="25" t="str">
         <f t="shared" ref="F3:F66" si="0">"insert into diskobolos.question_choices_def(question_id, label, value, value_type) values ("&amp;A3&amp;", '"&amp;B3&amp;"','"&amp;LOWER(C3)&amp;"', '"&amp;D3&amp;"');"</f>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (0, 'no','false', 'Boolean');</v>
       </c>
@@ -25291,15 +26348,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F4" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (1, 'yes','true', 'Boolean');</v>
       </c>
@@ -25309,15 +26366,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C5" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F5" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (1, 'no','false', 'Boolean');</v>
       </c>
@@ -25327,15 +26384,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F6" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (2, 'yes','true', 'Boolean');</v>
       </c>
@@ -25345,15 +26402,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C7" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F7" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (2, 'no','false', 'Boolean');</v>
       </c>
@@ -25363,15 +26420,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F8" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (3, 'yes','true', 'Boolean');</v>
       </c>
@@ -25381,15 +26438,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C9" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F9" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (3, 'no','false', 'Boolean');</v>
       </c>
@@ -25399,15 +26456,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F10" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (4, 'yes','true', 'Boolean');</v>
       </c>
@@ -25417,15 +26474,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C11" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F11" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (4, 'no','false', 'Boolean');</v>
       </c>
@@ -25435,15 +26492,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C12" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F12" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (5, 'yes','true', 'Boolean');</v>
       </c>
@@ -25453,15 +26510,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C13" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F13" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (5, 'no','false', 'Boolean');</v>
       </c>
@@ -25471,15 +26528,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C14" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F14" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (6, 'yes','true', 'Boolean');</v>
       </c>
@@ -25489,15 +26546,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C15" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F15" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (6, 'no','false', 'Boolean');</v>
       </c>
@@ -25507,15 +26564,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C16" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F16" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (7, 'yes','true', 'Boolean');</v>
       </c>
@@ -25525,15 +26582,15 @@
         <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C17" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F17" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (7, 'no','false', 'Boolean');</v>
       </c>
@@ -25543,15 +26600,15 @@
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C18" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F18" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (8, 'yes','true', 'Boolean');</v>
       </c>
@@ -25561,15 +26618,15 @@
         <v>8</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C19" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F19" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (8, 'no','false', 'Boolean');</v>
       </c>
@@ -25579,15 +26636,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C20" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F20" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (9, 'yes','true', 'Boolean');</v>
       </c>
@@ -25597,15 +26654,15 @@
         <v>9</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C21" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F21" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (9, 'no','false', 'Boolean');</v>
       </c>
@@ -25615,15 +26672,15 @@
         <v>10</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C22" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F22" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (10, 'yes','true', 'Boolean');</v>
       </c>
@@ -25633,15 +26690,15 @@
         <v>10</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C23" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F23" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (10, 'no','false', 'Boolean');</v>
       </c>
@@ -25651,15 +26708,15 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C24" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F24" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (11, 'yes','true', 'Boolean');</v>
       </c>
@@ -25669,15 +26726,15 @@
         <v>11</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C25" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F25" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (11, 'no','false', 'Boolean');</v>
       </c>
@@ -25687,15 +26744,15 @@
         <v>12</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C26" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F26" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (12, 'yes','true', 'Boolean');</v>
       </c>
@@ -25705,15 +26762,15 @@
         <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C27" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F27" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (12, 'no','false', 'Boolean');</v>
       </c>
@@ -25723,15 +26780,15 @@
         <v>13</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C28" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F28" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (13, 'yes','true', 'Boolean');</v>
       </c>
@@ -25741,15 +26798,15 @@
         <v>13</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C29" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F29" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (13, 'no','false', 'Boolean');</v>
       </c>
@@ -25759,15 +26816,15 @@
         <v>14</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C30" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F30" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (14, 'yes','true', 'Boolean');</v>
       </c>
@@ -25777,15 +26834,15 @@
         <v>14</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C31" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F31" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (14, 'no','false', 'Boolean');</v>
       </c>
@@ -25795,15 +26852,15 @@
         <v>15</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C32" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F32" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (15, 'yes','true', 'Boolean');</v>
       </c>
@@ -25813,15 +26870,15 @@
         <v>15</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C33" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F33" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F33" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (15, 'no','false', 'Boolean');</v>
       </c>
@@ -25831,15 +26888,15 @@
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C34" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F34" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (16, 'yes','true', 'Boolean');</v>
       </c>
@@ -25849,15 +26906,15 @@
         <v>16</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C35" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F35" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (16, 'no','false', 'Boolean');</v>
       </c>
@@ -25867,15 +26924,15 @@
         <v>17</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C36" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F36" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (17, 'yes','true', 'Boolean');</v>
       </c>
@@ -25885,15 +26942,15 @@
         <v>17</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C37" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F37" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F37" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (17, 'no','false', 'Boolean');</v>
       </c>
@@ -25903,15 +26960,15 @@
         <v>18</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C38" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F38" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F38" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (18, 'yes','true', 'Boolean');</v>
       </c>
@@ -25921,15 +26978,15 @@
         <v>18</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C39" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F39" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F39" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (18, 'no','false', 'Boolean');</v>
       </c>
@@ -25939,15 +26996,15 @@
         <v>19</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C40" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F40" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F40" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (19, 'yes','true', 'Boolean');</v>
       </c>
@@ -25957,15 +27014,15 @@
         <v>19</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C41" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F41" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F41" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (19, 'no','false', 'Boolean');</v>
       </c>
@@ -25975,15 +27032,15 @@
         <v>20</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C42" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F42" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F42" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (20, 'yes','true', 'Boolean');</v>
       </c>
@@ -25993,15 +27050,15 @@
         <v>20</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C43" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F43" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F43" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (20, 'no','false', 'Boolean');</v>
       </c>
@@ -26011,15 +27068,15 @@
         <v>21</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C44" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F44" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F44" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (21, 'yes','true', 'Boolean');</v>
       </c>
@@ -26029,15 +27086,15 @@
         <v>21</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C45" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F45" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F45" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (21, 'no','false', 'Boolean');</v>
       </c>
@@ -26047,15 +27104,15 @@
         <v>22</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C46" s="13" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F46" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F46" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (22, 'yes','true', 'Boolean');</v>
       </c>
@@ -26065,15 +27122,15 @@
         <v>22</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C47" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F47" s="26" t="str">
+        <v>1822</v>
+      </c>
+      <c r="F47" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (22, 'no','false', 'Boolean');</v>
       </c>
@@ -26089,9 +27146,9 @@
         <v>1</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F48" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F48" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (23, '100','1', 'Integer');</v>
       </c>
@@ -26107,9 +27164,9 @@
         <v>2</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F49" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F49" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (23, '130','2', 'Integer');</v>
       </c>
@@ -26125,9 +27182,9 @@
         <v>3</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F50" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F50" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (23, '160','3', 'Integer');</v>
       </c>
@@ -26143,9 +27200,9 @@
         <v>4</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F51" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F51" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (23, '190','4', 'Integer');</v>
       </c>
@@ -26155,15 +27212,15 @@
         <v>23</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C52" s="13">
         <v>5</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F52" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F52" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (23, 'moreThan190','5', 'Integer');</v>
       </c>
@@ -26179,9 +27236,9 @@
         <v>1</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F53" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F53" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (24, '75','1', 'Integer');</v>
       </c>
@@ -26197,9 +27254,9 @@
         <v>2</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F54" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F54" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (24, '150','2', 'Integer');</v>
       </c>
@@ -26215,9 +27272,9 @@
         <v>3</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F55" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F55" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (24, '225','3', 'Integer');</v>
       </c>
@@ -26233,9 +27290,9 @@
         <v>4</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F56" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F56" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (24, '300','4', 'Integer');</v>
       </c>
@@ -26245,15 +27302,15 @@
         <v>24</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C57" s="13">
         <v>5</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F57" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F57" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (24, 'moreThan300','5', 'Integer');</v>
       </c>
@@ -26269,9 +27326,9 @@
         <v>1</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F58" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F58" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (25, '5','1', 'Integer');</v>
       </c>
@@ -26287,9 +27344,9 @@
         <v>2</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F59" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F59" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (25, '15','2', 'Integer');</v>
       </c>
@@ -26305,9 +27362,9 @@
         <v>3</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F60" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F60" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (25, '25','3', 'Integer');</v>
       </c>
@@ -26323,9 +27380,9 @@
         <v>4</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F61" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F61" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (25, '35','4', 'Integer');</v>
       </c>
@@ -26335,15 +27392,15 @@
         <v>25</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C62" s="13">
         <v>5</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F62" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F62" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (25, 'moreThan35','5', 'Integer');</v>
       </c>
@@ -26359,9 +27416,9 @@
         <v>1</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F63" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F63" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (26, '2','1', 'Integer');</v>
       </c>
@@ -26377,9 +27434,9 @@
         <v>2</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F64" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F64" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (26, '5','2', 'Integer');</v>
       </c>
@@ -26395,9 +27452,9 @@
         <v>3</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F65" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F65" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (26, '10','3', 'Integer');</v>
       </c>
@@ -26413,9 +27470,9 @@
         <v>4</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F66" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F66" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (26, '15','4', 'Integer');</v>
       </c>
@@ -26425,15 +27482,15 @@
         <v>26</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C67" s="13">
         <v>5</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F67" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F67" s="25" t="str">
         <f t="shared" ref="F67:F125" si="1">"insert into diskobolos.question_choices_def(question_id, label, value, value_type) values ("&amp;A67&amp;", '"&amp;B67&amp;"','"&amp;LOWER(C67)&amp;"', '"&amp;D67&amp;"');"</f>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (26, 'moreThan15','5', 'Integer');</v>
       </c>
@@ -26449,9 +27506,9 @@
         <v>1</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F68" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F68" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (27, '1','1', 'Integer');</v>
       </c>
@@ -26467,9 +27524,9 @@
         <v>3</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F69" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F69" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (27, '3','3', 'Integer');</v>
       </c>
@@ -26485,9 +27542,9 @@
         <v>5</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F70" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F70" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (27, '5','5', 'Integer');</v>
       </c>
@@ -26503,9 +27560,9 @@
         <v>1</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F71" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F71" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (28, '1','1', 'Integer');</v>
       </c>
@@ -26521,9 +27578,9 @@
         <v>3</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F72" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F72" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (28, '3','3', 'Integer');</v>
       </c>
@@ -26539,9 +27596,9 @@
         <v>5</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F73" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F73" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (28, '5','5', 'Integer');</v>
       </c>
@@ -26557,9 +27614,9 @@
         <v>0</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F74" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F74" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (29, '0','0', 'Integer');</v>
       </c>
@@ -26575,9 +27632,9 @@
         <v>5</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F75" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F75" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (29, '5','5', 'Integer');</v>
       </c>
@@ -26593,9 +27650,9 @@
         <v>1</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F76" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F76" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (30, '1','1', 'Integer');</v>
       </c>
@@ -26611,9 +27668,9 @@
         <v>3</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F77" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F77" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (30, '3','3', 'Integer');</v>
       </c>
@@ -26629,9 +27686,9 @@
         <v>5</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F78" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F78" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (30, '5','5', 'Integer');</v>
       </c>
@@ -26647,9 +27704,9 @@
         <v>0</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F79" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F79" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (31, '0','0', 'Integer');</v>
       </c>
@@ -26665,9 +27722,9 @@
         <v>5</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F80" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F80" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (31, '5','5', 'Integer');</v>
       </c>
@@ -26683,9 +27740,9 @@
         <v>1</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F81" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F81" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (32, '1','1', 'Integer');</v>
       </c>
@@ -26701,9 +27758,9 @@
         <v>3</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F82" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F82" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (32, '3','3', 'Integer');</v>
       </c>
@@ -26719,9 +27776,9 @@
         <v>5</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F83" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F83" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (32, '5','5', 'Integer');</v>
       </c>
@@ -26737,9 +27794,9 @@
         <v>1</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F84" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F84" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (33, '1','1', 'Integer');</v>
       </c>
@@ -26755,9 +27812,9 @@
         <v>3</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F85" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F85" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (33, '3','3', 'Integer');</v>
       </c>
@@ -26773,9 +27830,9 @@
         <v>5</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F86" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F86" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (33, '5','5', 'Integer');</v>
       </c>
@@ -26785,15 +27842,15 @@
         <v>34</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C87" s="13">
         <v>50</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F87" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F87" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (34, 'moreThan50','50', 'Integer');</v>
       </c>
@@ -26803,15 +27860,15 @@
         <v>34</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C88" s="13">
         <v>30</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F88" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F88" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (34, 'between26And49','30', 'Integer');</v>
       </c>
@@ -26821,15 +27878,15 @@
         <v>34</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C89" s="13">
         <v>20</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F89" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F89" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (34, 'between15And25','20', 'Integer');</v>
       </c>
@@ -26839,15 +27896,15 @@
         <v>34</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C90" s="13">
         <v>10</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F90" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F90" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (34, 'between9And14','10', 'Integer');</v>
       </c>
@@ -26857,15 +27914,15 @@
         <v>34</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C91" s="13">
         <v>5</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F91" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F91" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (34, 'lessThan9','5', 'Integer');</v>
       </c>
@@ -26875,15 +27932,15 @@
         <v>35</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C92" s="13">
         <v>100</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F92" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F92" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (35, 'olympicSport','100', 'Integer');</v>
       </c>
@@ -26893,15 +27950,15 @@
         <v>35</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C93" s="13">
         <v>70</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F93" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F93" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (35, 'nonOlympicSport','70', 'Integer');</v>
       </c>
@@ -26911,15 +27968,15 @@
         <v>36</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C94" s="13">
         <v>20</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F94" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F94" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (36, 'allCategories','20', 'Integer');</v>
       </c>
@@ -26929,15 +27986,15 @@
         <v>36</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C95" s="13">
         <v>15</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F95" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F95" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (36, 'seniorsJuniorsCadetsSportsSchool','15', 'Integer');</v>
       </c>
@@ -26947,15 +28004,15 @@
         <v>36</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C96" s="13">
         <v>10</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F96" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F96" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (36, 'seniorsJuniorsCadets','10', 'Integer');</v>
       </c>
@@ -26965,15 +28022,15 @@
         <v>36</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C97" s="13">
         <v>5</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F97" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F97" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (36, 'juniorsCadetsSportsSchool','5', 'Integer');</v>
       </c>
@@ -26983,15 +28040,15 @@
         <v>37</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C98" s="13">
         <v>100</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F98" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F98" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, '1croLeagueSeniorsJuniorsCadets','100', 'Integer');</v>
       </c>
@@ -27001,15 +28058,15 @@
         <v>37</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C99" s="13">
         <v>80</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F99" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F99" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, '1croLeagueJuniorsCadets','80', 'Integer');</v>
       </c>
@@ -27019,15 +28076,15 @@
         <v>37</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C100" s="13">
         <v>60</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F100" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F100" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, '1croLeagueTournamentCompetitionSystem','60', 'Integer');</v>
       </c>
@@ -27037,15 +28094,15 @@
         <v>37</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C101" s="13">
         <v>40</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F101" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F101" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, '2croLeagueSeniorsJuniorsCadets','40', 'Integer');</v>
       </c>
@@ -27055,15 +28112,15 @@
         <v>37</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C102" s="13">
         <v>20</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F102" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F102" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, '3croLeagueSeniorsJuniorsCadets','20', 'Integer');</v>
       </c>
@@ -27073,15 +28130,15 @@
         <v>37</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C103" s="13">
         <v>10</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F103" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F103" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, 'interCountyLeague','10', 'Integer');</v>
       </c>
@@ -27091,15 +28148,15 @@
         <v>37</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C104" s="13">
         <v>5</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F104" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F104" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (37, 'countyLeagueSeniorsJuniorsCadets','5', 'Integer');</v>
       </c>
@@ -27109,15 +28166,15 @@
         <v>38</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C105" s="13">
         <v>20</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F105" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F105" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (38, 'moreThan15','20', 'Integer');</v>
       </c>
@@ -27127,15 +28184,15 @@
         <v>38</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C106" s="13">
         <v>15</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F106" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F106" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (38, 'between10And15','15', 'Integer');</v>
       </c>
@@ -27145,15 +28202,15 @@
         <v>38</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C107" s="13">
         <v>10</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F107" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F107" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (38, 'upTo9','10', 'Integer');</v>
       </c>
@@ -27163,15 +28220,15 @@
         <v>39</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C108" s="13">
         <v>50</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F108" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F108" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (39, 'moreThan200','50', 'Integer');</v>
       </c>
@@ -27181,15 +28238,15 @@
         <v>39</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C109" s="13">
         <v>40</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F109" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F109" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (39, 'between150And200','40', 'Integer');</v>
       </c>
@@ -27199,15 +28256,15 @@
         <v>39</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C110" s="13">
         <v>30</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F110" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F110" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (39, 'between100And150','30', 'Integer');</v>
       </c>
@@ -27217,15 +28274,15 @@
         <v>39</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C111" s="13">
         <v>20</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F111" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F111" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (39, 'between50And100','20', 'Integer');</v>
       </c>
@@ -27235,15 +28292,15 @@
         <v>39</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C112" s="13">
         <v>10</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F112" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F112" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (39, 'between20And50','10', 'Integer');</v>
       </c>
@@ -27253,15 +28310,15 @@
         <v>39</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C113" s="13">
         <v>5</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F113" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F113" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (39, 'upTo20','5', 'Integer');</v>
       </c>
@@ -27271,15 +28328,15 @@
         <v>40</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C114" s="13">
         <v>20</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F114" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F114" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (40, 'moreThan5Trainers','20', 'Integer');</v>
       </c>
@@ -27289,15 +28346,15 @@
         <v>40</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C115" s="13">
         <v>15</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F115" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F115" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (40, 'between3And5Trainers','15', 'Integer');</v>
       </c>
@@ -27307,15 +28364,15 @@
         <v>40</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C116" s="13">
         <v>10</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F116" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F116" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (40, 'between2And3Trainers','10', 'Integer');</v>
       </c>
@@ -27325,15 +28382,15 @@
         <v>40</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C117" s="13">
         <v>5</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F117" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F117" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (40, 'only1TrainerForAll','5', 'Integer');</v>
       </c>
@@ -27343,15 +28400,15 @@
         <v>40</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C118" s="13">
         <v>0</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F118" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F118" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (40, 'withoutTrainer','0', 'Integer');</v>
       </c>
@@ -27361,15 +28418,15 @@
         <v>41</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C119" s="13">
         <v>30</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F119" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F119" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (41, 'moreThan51','30', 'Integer');</v>
       </c>
@@ -27379,15 +28436,15 @@
         <v>41</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C120" s="13">
         <v>20</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F120" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F120" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (41, 'between26And50','20', 'Integer');</v>
       </c>
@@ -27397,15 +28454,15 @@
         <v>41</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C121" s="13">
         <v>10</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F121" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F121" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (41, 'between10And25','10', 'Integer');</v>
       </c>
@@ -27415,15 +28472,15 @@
         <v>42</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C122" s="13">
         <v>50</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F122" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F122" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (42, 'firstCategory','50', 'Integer');</v>
       </c>
@@ -27433,15 +28490,15 @@
         <v>42</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C123" s="13">
         <v>30</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F123" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F123" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (42, 'secondCategory','30', 'Integer');</v>
       </c>
@@ -27451,15 +28508,15 @@
         <v>42</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C124" s="13">
         <v>20</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F124" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F124" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (42, 'thirdCategory','20', 'Integer');</v>
       </c>
@@ -27469,15 +28526,15 @@
         <v>42</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C125" s="13">
         <v>10</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F125" s="26" t="str">
+        <v>1823</v>
+      </c>
+      <c r="F125" s="25" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.question_choices_def(question_id, label, value, value_type) values (42, 'forthCategory','10', 'Integer');</v>
       </c>

--- a/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
+++ b/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr backupFile="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\NetBeansProjects\DiskobolosCore\complete\src\main\java\scripts\sql\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pro\Documents\NetBeansProjects\DiskobolosCore\complete\src\main\java\scripts\sql\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOKACIJA" sheetId="2" r:id="rId1"/>
@@ -49,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tommy čax</author>
+    <author>Pro</author>
   </authors>
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0">
@@ -149,12 +150,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q63" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="1962">
   <si>
     <t>RBR</t>
   </si>
@@ -6034,6 +6059,12 @@
   </si>
   <si>
     <t>ZRAKOPLOVSTVO</t>
+  </si>
+  <si>
+    <t>KATEGORIJA SPORTA</t>
+  </si>
+  <si>
+    <t>OSTALO</t>
   </si>
 </sst>
 </file>
@@ -6184,7 +6215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -6261,6 +6292,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6268,7 +6323,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6352,6 +6407,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10814,10 +10887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B157" workbookViewId="0">
+      <selection activeCell="Q155" sqref="Q155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10827,9 +10900,10 @@
     <col min="3" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10878,8 +10952,11 @@
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10926,12 +11003,15 @@
       <c r="P2" s="6">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="str">
+      <c r="Q2" s="40" t="s">
+        <v>1762</v>
+      </c>
+      <c r="S2" s="3" t="str">
         <f>"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B2&amp;"',  "&amp;C2&amp;", '"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"', '"&amp;H2&amp;"','"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"',to_date(NULLIF('"&amp;IF(M2="","",M2)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N2="","",N2)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O2="","",O2)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P2&amp;"');"</f>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Aikido klub Zadar',  1, '023/251-210','','023/251-210','3639975', '35182939735','13000118', '0073359', 'Nenad Vertovšek (091/337-77-76)', 'Vesna Vertovšek (091/512-65-87)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -10975,15 +11055,18 @@
       <c r="O3" s="4" t="s">
         <v>1615</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="39">
         <v>1</v>
       </c>
-      <c r="R3" s="3" t="str">
-        <f t="shared" ref="R3:R66" si="0">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B3&amp;"',  "&amp;C3&amp;", '"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', '"&amp;H3&amp;"','"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"',to_date(NULLIF('"&amp;IF(M3="","",M3)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N3="","",N3)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O3="","",O3)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P3&amp;"');"</f>
+      <c r="Q3" s="41" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S3" s="3" t="str">
+        <f t="shared" ref="S3:S66" si="0">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B3&amp;"',  "&amp;C3&amp;", '"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"', '"&amp;H3&amp;"','"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"',to_date(NULLIF('"&amp;IF(M3="","",M3)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N3="","",N3)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O3="","",O3)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P3&amp;"');"</f>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Atletski športski klub Zadar',  2, '023/301-691','','023/301-691','03154912', '86624179675','13000308', '01128100', 'Emilijo Krstić (098/721-876)', 'Helena Vulić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11026,12 +11109,15 @@
       <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="3" t="str">
+      <c r="Q4" s="38" t="s">
+        <v>1762</v>
+      </c>
+      <c r="S4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski aikido klub Donat',  3, '','','','02411423', '40633085803','13001042', '0086495', 'Renata Ruić Funčić  (091/539-24-92)', 'Goran Funčić  (091/539-24-91)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -11078,12 +11164,15 @@
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="Q5" s="37" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Atletski klub Alojzije Stepinac',  4, '023/326-109','','023/326-109','02013517', '35240858683','13000826', '0200101', 'Mladen Peša', 'Gabrijela Miolović (098/133-70-36)',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11130,12 +11219,15 @@
       <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="R6" s="3" t="str">
+      <c r="Q6" s="37" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Atletski klub Olympionik',  5, '023/213-899','','023/213-899','02464551', '57024317058','13001078', '0250249', 'Perica Korica (098/330 - 257)', 'Petar Korica (091/161-11-66)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -11182,12 +11274,15 @@
       <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="3" t="str">
+      <c r="Q7" s="37" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Atletski klub Start',  6, '023/315-523','','023/315-523','02791889', '36113911509','13001326', '0247539', 'Jurica Vuleta  (098/935-2793)', 'Ivan Mijolović',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -11230,12 +11325,15 @@
       <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="R8" s="3" t="str">
+      <c r="Q8" s="37" t="s">
+        <v>1763</v>
+      </c>
+      <c r="S8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Klub atletskih veterana Zadar',  7, '','','','01930117', '02457723462','13000778', '0198958', 'Borislav Perica (098/909-51-62)', 'Danijel Tadić (098/196-86-70)',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -11278,12 +11376,15 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
-      <c r="R9" s="3" t="str">
+      <c r="Q9" s="37" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Automobilistički klub ZD tuning',  8, '','','','02434571', '07178578094','13001059', '0189089', 'Toni Perinić (095/525-88-19)', 'Jure Perić: (091/598-05-99)',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -11328,12 +11429,15 @@
       <c r="P10" s="2">
         <v>1</v>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="Q10" s="37" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Badminton klub Iader',  9, '023/240-406','','','02570211', '85070743078','13001162', '0263324', 'Ernesto Šimac  (099/317-79-62)', 'Mario Murtić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -11380,12 +11484,15 @@
       <c r="P11" s="2">
         <v>1</v>
       </c>
-      <c r="R11" s="3" t="str">
+      <c r="Q11" s="37" t="s">
+        <v>1756</v>
+      </c>
+      <c r="S11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Baseball klub Donat',  10, '023/7305-409','','023/319-075','03414264', '10554665928','13000422', '0017507', 'Ivica Anić  (098/853 - 869)', 'Zoran Šijan (098/366 - 673)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -11430,12 +11537,15 @@
       <c r="P12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="3" t="str">
+      <c r="Q12" s="37" t="s">
+        <v>1754</v>
+      </c>
+      <c r="S12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Biciklistički klub Sv. Donat',  11, '023/315-632','','','01560913', '23423721111','13000210', '0217834', 'Denis Šepat', 'Ivan Krpina (095/199-19-45)',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -11480,12 +11590,15 @@
       <c r="P13" s="2">
         <v>1</v>
       </c>
-      <c r="R13" s="3" t="str">
+      <c r="Q13" s="37" t="s">
+        <v>1754</v>
+      </c>
+      <c r="S13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Biciklistički klub Zadar',  12, '023/315-632','','','03154882', '80916067371','13000315', '0136826', 'Božidar Kotlar', 'Neven Pavić  (098/177-18-01)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -11530,12 +11643,15 @@
       <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="R14" s="3" t="str">
+      <c r="Q14" s="42" t="s">
+        <v>1754</v>
+      </c>
+      <c r="S14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Biciklistički klub Macaklin',  13, '023/342-190','','','02480018', '21483252848','13001060', '0189521', 'Ivan Govorčin (095/900-83-08)', 'Daniel Filić (091/893-62-37)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('19.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -11582,12 +11698,15 @@
       <c r="P15" s="2">
         <v>1</v>
       </c>
-      <c r="R15" s="3" t="str">
+      <c r="Q15" s="37" t="s">
+        <v>1753</v>
+      </c>
+      <c r="S15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Biljar klub 11',  14, '023/324-118','','0123/312-235','2194295', '76378932354','13000911', '0342154', 'Čedomir Perinčić ( 098/463-552)', 'Iva Perinčić',to_date(NULLIF('01.01.2001', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2005', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -11634,12 +11753,15 @@
       <c r="P16" s="2">
         <v>1</v>
       </c>
-      <c r="R16" s="3" t="str">
+      <c r="Q16" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boćarski klub Bili Brig',  15, '023/327-957','','023/327-957','03450848', '53640895488','13000381', '0217137', 'Goran Lijić (091/449-2922)', 'Zdenko Stipanić (098/950-73-32)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -11686,12 +11808,15 @@
       <c r="P17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="3" t="str">
+      <c r="Q17" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boćarski klub Brodarica',  16, '023/332-487','','023/332-487','03933644', '03283371919','13000205', '0306770', 'Jozo Jeličić (098/192-00-08)', 'Željko Sabalić (098/192-00-08)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -11734,12 +11859,15 @@
       <c r="P18" s="2">
         <v>1</v>
       </c>
-      <c r="R18" s="3" t="str">
+      <c r="Q18" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boćarski klub Veteran',  17, '023/333-174','','','03418618', '69602095812','13000471', '', 'Luka Škara (092/306-40-96)', 'Marjan Nimac (098/449-819)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -11784,12 +11912,15 @@
       <c r="P19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="3" t="str">
+      <c r="Q19" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boćarski klub Zadar',  18, '023/214-093','','023/214-093','03450848', 'O3836929990','13000253', '', 'Milivoj Colić (098/196-27-65)', 'Šime Burerin (091/789-78-64)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -11830,12 +11961,15 @@
       <c r="P20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="3" t="str">
+      <c r="Q20" s="37" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boćarski klub Crvene kuće',  19, '','','','02631920', '11984817013','13001207', '0216999', 'Ante Kardum (095/903-1759)', '',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -11882,12 +12016,15 @@
       <c r="P21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="3" t="str">
+      <c r="Q21" s="42" t="s">
+        <v>1749</v>
+      </c>
+      <c r="S21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boksački klub Diabolik',  20, '023/241-334','','023/241-334','00711233', '62256903451','13000342', '0128898', 'Damir Zrilić (098/643-238)', 'Mario Pešut (098/332-844)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -11932,12 +12069,15 @@
       <c r="P22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="3" t="str">
+      <c r="Q22" s="37" t="s">
+        <v>1749</v>
+      </c>
+      <c r="S22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boksački klub Zadar',  21, '099/7637493','','','03173887', '14313344538','13000235', '0121468', 'Dragan Vidaić (099/76-37-493)', 'Branka Vidaić (098/888-585)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -11984,12 +12124,15 @@
       <c r="P23" s="2">
         <v>1</v>
       </c>
-      <c r="R23" s="3" t="str">
+      <c r="Q23" s="37" t="s">
+        <v>1749</v>
+      </c>
+      <c r="S23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Jedriličarski klub Uskok',  22, '023/337-830','','023/333-888','03154840', '18816234272','13000046', '0121468', 'Ive Mustać (098/207-269)', 'Hrvoje Grdović (099/529-37-84)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -12036,12 +12179,15 @@
       <c r="P24" s="2">
         <v>1</v>
       </c>
-      <c r="R24" s="3" t="str">
+      <c r="Q24" s="37" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Judo klub Zadar',  23, '023/324-984','','023/324-984','00824682', '14954453186','13000050', '0042102', 'Ante Zanki (098/332-584)', 'Irena Zanki (099/214-88-33)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -12088,12 +12234,15 @@
       <c r="P25" s="2">
         <v>1</v>
       </c>
-      <c r="R25" s="3" t="str">
+      <c r="Q25" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub Jazine - Arbanasi',  24, '023/213-214','','023/224-488','0317585', '00054311768','13000210', '0137133', 'Branko Morić (098/730-042)', 'Miljan Ćustić (091/976-77-40)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -12136,12 +12285,15 @@
       <c r="P26" s="2">
         <v>1</v>
       </c>
-      <c r="R26" s="3" t="str">
+      <c r="Q26" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub Zadar š.d.d.',  25, '023/212-441','','023/212-441','03154955', '9051939443','', '', 'Boris Skroče (091/508-51-14)', 'Vana Dundov (098/415-598)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -12188,12 +12340,15 @@
       <c r="P27" s="2">
         <v>1</v>
       </c>
-      <c r="R27" s="3" t="str">
+      <c r="Q27" s="37" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kuglački klub Donat zaštita',  26, '023/493-845','','023/493-845','01565362', '26478293512','13000526', '0189372', 'Marin Colić (091/528-93-33)', 'Jakov Krstić',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -12240,12 +12395,15 @@
       <c r="P28" s="2">
         <v>1</v>
       </c>
-      <c r="R28" s="3" t="str">
+      <c r="Q28" s="37" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kuglački klub Zadar',  27, '023/240-122','','023/240-120','03197735', '59524922370','13000117', '0094625', 'Ivan Lulić (098/981-69-00)', 'Marija Lulić',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -12288,12 +12446,15 @@
       <c r="P29" s="2">
         <v>1</v>
       </c>
-      <c r="R29" s="3" t="str">
+      <c r="Q29" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Nogometni klub Zadar š.d.d.',  28, '023/312-792','','023/312-802','04295030', '06621814362','', '', 'Josip Bajlo (091/530-44-66)', 'Mladen Baždarić (098/378-792)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -12338,12 +12499,15 @@
       <c r="P30" s="2">
         <v>1</v>
       </c>
-      <c r="R30" s="3" t="str">
+      <c r="Q30" s="37" t="s">
+        <v>1909</v>
+      </c>
+      <c r="S30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Odbojkaški klub Zadar',  29, '023/213-809','','023/213-403','03154777', '60567527217','13000241', '0073709', 'Robert Kresoja (098/330-231)', '',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -12390,12 +12554,15 @@
       <c r="P31" s="2">
         <v>1</v>
       </c>
-      <c r="R31" s="3" t="str">
+      <c r="Q31" s="37" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Planinarsko društvo Paklenica',  30, '023/301-636','','023/301-636','03154939', '92966614510','13000356', '0124394', 'Domagoj Diklić (099/213-12-22)', 'Vesna Dukić',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -12442,12 +12609,15 @@
       <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="R32" s="3" t="str">
+      <c r="Q32" s="37" t="s">
+        <v>1916</v>
+      </c>
+      <c r="S32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Plivački klub Zadar',  31, '023/312-320','','023/312-320','03429644', '83018458598','13000252', '0162874', 'Darko Smirkinić (098/331-057)', 'Anja Jelinić (099/803-85-21)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -12494,12 +12664,15 @@
       <c r="P33" s="2">
         <v>1</v>
       </c>
-      <c r="R33" s="3" t="str">
+      <c r="Q33" s="37" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ronilački klub "KPA"',  32, '023/332-954','','023/332-954','03154831', '43628357665','13000343', '0016918', 'Slavica Čolak (098/184-22-14)', 'Marija Velemir (099/341-72-25)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -12546,12 +12719,15 @@
       <c r="P34" s="2">
         <v>1</v>
       </c>
-      <c r="R34" s="3" t="str">
+      <c r="Q34" s="37" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Stolnoteniski klub Donat',  33, '023/242-096','','023/242-096','03155072', '51868892731','13000322', '0086614', 'Davor Aras (098/214-215)', 'Ljubomir Letinić (091/886-56-12)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -12598,12 +12774,15 @@
       <c r="P35" s="2">
         <v>1</v>
       </c>
-      <c r="R35" s="3" t="str">
+      <c r="Q35" s="37" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Streljački klub Zadar',  34, '023/331-050','','023/331-050','03155048', '14707241415','13000309', '0125660', 'Jadranko Surać (098/499-334)', 'Davor Zubčić (098/226-139)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -12648,12 +12827,15 @@
       <c r="P36" s="2">
         <v>1</v>
       </c>
-      <c r="R36" s="3" t="str">
+      <c r="Q36" s="37" t="s">
+        <v>1944</v>
+      </c>
+      <c r="S36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Šahovski klub Zadar',  35, '023/251-632','','','03154998', '74633093402','13000232', '0163733', 'Josip Bubičić (098/968-79-99)', 'Krolo (098/734-388)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -12700,16 +12882,19 @@
       <c r="P37" s="2">
         <v>1</v>
       </c>
-      <c r="R37" s="3" t="str">
+      <c r="Q37" s="37" t="s">
+        <v>1948</v>
+      </c>
+      <c r="S37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športsko ribolovno društvo Zubatac',  36, '023/212-708','','023/214-441','03159922', '90755644642','13000341', '0120681', 'Ardena Bajlo (091/207-25-35)', 'Branko Šuljak (091/225-11-29)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C38" s="17">
@@ -12742,12 +12927,15 @@
       <c r="P38" s="2">
         <v>1</v>
       </c>
-      <c r="R38" s="3" t="str">
+      <c r="Q38" s="42" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ordinacija Športske medicine',  37, '023/334-859','','023/334-859','80067247', '30089337645','', '', 'Doktor: dr. Marko Prenđa (091/125-02-32)', '',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -12794,12 +12982,15 @@
       <c r="P39" s="2">
         <v>1</v>
       </c>
-      <c r="R39" s="3" t="str">
+      <c r="Q39" s="37" t="s">
+        <v>1953</v>
+      </c>
+      <c r="S39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Teniski klub Zadar 08',  38, '023/334-859','','023/334-859','03151492', '65605226586','13000168', '0164423', 'Lovro Rončević (098/172-0228)', 'Albert Radovniković (098/160-71-37)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -12842,12 +13033,15 @@
       <c r="P40" s="2">
         <v>1</v>
       </c>
-      <c r="R40" s="3" t="str">
+      <c r="Q40" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Udruga za šport i rekreaciju invalida Grada Zadra',  39, '023/333-477','','023/323-400','01230131', '82239066808','', '', 'Ivica Bratanović (099/509-67-65)', 'Ivan Anušić (098/191-24-60)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -12894,12 +13088,15 @@
       <c r="P41" s="2">
         <v>1</v>
       </c>
-      <c r="R41" s="3" t="str">
+      <c r="Q41" s="37" t="s">
+        <v>1957</v>
+      </c>
+      <c r="S41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Veslački klub Jadran',  40, '023/316-929','','023/316-929','03154807', '48176749093','13000303', '0073717', 'Klaudijo Stipčević (091/750-20-77)', 'Darija Kraljević (098/734-374)',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -12940,12 +13137,15 @@
       <c r="P42" s="2">
         <v>1</v>
       </c>
-      <c r="R42" s="3" t="str">
+      <c r="Q42" s="42" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Javna ustanova za upravljanje športskim objektima - Zadarski šport d.o.o.',  41, '023/331-197','','023/331-400','1366432', '98185775176','', '', 'Direktor: Jurica Dilber (091/591-19-77)', '',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -12992,12 +13192,15 @@
       <c r="P43" s="2">
         <v>1</v>
       </c>
-      <c r="R43" s="3" t="str">
+      <c r="Q43" s="37" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ženski rukometni klub Zadar',  42, '023/341-034','','023/342-630','03154971', '35599539345','13000306', '0151330', 'Dražen Dajak (091/204-04-40)', 'Nela Mitrović (098/191-29-61)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -13042,12 +13245,15 @@
       <c r="P44" s="2">
         <v>1</v>
       </c>
-      <c r="R44" s="3" t="str">
+      <c r="Q44" s="37" t="s">
+        <v>1946</v>
+      </c>
+      <c r="S44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski plesni klub Samba',  43, '023/312-518','','','01443615', '66124427579','13000395', '0097063', 'Zlatka Badel (098/650-873', 'Bernarda Kaurloto',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -13092,12 +13298,15 @@
       <c r="P45" s="2">
         <v>1</v>
       </c>
-      <c r="R45" s="3" t="str">
+      <c r="Q45" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Diklo',  44, '023/337-038','','023/337-064','01619144', '59710612309','13000575', '0041793', 'Verino Ladiš (097/715-9866)', '',to_date(NULLIF('01.01.2007', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -13144,12 +13353,15 @@
       <c r="P46" s="2">
         <v>1</v>
       </c>
-      <c r="R46" s="3" t="str">
+      <c r="Q46" s="37" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ronilaćki klub Zadar',  45, '023/324-306','','023/324-306','01564005', '73191012166','13000534', '0132341', 'Duško Paulin (091/4848-588)', 'Vjekoslav Valčić (091/7306-39-69)',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -13196,12 +13408,15 @@
       <c r="P47" s="2">
         <v>1</v>
       </c>
-      <c r="R47" s="3" t="str">
+      <c r="Q47" s="37" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Stolnoteniski klub Jadera',  46, '023/250-020','','023/250-020','02433826', '69211850445','13001070', '0112305', 'Ivica Bujas (099/599-16-97)', 'Mario Kožul (091/508-98-33)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -13246,12 +13461,15 @@
       <c r="P48" s="2">
         <v>1</v>
       </c>
-      <c r="R48" s="3" t="str">
+      <c r="Q48" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub Voštarnica',  47, '023/326-176','','','01717081', '21803934153','13000661', '0188686', 'Tomislav Klarica (091/326-17-66)', 'Igor Dorontić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -13296,12 +13514,15 @@
       <c r="P49" s="2">
         <v>1</v>
       </c>
-      <c r="R49" s="3" t="str">
+      <c r="Q49" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Nogometni Klub Arbanasi',  48, '023/311-759','','','01815598', '48701891138','13000727', '0120746', 'Edi Perović', 'Miodrag PAunović (091/733-46-06)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -13346,12 +13567,15 @@
       <c r="P50" s="2">
         <v>1</v>
       </c>
-      <c r="R50" s="3" t="str">
+      <c r="Q50" s="42" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Karate klub Croatia',  49, '023/319-014','','023/250-048','03587967', '68920650220','13000152', '0041696', 'Hrvoje Mikecin (091/760-49-66)', '',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -13398,12 +13622,15 @@
       <c r="P51" s="2">
         <v>1</v>
       </c>
-      <c r="R51" s="3" t="str">
+      <c r="Q51" s="37" t="s">
+        <v>1916</v>
+      </c>
+      <c r="S51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Plivački klub Jadera',  50, '023/334-933','','023/334-933','02230518', '80828570466','13000943', '0041831', 'Vitomir Burčul (098/166-01-13)', 'Marijan Čulina (098/976-35-23)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -13446,12 +13673,15 @@
       <c r="P52" s="2">
         <v>1</v>
       </c>
-      <c r="R52" s="3" t="str">
+      <c r="Q52" s="37" t="s">
+        <v>1954</v>
+      </c>
+      <c r="S52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Triatlon klub Zadar',  51, '','','','02564343', '79243095913','13001164', '0151891', 'Ivan Gobin (098/180-54-34)', 'Ivan Tuta (098/180-54-34)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -13498,12 +13728,15 @@
       <c r="P53" s="2">
         <v>1</v>
       </c>
-      <c r="R53" s="3" t="str">
+      <c r="Q53" s="37" t="s">
+        <v>1951</v>
+      </c>
+      <c r="S53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Taekwondo klub Zadar',  52, '023/302-374','','023/302-374','03439330', '18649423025','1300032', '0127916', 'Mladen Uskok (098/303-311)', 'Krešimir Karamarko (099/311-49-17)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -13546,12 +13779,15 @@
       <c r="P54" s="2">
         <v>1</v>
       </c>
-      <c r="R54" s="3" t="str">
+      <c r="Q54" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub Pet bunara - veterani',  53, '','','','02823071', '57896242721','13001345', '0198799', 'Tonći Jerak (099/882-26-23)', 'Jure Jerak (091/348-07-37)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -13598,12 +13834,15 @@
       <c r="P55" s="2">
         <v>1</v>
       </c>
-      <c r="R55" s="3" t="str">
+      <c r="Q55" s="37" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Rukometni klub Zadar 1954',  54, '023/34-772','','023/324-772','01856979', '39778663780','13000745', '0149344', 'Rade Šimićević  (098/98-464)', 'Igor Nikolić (098/944-48-00)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -13650,12 +13889,15 @@
       <c r="P56" s="2">
         <v>1</v>
       </c>
-      <c r="R56" s="3" t="str">
+      <c r="Q56" s="37" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Karate klub Zvonimir',  55, '023/311-552','','023/311-552','02201844', '06972084253','13000932', '0085588', 'Tomislav Rogić (098/614-413)', 'Franjp Glavaš (098/614-413)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -13698,12 +13940,15 @@
       <c r="P57" s="2">
         <v>1</v>
       </c>
-      <c r="R57" s="3" t="str">
+      <c r="Q57" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Višnjik',  56, '023/231-551','','023/231-551','01799746', '19104518057','130007000', '0271499', 'Ivica Jukić (095/198-12-43)', 'Matija Benini (095/914-89-69)',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -13750,12 +13995,15 @@
       <c r="P58" s="2">
         <v>1</v>
       </c>
-      <c r="R58" s="3" t="str">
+      <c r="Q58" s="37" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kuglački klub Donat Zadar - Žene',  57, '023/334-811 ','023/351-504','','03189082', '22505058872','13000338', '0103128', 'Ante Lonić (099/572-71-86)', 'Nives Grabovac (098/248-379) Žaklina Jelača (091/788-47-68)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -13802,12 +14050,15 @@
       <c r="P59" s="2">
         <v>1</v>
       </c>
-      <c r="R59" s="3" t="str">
+      <c r="Q59" s="37" t="s">
+        <v>1875</v>
+      </c>
+      <c r="S59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Klub ritmičke gimnastike Sirena',  58, '023/340-531','','023/340-531','02412411', '91916030955','13001049', '0116012', 'Iris Mijailović Bulj (095/830-50-70)', 'Irena Serdarević',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -13852,12 +14103,15 @@
       <c r="P60" s="2">
         <v>1</v>
       </c>
-      <c r="R60" s="3" t="str">
+      <c r="Q60" s="37" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Automobilistički klub RTZ',  59, '','','023/778-895','02626209', '62512974921','13001198', '0218241', 'Goran Ban (095/808-47-75)', 'Iva Borošak',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -13900,12 +14154,15 @@
       <c r="P61" s="2">
         <v>1</v>
       </c>
-      <c r="R61" s="3" t="str">
+      <c r="Q61" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo Športske rekreacije Vitalnost',  60, '','','','02549336', '89335027474','13001140', '01011959', 'Ivana Stilinović (098/903-46-17)', 'Filip Simičić',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -13952,12 +14209,15 @@
       <c r="P62" s="2">
         <v>1</v>
       </c>
-      <c r="R62" s="3" t="str">
+      <c r="Q62" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub ABC',  61, '023/326-176','','023/326-176','01462016', '50180654492','13000415', '0128093', 'Željko Pribanović (091/326-35-35)', 'Davor Rosan',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -14000,12 +14260,15 @@
       <c r="P63" s="2">
         <v>1</v>
       </c>
-      <c r="R63" s="3" t="str">
+      <c r="Q63" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športska škola košarke Zadar',  62, '023/230-750','','023/230-750','02273454', '80406652845','130400116', '0028584', 'Tonći Jerak (099/311-16-47)', 'Zdenko Perić',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -14052,12 +14315,15 @@
       <c r="P64" s="2">
         <v>1</v>
       </c>
-      <c r="R64" s="3" t="str">
+      <c r="Q64" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Udruga za mali nogomet Zadarske županije',  63, '023/314-521','','023/254-180','03417255', '09849416974','13000182', '0151224', 'Zvonimir Sorić (098/272-525)', 'Matetrbušić (095/889-46-93)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -14100,12 +14366,15 @@
       <c r="P65" s="2">
         <v>1</v>
       </c>
-      <c r="R65" s="3" t="str">
+      <c r="Q65" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Futsal',  64, '023/321-361','','023/321-361','02936470', '23999408148','', '0265341', 'Marko Šimurina (091/515-51-52)', '',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -14148,12 +14417,15 @@
       <c r="P66" s="2">
         <v>1</v>
       </c>
-      <c r="R66" s="3" t="str">
+      <c r="Q66" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Puntamika',  65, '','','','01669435', '47719025627','13000628', '0151020', 'Alan Kociper (098/180-60-12)', 'Stela Dunić',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -14196,12 +14468,15 @@
       <c r="P67" s="2">
         <v>1</v>
       </c>
-      <c r="R67" s="3" t="str">
-        <f t="shared" ref="R67:R130" si="1">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B67&amp;"',  "&amp;C67&amp;", '"&amp;D67&amp;"','"&amp;E67&amp;"','"&amp;F67&amp;"','"&amp;G67&amp;"', '"&amp;H67&amp;"','"&amp;I67&amp;"', '"&amp;J67&amp;"', '"&amp;K67&amp;"', '"&amp;L67&amp;"',to_date(NULLIF('"&amp;IF(M67="","",M67)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N67="","",N67)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O67="","",O67)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P67&amp;"');"</f>
+      <c r="Q67" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S67" s="3" t="str">
+        <f t="shared" ref="S67:S130" si="1">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B67&amp;"',  "&amp;C67&amp;", '"&amp;D67&amp;"','"&amp;E67&amp;"','"&amp;F67&amp;"','"&amp;G67&amp;"', '"&amp;H67&amp;"','"&amp;I67&amp;"', '"&amp;J67&amp;"', '"&amp;K67&amp;"', '"&amp;L67&amp;"',to_date(NULLIF('"&amp;IF(M67="","",M67)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N67="","",N67)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O67="","",O67)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P67&amp;"');"</f>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športsko rekreacijska udruga Sklek',  66, '023/326-682','','','02301644', '09909070165','13000983', '0150518', 'Vedrana Pleslić (095/909-3525)', '',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -14244,12 +14519,15 @@
       <c r="P68" s="2">
         <v>1</v>
       </c>
-      <c r="R68" s="3" t="str">
+      <c r="Q68" s="37" t="s">
+        <v>1940</v>
+      </c>
+      <c r="S68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Streličarski klub Zadar',  67, '','','','02671816', '65872367322','13001218', '0168838', 'Irena Stein (098/817-065)', 'Maja Pavković (098/315-082)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -14290,12 +14568,15 @@
       <c r="P69" s="2">
         <v>1</v>
       </c>
-      <c r="R69" s="3" t="str">
+      <c r="Q69" s="37" t="s">
+        <v>1921</v>
+      </c>
+      <c r="S69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ragbi klub Zadar',  68, '023/305-428','','','02234645', '93943012649','13000926', '0189992', 'Mateo Mazija (091/201-45-83)', 'Radošević Ivan (091/957-46-18)',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -14342,12 +14623,15 @@
       <c r="P70" s="2">
         <v>1</v>
       </c>
-      <c r="R70" s="3" t="str">
+      <c r="Q70" s="37" t="s">
+        <v>1956</v>
+      </c>
+      <c r="S70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Vaterpolski klub Zadar 1952',  69, '023/237-614','','023/206-898','01675826', '33644431140','13000637', '0190617', 'Dražen Grgurović (098/981-69-00)', 'Goran Jovančević (099/323-15-62)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -14394,12 +14678,15 @@
       <c r="P71" s="2">
         <v>1</v>
       </c>
-      <c r="R71" s="3" t="str">
+      <c r="Q71" s="37" t="s">
+        <v>1875</v>
+      </c>
+      <c r="S71" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Gimnastički klub Salto',  70, '023/236-384','','023/350-390','02228416', '165952126666','13000939', '0041904', 'Marko Sutlović (099/255-77-70)', 'Ivana Ratković (099/813-44-31)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -14446,12 +14733,15 @@
       <c r="P72" s="2">
         <v>1</v>
       </c>
-      <c r="R72" s="3" t="str">
+      <c r="Q72" s="42" t="s">
+        <v>1944</v>
+      </c>
+      <c r="S72" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Šahovski klub Casper',  71, '023/312-794','','023/254-020','01264818', '39897562507','13000236', '0112361', 'Veljko Šagi (091/170-21-40)', 'Margita Gurdulić',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -14498,12 +14788,15 @@
       <c r="P73" s="2">
         <v>1</v>
       </c>
-      <c r="R73" s="3" t="str">
+      <c r="Q73" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S73" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Silba',  72, '023/323-861','','023/323-861','02331357', '09726047291','13000985', '0192857', 'Ante Žorrž (098/198-48-62)', 'Marko Žorž (095/902-04-80)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -14534,12 +14827,15 @@
       <c r="P74" s="2">
         <v>1</v>
       </c>
-      <c r="R74" s="3" t="str">
+      <c r="Q74" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S74" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Drakmar Sali',  73, '','','','', '97831826928','', '', 'Šanto Basioli (099/833-83-97)', '',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -14586,12 +14882,15 @@
       <c r="P75" s="2">
         <v>1</v>
       </c>
-      <c r="R75" s="3" t="str">
+      <c r="Q75" s="37" t="s">
+        <v>1679</v>
+      </c>
+      <c r="S75" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Županijski savez školskog športa Zadarske županije',  74, '023/312-289','','023/312-289','01661132', '44327231995','13000606', '0041572', 'Davor Vidaković (098/332-874)', 'Jadranka Duvančić (091/207-24-02)',to_date(NULLIF('05.11.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('05.11.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -14638,12 +14937,15 @@
       <c r="P76" s="2">
         <v>1</v>
       </c>
-      <c r="R76" s="3" t="str">
+      <c r="Q76" s="37" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S76" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Hrvatsko planinarsko društvo Mala Rava',  75, '023/333-681','','023/333-681','02635640', '22514563488','13001204', '0188441', 'Zoran Simičić (095/887-6080)', 'Eduard Magazin',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -14688,12 +14990,15 @@
       <c r="P77" s="2">
         <v>1</v>
       </c>
-      <c r="R77" s="3" t="str">
+      <c r="Q77" s="42" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S77" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kuglački klub Liburnija',  76, '023/633-074','','','01388797', '12853339056','13000258', '0102963', 'Petar Ugarković (091/528-93-33)', 'Čedo Alić',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -14740,12 +15045,15 @@
       <c r="P78" s="2">
         <v>1</v>
       </c>
-      <c r="R78" s="3" t="str">
+      <c r="Q78" s="37" t="s">
+        <v>1880</v>
+      </c>
+      <c r="S78" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Hrvački klub Zadar',  77, '023/332-680','','023/332-680','02750104', '00749599062','13001288', '0177980', 'Vladimir Menčik (098/957-97-49)', 'Mirela Menčik',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -14788,12 +15096,15 @@
       <c r="P79" s="2">
         <v>1</v>
       </c>
-      <c r="R79" s="3" t="str">
+      <c r="Q79" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S79" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo Športske Rekreacije Dite zadarsko',  78, '023/250-275','','','025559889', '36453025190','13001143', '0101911', 'Venci Longin (098/175-01-40)', '',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -14838,12 +15149,15 @@
       <c r="P80" s="2">
         <v>1</v>
       </c>
-      <c r="R80" s="3" t="str">
+      <c r="Q80" s="37" t="s">
+        <v>1909</v>
+      </c>
+      <c r="S80" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Odbojkaški klub Arbanasi',  79, '023/250-120','','023/254-020','01802020', '10199002785','13000703', '0112272', 'Karlo Lisica (091/799-62479', '',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -14890,12 +15204,15 @@
       <c r="P81" s="2">
         <v>1</v>
       </c>
-      <c r="R81" s="3" t="str">
+      <c r="Q81" s="37" t="s">
+        <v>1916</v>
+      </c>
+      <c r="S81" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Klub daljinskog plivanja Donat',  80, '023/300-444','','023/300-444','01944835', '18693109162','13000784', '0120399', 'Hrvoje Bajlo (091/564-02-12)', 'Siniša Pezelj',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -14942,12 +15259,15 @@
       <c r="P82" s="2">
         <v>1</v>
       </c>
-      <c r="R82" s="3" t="str">
+      <c r="Q82" s="42" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S82" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kiteboarding udruga Adrenalin',  81, '023/334-414','','023/334-414','01477951', '50228536500','13000437', '0188755', 'Damir Veledar (099/513-42-18)', 'Maria Veledar',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>82</v>
       </c>
@@ -14994,12 +15314,15 @@
       <c r="P83" s="2">
         <v>1</v>
       </c>
-      <c r="R83" s="3" t="str">
+      <c r="Q83" s="37" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S83" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Klub jedrenja na dasci Fortunal',  82, '023/334-414','','023/334-414','01285122', '72975768959','13000201', '0188763', 'Damir Veledar (091/513-42-18)', 'Marinko Miočić (098/685-502)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -15044,12 +15367,15 @@
       <c r="P84" s="2">
         <v>1</v>
       </c>
-      <c r="R84" s="3" t="str">
+      <c r="Q84" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S84" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo za športsku rekreaciju Relaks',  83, '023/326-225','','023/326-225','00769118', '72633484931','13000018', '0151453', 'Katja Pijaca (091/509-28-75)', '',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -15096,12 +15422,15 @@
       <c r="P85" s="2">
         <v>1</v>
       </c>
-      <c r="R85" s="3" t="str">
+      <c r="Q85" s="37" t="s">
+        <v>1933</v>
+      </c>
+      <c r="S85" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski klub za skokove u vodu Arno',  84, '023/313-192','','023/313-192','2043025', '56403849809','13000864', '0151652', 'Veljko Bubić', 'Arno Longin (098/171-30-97)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>85</v>
       </c>
@@ -15146,12 +15475,15 @@
       <c r="P86" s="2">
         <v>1</v>
       </c>
-      <c r="R86" s="3" t="str">
+      <c r="Q86" s="37" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S86" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kickboxing klub Sv. Krševan',  85, '023/318-401','','','01774433', '08024726070','13000392', '0192946', 'Neenad Mitrović (098/924-98-42)', 'Jurica Kvartuč',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>86</v>
       </c>
@@ -15196,12 +15528,15 @@
       <c r="P87" s="2">
         <v>1</v>
       </c>
-      <c r="R87" s="3" t="str">
+      <c r="Q87" s="42" t="s">
+        <v>1749</v>
+      </c>
+      <c r="S87" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boksački klub Sv. Krševan',  86, '023/318-401','','','01433806', '97042242606','13000392', '0192959', 'Nenad Mitrović (098/924-98-42)', 'Jurica Kvartuč',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -15248,12 +15583,15 @@
       <c r="P88" s="2">
         <v>1</v>
       </c>
-      <c r="R88" s="3" t="str">
+      <c r="Q88" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S88" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Varoš',  87, '023/327-372','','023/327-372','02561425', '29063643242','13001159', '0189548', 'Marko Jurin (099/736-85-49)', 'Marko Vukić (099/249-81-81)',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>88</v>
       </c>
@@ -15300,12 +15638,15 @@
       <c r="P89" s="2">
         <v>1</v>
       </c>
-      <c r="R89" s="3" t="str">
+      <c r="Q89" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S89" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub Sonik Puntamika',  88, '023/335-735','','023/335-735','01373137', '94165900313','13000189', '0125060', 'Mirko Jošić (091/121-10-65)', 'Pero Perić (091/547-73-72)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>89</v>
       </c>
@@ -15348,12 +15689,15 @@
       <c r="P90" s="2">
         <v>1</v>
       </c>
-      <c r="R90" s="3" t="str">
+      <c r="Q90" s="42" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S90" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kickboxing klub Sv. Zoilo',  89, '','','','02726050', '76521889373','13001245', '0164440', 'Tomislav Torić (095/8000-48-86)', 'Jure Čačić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>90</v>
       </c>
@@ -15392,12 +15736,15 @@
       <c r="P91" s="2">
         <v>1</v>
       </c>
-      <c r="R91" s="3" t="str">
+      <c r="Q91" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S91" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Euforija',  90, '','','','04044169', '15855531924','13001470', '0248415', 'Marina Tomas (098/6500-07)', 'Tina KAravida ((099/310-14-48)',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>91</v>
       </c>
@@ -15440,12 +15787,15 @@
       <c r="P92" s="2">
         <v>1</v>
       </c>
-      <c r="R92" s="3" t="str">
+      <c r="Q92" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo za športsku rekreaciju Hula-hop',  91, '023/323-552','','','04085558', '24161670928','13001484', '0251998', 'Radojka Antić (098/42-97-61)', '',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -15492,12 +15842,15 @@
       <c r="P93" s="2">
         <v>1</v>
       </c>
-      <c r="R93" s="3" t="str">
+      <c r="Q93" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S93" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Košarkaški klub Zara',  92, '023/341-286','','023/236-384','04060938', '97422202178','13001477', '0249667', 'Marin Vrsaljko (098/221-448)', 'Ana Vrsaljko',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>93</v>
       </c>
@@ -15538,12 +15891,15 @@
       <c r="P94" s="2">
         <v>1</v>
       </c>
-      <c r="R94" s="3" t="str">
+      <c r="Q94" s="42" t="s">
+        <v>1749</v>
+      </c>
+      <c r="S94" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boksački klub Dijagora',  93, '023/316-114','','','01167513', '53085011457','13000608', '', 'Denis Gregov (091/907-23-81)', '',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>94</v>
       </c>
@@ -15580,12 +15936,15 @@
       <c r="P95" s="2">
         <v>1</v>
       </c>
-      <c r="R95" s="3" t="str">
+      <c r="Q95" s="42" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S95" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski centar Višnjik d.o.o.',  94, '023/449-860','','023/302-402','01759418', '79086303924','', '', 'Denis Karlović (098/369-515)', '',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('16.07.2013', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -15632,12 +15991,15 @@
       <c r="P96" s="2">
         <v>1</v>
       </c>
-      <c r="R96" s="3" t="str">
+      <c r="Q96" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S96" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ženski košarkaški klub Zadar',  95, '023/350-356','','023/350-355','00516376', '30110621801','13000159', '0117756', 'Branimir Perićić (095/910-71-79)', 'Josipa Sesar',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -15684,12 +16046,15 @@
       <c r="P97" s="2">
         <v>1</v>
       </c>
-      <c r="R97" s="3" t="str">
+      <c r="Q97" s="42" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S97" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Jedriličarski klub Sv. Krševan',  96, '023/231-679','','023/231-679','01461834', '63499196019','130100112', '0130435', 'Edo Fantela (098/940-417-72)', 'Nives Letinić',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>97</v>
       </c>
@@ -15726,12 +16091,15 @@
       <c r="P98" s="2">
         <v>1</v>
       </c>
-      <c r="R98" s="3" t="str">
+      <c r="Q98" s="42" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S98" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Karate  klub Zadar',  97, '','','','', '67131312087','13000302', '', 'Goran Glavan (098/272-848)', '',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -15774,12 +16142,15 @@
       <c r="P99" s="2">
         <v>1</v>
       </c>
-      <c r="R99" s="3" t="str">
+      <c r="Q99" s="37" t="s">
+        <v>1884</v>
+      </c>
+      <c r="S99" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ju jitsu klub Zadar',  98, '','','','01662015', '18212327717','13000618', '0132381', 'Damir Šalina (091/721-47-37)', 'Vedran Šetka',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -15824,12 +16195,15 @@
       <c r="P100" s="2">
         <v>1</v>
       </c>
-      <c r="R100" s="3" t="str">
+      <c r="Q100" s="37" t="s">
+        <v>1884</v>
+      </c>
+      <c r="S100" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ju jitsu klub Donat',  99, '023/214-848','','','02515199', '19634543545','13001125', '0205449', 'Saša Stipanić (099/530-04-78)', 'Samir Sedić (098/429-863)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -15872,12 +16246,15 @@
       <c r="P101" s="2">
         <v>1</v>
       </c>
-      <c r="R101" s="3" t="str">
+      <c r="Q101" s="42" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S101" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boksački klub Zlatna Rukavica',  100, '','','','02317460', '09173545142','13000977', '0127932', 'Šime Filipi (098/941-58-19)', 'Edi Milošević (095/395-84-98)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -15918,12 +16295,15 @@
       <c r="P102" s="2">
         <v>1</v>
       </c>
-      <c r="R102" s="3" t="str">
+      <c r="Q102" s="37" t="s">
+        <v>1750</v>
+      </c>
+      <c r="S102" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Body Building klub Hulk',  101, '','','','4010094', '62291466931','13001456', '', 'Zoran Tokić (095/819-91-92)', 'Viktor Begonja',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -15970,12 +16350,15 @@
       <c r="P103" s="2">
         <v>1</v>
       </c>
-      <c r="R103" s="3" t="str">
+      <c r="Q103" s="37" t="s">
+        <v>1951</v>
+      </c>
+      <c r="S103" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Taekwondo klub Plovanija',  102, '023/324-118','','023/312-235','02607867', '34802146621','13001187', '0140147', 'Antonio Čačić (098/928-94-56)', 'Danijela Sipina 095/9082610',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -16022,12 +16405,15 @@
       <c r="P104" s="2">
         <v>1</v>
       </c>
-      <c r="R104" s="3" t="str">
+      <c r="Q104" s="42" t="s">
+        <v>1875</v>
+      </c>
+      <c r="S104" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Gimnastički klub Zadar',  103, '023/250-120','','023/250-120','03155056', '86639247638','9537800000', '0112299', 'Magdalena Brković (095/391-38-05)', 'Saša Brković',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -16074,12 +16460,15 @@
       <c r="P105" s="2">
         <v>1</v>
       </c>
-      <c r="R105" s="3" t="str">
+      <c r="Q105" s="37" t="s">
+        <v>1891</v>
+      </c>
+      <c r="S105" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Konjički klub Epona',  104, '023/313-036','','023/313-036','01492152', '69853428287','13000460', '0273360', 'Edo Jelenković (099/673-71-06)', 'Marin Kožul',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>105</v>
       </c>
@@ -16122,12 +16511,15 @@
       <c r="P106" s="2">
         <v>1</v>
       </c>
-      <c r="R106" s="3" t="str">
+      <c r="Q106" s="42" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S106" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Streljački klub Lovac',  105, '023/230-000','','0237220-797','03154815', '35307886697','13000324', '0140365', 'Danijel Telesmanić (091/226-21-00)', 'Arden Dražević',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>106</v>
       </c>
@@ -16168,12 +16560,15 @@
       <c r="P107" s="2">
         <v>1</v>
       </c>
-      <c r="R107" s="3" t="str">
+      <c r="Q107" s="42" t="s">
+        <v>1933</v>
+      </c>
+      <c r="S107" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Klub za skokove u vodu Zadar',  106, '','','','03429679', '71809427092','13000330', '0171087', 'Mirko Jurin (098/813-44-31)', '',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>107</v>
       </c>
@@ -16218,12 +16613,15 @@
       <c r="P108" s="2">
         <v>1</v>
       </c>
-      <c r="R108" s="3" t="str">
+      <c r="Q108" s="42" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S108" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Rukometni klub Arbanasi',  107, '023/317-279','','','02378531', '91835955260','13001023', '0115934', 'Stipe Bjeliš (098/164-25-48)', 'Vatroslav Ivković',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>108</v>
       </c>
@@ -16264,12 +16662,15 @@
       <c r="P109" s="2">
         <v>1</v>
       </c>
-      <c r="R109" s="3" t="str">
+      <c r="Q109" s="37" t="s">
+        <v>1948</v>
+      </c>
+      <c r="S109" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Klub za športski ribolov Paprenica',  108, '','','','02647774', '73892282141','13001205', '', 'Josip-Pero Granić (098/961-74-74)', 'Ljubomir Čurković',to_date(NULLIF('01.01.2009', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>109</v>
       </c>
@@ -16314,12 +16715,15 @@
       <c r="P110" s="2">
         <v>1</v>
       </c>
-      <c r="R110" s="3" t="str">
+      <c r="Q110" s="37" t="s">
+        <v>1948</v>
+      </c>
+      <c r="S110" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski ribolovni klub Donat',  109, '023/233-766','','023/233-766','01432974', '03595482979','13000394', '0134892', 'Josip Gatara', 'Davorka Volarević',to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.07.2014', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>110</v>
       </c>
@@ -16366,12 +16770,15 @@
       <c r="P111" s="2">
         <v>1</v>
       </c>
-      <c r="R111" s="3" t="str">
+      <c r="Q111" s="37" t="s">
+        <v>1914</v>
+      </c>
+      <c r="S111" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Alpinistički klub Zadar',  110, '053/679-112','','053/679-112','02490463', '45680132118','13001106', '0151216', 'Jana Mijailović (095/827-29-43)', 'Natalija Andačić',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>111</v>
       </c>
@@ -16418,12 +16825,15 @@
       <c r="P112" s="2">
         <v>1</v>
       </c>
-      <c r="R112" s="3" t="str">
+      <c r="Q112" s="42" t="s">
+        <v>1909</v>
+      </c>
+      <c r="S112" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Odbojkaški klub Donat',  111, '023/327-265','','023/327-265','02217830', '23517960553','13000888', '0151445', 'Julja Kaleb (098/191-27-28)', 'Irena Kraljev Mesarić',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>112</v>
       </c>
@@ -16470,12 +16880,15 @@
       <c r="P113" s="2">
         <v>1</v>
       </c>
-      <c r="R113" s="3" t="str">
+      <c r="Q113" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S113" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Hrvatski nogometni klub Dalmatinac',  112, '023/300-002','','023/300-002','1472712', '73680202956','13000426', '0338503', 'Mile Vukoša (098/273-807)', 'Jurica Grgurović (091/380-51-55)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>113</v>
       </c>
@@ -16518,12 +16931,15 @@
       <c r="P114" s="2">
         <v>1</v>
       </c>
-      <c r="R114" s="3" t="str">
+      <c r="Q114" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S114" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Udruga slijepih Zadarske Županije',  113, '023/250-546','','023/250-546','01075497', '85389451415','13000100', '0002348', 'Danijel Lončar (091/548-80-02)', 'Špiro Zrilić',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>114</v>
       </c>
@@ -16570,12 +16986,15 @@
       <c r="P115" s="2">
         <v>1</v>
       </c>
-      <c r="R115" s="3" t="str">
+      <c r="Q115" s="37" t="s">
+        <v>1945</v>
+      </c>
+      <c r="S115" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski savez gluhih Zadarske Županije',  114, '023/7213-442','','023/7213-442','04277708', '19460481165','13001350', '0285826', 'Natko Zelić', 'Miki Savić (091/764-70-47)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>115</v>
       </c>
@@ -16618,12 +17037,15 @@
       <c r="P116" s="2">
         <v>1</v>
       </c>
-      <c r="R116" s="3" t="str">
+      <c r="Q116" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S116" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Odbojkaški klub invalida Zadar',  115, '','','','02029715', '64155155306','13000838', '0062014', 'Ivan Bajlo (098/830-888)', 'Ante Baraba Knez (092/130-39-15)',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>116</v>
       </c>
@@ -16664,12 +17086,15 @@
       <c r="P117" s="2">
         <v>1</v>
       </c>
-      <c r="R117" s="3" t="str">
+      <c r="Q117" s="42" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S117" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kuglački klub invalida Dišpet',  116, '023/323-400','','023/323-777','02496259', '53410477438','13001122', '0188409', 'Dražen Žilić (091/503-62-88)', '',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>117</v>
       </c>
@@ -16716,12 +17141,15 @@
       <c r="P118" s="2">
         <v>1</v>
       </c>
-      <c r="R118" s="3" t="str">
+      <c r="Q118" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S118" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Plivački klub osoba s invaliditetom Sv. Nikola',  117, '023/323-400','','023/323-777','02430568', '38060095051','13001055', '0188384', 'Marin Raspović (099/578-40-46)', 'E. Šahinović (099/723-34-15)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>118</v>
       </c>
@@ -16766,12 +17194,15 @@
       <c r="P119" s="2">
         <v>1</v>
       </c>
-      <c r="R119" s="3" t="str">
+      <c r="Q119" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S119" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Stolnoteniski klub osoba s invaliditetom Sv. Krševan',  118, '023/323-400','','023-323-777','02336251', '33677229477','13001003', '0188392', 'Miroslav Barić (092/159-81-76)', '',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>119</v>
       </c>
@@ -16816,12 +17247,15 @@
       <c r="P120" s="2">
         <v>1</v>
       </c>
-      <c r="R120" s="3" t="str">
+      <c r="Q120" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S120" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Streljački klub osoba s invaliditetom Donat',  119, '023/323-400','','023/323-777','02180839', '76270962910','13000903', '0188417', 'Saša Grdović (098/417-401)', '',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>120</v>
       </c>
@@ -16868,12 +17302,15 @@
       <c r="P121" s="2">
         <v>1</v>
       </c>
-      <c r="R121" s="3" t="str">
+      <c r="Q121" s="42" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S121" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ribolovni klub osoba s invaliditetom Škartoc',  120, '023/323-400','','023/323-777','02093146', '89102866393','13000869', '0188433', 'Zoran Radić (099/250-76-66)', 'Elfad Šahinović (099/337-34-15)',to_date(NULLIF('01.01.2010', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>121</v>
       </c>
@@ -16920,12 +17357,15 @@
       <c r="P122" s="2">
         <v>1</v>
       </c>
-      <c r="R122" s="3" t="str">
+      <c r="Q122" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S122" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Športski savez osoba s invaliditetom Zadarske županije',  121, '023/323-400','','023/323-777','02438887', '79668532267','130000929', '0188425', 'Saša Grdović (098/417-401)', 'Dražen Žilić',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>122</v>
       </c>
@@ -16970,12 +17410,15 @@
       <c r="P123" s="2">
         <v>1</v>
       </c>
-      <c r="R123" s="3" t="str">
+      <c r="Q123" s="37" t="s">
+        <v>1888</v>
+      </c>
+      <c r="S123" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kendo klub "Ouka"',  122, '098-665-752','','','01841823', '52434249167','13000740', '0329744', 'Marko Lukić (098/665-752)', 'Toni Tadić (099/835-05-08)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>123</v>
       </c>
@@ -17022,12 +17465,15 @@
       <c r="P124" s="2">
         <v>1</v>
       </c>
-      <c r="R124" s="3" t="str">
+      <c r="Q124" s="37" t="s">
+        <v>1912</v>
+      </c>
+      <c r="S124" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Pikado Savez Zadarske župnije',  123, '023/316-400','','023/316-400','02939622', '82956603468','13001429', '0229577', 'Jure Jerak (091/433-23-66)', 'Ante Frleta (981/55-94-445)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>124</v>
       </c>
@@ -17074,12 +17520,15 @@
       <c r="P125" s="2">
         <v>1</v>
       </c>
-      <c r="R125" s="3" t="str">
+      <c r="Q125" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S125" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Udruga za "Down sindrom" Zadarske županije',  124, '023/636-603','','023/636-603','02238454', '93166915044','13000938', '0041759', 'Suzana Periša (095/906-3956)', 'Tanja Radman (099/218-74-90)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>125</v>
       </c>
@@ -17122,12 +17571,15 @@
       <c r="P126" s="2">
         <v>1</v>
       </c>
-      <c r="R126" s="3" t="str">
+      <c r="Q126" s="37" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S126" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ronilački klub 2 dive',  125, '','','','02349710', '712619004259','13001009', '0373883', 'Božidar Matković (091/500-0419)', 'Andrija Rogić (099/913-27-61)',to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2020', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>126</v>
       </c>
@@ -17172,12 +17624,15 @@
       <c r="P127" s="2">
         <v>1</v>
       </c>
-      <c r="R127" s="3" t="str">
+      <c r="Q127" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S127" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Brodarica',  126, '091/191-22-01','','','02804808', '94926662660','13001323', '0190254', 'Hrvoje Medved (091/191-22-01)', 'Vladimir Gambiraža',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>127</v>
       </c>
@@ -17216,12 +17671,15 @@
       <c r="P128" s="2">
         <v>1</v>
       </c>
-      <c r="R128" s="3" t="str">
+      <c r="Q128" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S128" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Zadar',  127, '092/304-67-63','','','4021096', '14511512212','13001460', '0283787', 'Roko Dujić (092-304-67-63)', '',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>128</v>
       </c>
@@ -17264,12 +17722,15 @@
       <c r="P129" s="2">
         <v>1</v>
       </c>
-      <c r="R129" s="3" t="str">
+      <c r="Q129" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S129" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Petrčane',  128, '092/217-36-14','','','04027329', '09059794368','13001437', '0243751', 'Duje Stanišić (092/2173-614)', '',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>129</v>
       </c>
@@ -17310,12 +17771,15 @@
       <c r="P130" s="2">
         <v>1</v>
       </c>
-      <c r="R130" s="3" t="str">
+      <c r="Q130" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S130" s="3" t="str">
         <f t="shared" si="1"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Osmijeh za-Dar',  129, '095/579-91-30','','','02434024', '69082966145','13001061', '0151554', 'Borut Gatara (095/ 579-91-30)', 'Sandra Profaca',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>130</v>
       </c>
@@ -17356,12 +17820,15 @@
       <c r="P131" s="2">
         <v>1</v>
       </c>
-      <c r="R131" s="3" t="str">
-        <f t="shared" ref="R131:R160" si="2">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B131&amp;"',  "&amp;C131&amp;", '"&amp;D131&amp;"','"&amp;E131&amp;"','"&amp;F131&amp;"','"&amp;G131&amp;"', '"&amp;H131&amp;"','"&amp;I131&amp;"', '"&amp;J131&amp;"', '"&amp;K131&amp;"', '"&amp;L131&amp;"',to_date(NULLIF('"&amp;IF(M131="","",M131)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N131="","",N131)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O131="","",O131)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P131&amp;"');"</f>
+      <c r="Q131" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S131" s="3" t="str">
+        <f t="shared" ref="S131:S160" si="2">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('"&amp;B131&amp;"',  "&amp;C131&amp;", '"&amp;D131&amp;"','"&amp;E131&amp;"','"&amp;F131&amp;"','"&amp;G131&amp;"', '"&amp;H131&amp;"','"&amp;I131&amp;"', '"&amp;J131&amp;"', '"&amp;K131&amp;"', '"&amp;L131&amp;"',to_date(NULLIF('"&amp;IF(M131="","",M131)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N131="","",N131)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O131="","",O131)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P131&amp;"');"</f>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Novi Bokanjac',  130, '098/309-169','','','01696947', '74659664033','', '', 'Tomislav Dešpoja (098/309-164)', 'Antonio Zelić (091/238-52-48)  Kontakt osoba: Nikola Zrilić (098/843-593)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>131</v>
       </c>
@@ -17408,12 +17875,15 @@
       <c r="P132" s="2">
         <v>1</v>
       </c>
-      <c r="R132" s="3" t="str">
+      <c r="Q132" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S132" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Kožino',  131, '023/343-421','','023/343-421','01882309', '32230828872','1300751', '0073504', 'Ivan Stručić (098-339-369)', 'Edi Tokić (091/2831-488)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>132</v>
       </c>
@@ -17456,12 +17926,15 @@
       <c r="P133" s="2">
         <v>1</v>
       </c>
-      <c r="R133" s="3" t="str">
+      <c r="Q133" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S133" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Dragovoljac',  132, '023/315-546  ','098/330-095','023/315-546','4213157', '31607309251','0013001566', '0274802', 'Nino Rašin', 'Venci Kvartuč',to_date(NULLIF('', ''),  'DD.MM.YYYY' ),to_date(NULLIF('', ''),  'DD.MM.YYYY' ), to_date(NULLIF('', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>133</v>
       </c>
@@ -17508,12 +17981,15 @@
       <c r="P134" s="2">
         <v>1</v>
       </c>
-      <c r="R134" s="3" t="str">
+      <c r="Q134" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S134" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Crvene kuće',  133, '095/905-28-81','','023/332-104','02640481', '05748485522','13001211', '0192491', 'Mate Marić (095/905-28-81)', 'Marko Tadić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('29.04.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>134</v>
       </c>
@@ -17558,12 +18034,15 @@
       <c r="P135" s="2">
         <v>1</v>
       </c>
-      <c r="R135" s="3" t="str">
+      <c r="Q135" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S135" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo Bokanjac Zadar',  134, '023/221-575','','023/221-575','014228812', '32014543847','13000375', '0151485', 'Ivica Mrkić (095/910-04-52)', '',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>135</v>
       </c>
@@ -17608,12 +18087,15 @@
       <c r="P136" s="2">
         <v>1</v>
       </c>
-      <c r="R136" s="3" t="str">
+      <c r="Q136" s="42" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S136" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Bili Brig',  135, '092/4067-090','','','02240530', '76996713327','13000834', '0346123', 'Mario Barišić', 'Šime Bašić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>136</v>
       </c>
@@ -17658,12 +18140,15 @@
       <c r="P137" s="2">
         <v>1</v>
       </c>
-      <c r="R137" s="3" t="str">
+      <c r="Q137" s="42" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S137" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Društvo športske rekreacije Loptica',  136, '098/685-502','','','1736230', '17626883048','13000674', '0127961', 'Marinko Miočić', 'Ana Miočić',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>137</v>
       </c>
@@ -17710,12 +18195,15 @@
       <c r="P138" s="2">
         <v>1</v>
       </c>
-      <c r="R138" s="3" t="str">
+      <c r="Q138" s="42" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S138" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Udruga mladih Ista',  137, '098/967-04-72  ','097/791-05-72','','02345854', '33334206740','13000986', '0041734', 'Luka Kozulić (098/967-04-72)', 'Josipa Kozulić (098/913-44-13)',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>138</v>
       </c>
@@ -17760,12 +18248,15 @@
       <c r="P139" s="2">
         <v>1</v>
       </c>
-      <c r="R139" s="3" t="str">
+      <c r="Q139" s="37" t="s">
+        <v>1746</v>
+      </c>
+      <c r="S139" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Zadarska plesna udruga Tornadele',  138, '091/356-97-72','','','02644703', '68451911353','13001195', '0164471', 'Helena Dobrović', 'Valentina Beneta',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>139</v>
       </c>
@@ -17810,12 +18301,15 @@
       <c r="P140" s="2">
         <v>1</v>
       </c>
-      <c r="R140" s="3" t="str">
+      <c r="Q140" s="37" t="s">
+        <v>1938</v>
+      </c>
+      <c r="S140" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kyudo udruga Yumi - Zadar',  139, '091/570-27-10','','','02489945', '33116958949','09000455', '0255149', 'Goran Blažević (091/570-27-10)', 'Alen Lonić (099/217-78-97)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>140</v>
       </c>
@@ -17862,12 +18356,15 @@
       <c r="P141" s="2">
         <v>1</v>
       </c>
-      <c r="R141" s="3" t="str">
+      <c r="Q141" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S141" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Ženski nogometni klub Donat',  140, '098/429-608','','023/312-598','4401352', '56219903028','13001655', '0339839', 'Edvin Šimunov (098/429-608)', 'Doris Kalmeta (099/305-25-25)',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>141</v>
       </c>
@@ -17914,12 +18411,15 @@
       <c r="P142" s="2">
         <v>1</v>
       </c>
-      <c r="R142" s="3" t="str">
+      <c r="Q142" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S142" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Bili Brig',  141, '023/778791','','023/778791','02556472', '93488686922','13001133', '0308611', 'Josip Lončar (091/161-37-04)', 'Marko Jurjević Škopinić (098/966-52-77)',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>142</v>
       </c>
@@ -17966,12 +18466,15 @@
       <c r="P143" s="2">
         <v>1</v>
       </c>
-      <c r="R143" s="3" t="str">
+      <c r="Q143" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S143" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Plovanija',  142, '023/231-755','','023/231-755','02285690', '66570453161','13000980', '0073580', 'Martin Baričević (091/579-3351)', 'Željko Skukan (098/212-235)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>143</v>
       </c>
@@ -18016,12 +18519,15 @@
       <c r="P144" s="2">
         <v>1</v>
       </c>
-      <c r="R144" s="3" t="str">
+      <c r="Q144" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S144" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Voštarnica',  143, '098/962-29-18','','','04276337', '19610029717','13001609', '0283228', 'Šime Erlić (098/962-29-18)', 'Ivan Erceg',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>144</v>
       </c>
@@ -18064,12 +18570,15 @@
       <c r="P145" s="2">
         <v>1</v>
       </c>
-      <c r="R145" s="3" t="str">
+      <c r="Q145" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S145" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Ploča',  144, '091/575-83-76','','','2264218', '60049621539','13000965', '', 'Željko Gravić  (091/575-83-76)', 'Marko Pilipović',to_date(NULLIF('01.01.2007', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>145</v>
       </c>
@@ -18116,12 +18625,15 @@
       <c r="P146" s="2">
         <v>1</v>
       </c>
-      <c r="R146" s="3" t="str">
+      <c r="Q146" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S146" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Stanovi',  145, '023/318-339','','023/318-339','01818686', '98871200553','13000708', '0243756', 'Toni Lovrić (095/557-52-42)', 'Luka Zubčić (091/731-32-28)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>146</v>
       </c>
@@ -18166,12 +18678,15 @@
       <c r="P147" s="2">
         <v>1</v>
       </c>
-      <c r="R147" s="3" t="str">
+      <c r="Q147" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S147" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Sv. Ante',  146, '095/381-37-10','','','01375687', '47146690100','13000080', '0342073', 'Krešimir Zrilić', 'Ante Vukorepa',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>147</v>
       </c>
@@ -18218,12 +18733,15 @@
       <c r="P148" s="2">
         <v>1</v>
       </c>
-      <c r="R148" s="3" t="str">
+      <c r="Q148" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S148" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Zapuntel',  147, '023/316-526  ','095/912-11-94','','02261260', '29723903297','13000959', '0103986', 'Neven Petrović (095/912-11-94)', 'Marin Petričić (098/1853-919)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>148</v>
       </c>
@@ -18270,12 +18788,15 @@
       <c r="P149" s="2">
         <v>1</v>
       </c>
-      <c r="R149" s="3" t="str">
+      <c r="Q149" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S149" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Mala Rava',  148, '098/922-86-83  ','091/144-02-48','','02211483', '16335604791','13000935', '0186962', 'Vladimir Gambiraža (098/929-08-31)', 'Danijel Simičić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>149</v>
       </c>
@@ -18322,12 +18843,15 @@
       <c r="P150" s="2">
         <v>1</v>
       </c>
-      <c r="R150" s="3" t="str">
+      <c r="Q150" s="42" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S150" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Rukometni klub Zadar 2013',  149, '095/860-92-01','','023/241909','04113225', '41853702244','13001506', '0254317', 'Anđelo Šare (095/ 860-92-01)', 'Barbara Kardum',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>150</v>
       </c>
@@ -18372,12 +18896,15 @@
       <c r="P151" s="2">
         <v>1</v>
       </c>
-      <c r="R151" s="3" t="str">
+      <c r="Q151" s="42" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S151" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Jedriličarski klub Punta Bajlo',  150, '098/369-318','','','1602861', '69933257401','13000560', '0136670', 'Mladen Bajlo', 'Darko Smrkinić',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>151</v>
       </c>
@@ -18422,12 +18949,15 @@
       <c r="P152" s="2">
         <v>1</v>
       </c>
-      <c r="R152" s="3" t="str">
+      <c r="Q152" s="42" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S152" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Plivački klub osoba s invaliditetom Frogo',  151, '095/359-70-55','','','04395549', '42484305521','13001652', '0331558', 'Sanja Sedić', 'Silva Žabo',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>152</v>
       </c>
@@ -18474,12 +19004,15 @@
       <c r="P153" s="2">
         <v>1</v>
       </c>
-      <c r="R153" s="3" t="str">
+      <c r="Q153" s="37" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S153" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Hrvatsko planinarsko društvo Zavrata',  152, '091/600-00-31  ','098/981-73-22','','04336593', '02298099199','13001627', '0342260', 'Nikola Stilinović', 'Ante Pušić',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>153</v>
       </c>
@@ -18524,12 +19057,15 @@
       <c r="P154" s="2">
         <v>1</v>
       </c>
-      <c r="R154" s="3" t="str">
+      <c r="Q154" s="37" t="s">
+        <v>1678</v>
+      </c>
+      <c r="S154" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Udruga Hrvatskih vojnih invalida domovinskog rata - Zadar',  153, '023/323-400','','023/3323-777','03926281', '07666214502','13000103', '0073669', 'Ivica Arbanas (099/222-75-00)', 'Denis Simičić (099/223-36-81)',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>154</v>
       </c>
@@ -18576,12 +19112,15 @@
       <c r="P155" s="2">
         <v>1</v>
       </c>
-      <c r="R155" s="3" t="str">
+      <c r="Q155" s="37" t="s">
+        <v>1959</v>
+      </c>
+      <c r="S155" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Aero klub Zadar',  154, '023/322-355','','023/322-355','03154823', '49059640059','13000131', '0073725', 'Bjanka Pavin (098/273-809)', 'Velid Jakupović (091/523-85-98)',to_date(NULLIF('01.01.2013', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2017', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>155</v>
       </c>
@@ -18628,12 +19167,15 @@
       <c r="P156" s="2">
         <v>1</v>
       </c>
-      <c r="R156" s="3" t="str">
+      <c r="Q156" s="42" t="s">
+        <v>1751</v>
+      </c>
+      <c r="S156" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Boćarski Športski klub Zadar',  155, '023/214-093','','023/214-093','03450848', '03836929990','13000253', '0217137', 'Milivoj Colić (098/196-27-65)', 'Šime Buterin (098/175-14-97)',to_date(NULLIF('01.01.2008', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ), to_date(NULLIF('01.01.1996', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>156</v>
       </c>
@@ -18680,12 +19222,15 @@
       <c r="P157" s="2">
         <v>1</v>
       </c>
-      <c r="R157" s="3" t="str">
+      <c r="Q157" s="42" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S157" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('GRADSKI OGRANAK UDRUGE HRVATSKIH DRAGOVOLJACA DOMOVINSKOG RATA GRADA ZADRA',  156, '023/315-546','','023/315-546','4213157', '31607309251','0013001566', '0274802', 'Nino Rašin (091/524-30-72)', 'Venci Kvartuč (098/330-095)',to_date(NULLIF('01.01.2014', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2018', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>157</v>
       </c>
@@ -18728,12 +19273,15 @@
       <c r="P158" s="2">
         <v>1</v>
       </c>
-      <c r="R158" s="3" t="str">
+      <c r="Q158" s="37" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S158" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Malonogometni klub Brodarica',  157, '098/-990-73-99','','','2458594', '08244505631','13001082', '', 'Hrvoje Medved  (098/-990-73-99)', 'Denis Virovac',to_date(NULLIF('01.01.2012', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2016', ''),  'DD.MM.YYYY' ), to_date(NULLIF('12.10.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>158</v>
       </c>
@@ -18778,12 +19326,15 @@
       <c r="P159" s="2">
         <v>1</v>
       </c>
-      <c r="R159" s="3" t="str">
+      <c r="Q159" s="42" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S159" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Kick-Boxing klub Fight Factory',  158, '091/7859200','','','4489071', '13014500930','13001699', '0354938', 'Željko Dilber', 'Tajnik: Denis Kardum / Ovlaštena osoba: Ante Verunica (091/7859200)',to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2019', ''),  'DD.MM.YYYY' ), to_date(NULLIF('08.12.2015', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>159</v>
       </c>
@@ -18826,7 +19377,10 @@
       <c r="P160" s="2">
         <v>1</v>
       </c>
-      <c r="R160" s="3" t="str">
+      <c r="Q160" s="42" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S160" s="3" t="str">
         <f t="shared" si="2"/>
         <v>insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number, number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category) values ('Planinarsko društvo Sveti Bernard',  159, '091/761 25 39','','','02851245', '04176260415','13001362', '0219130', 'Neven Zrilić (091/761-25-39 )', 'Šime Jukić (095/910-25-44)',to_date(NULLIF('01.01.2011', ''),  'DD.MM.YYYY' ),to_date(NULLIF('01.01.2015', ''),  'DD.MM.YYYY' ), to_date(NULLIF('', ''),  'DD.MM.YYYY' ), '1');</v>
       </c>
@@ -24009,7 +24563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24054,7 +24608,7 @@
         <v>1760</v>
       </c>
       <c r="C5" s="25" t="str">
-        <f t="shared" ref="C2:C116" si="0">"insert into diskobolos.sport (name) values ( '"&amp;A5&amp;"');"</f>
+        <f t="shared" ref="C5:C116" si="0">"insert into diskobolos.sport (name) values ( '"&amp;A5&amp;"');"</f>
         <v>insert into diskobolos.sport (name) values ( 'AMERIČKI NOGOMET (FOOTBALL)');</v>
       </c>
     </row>

--- a/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
+++ b/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LOKACIJA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="PhoneTypes">CONSTANTS!$A$2:$A$4</definedName>
     <definedName name="project_id">'[1]global values'!$A$5</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="2002">
   <si>
     <t>RBR</t>
   </si>
@@ -5701,12 +5701,6 @@
     <t>USER ID</t>
   </si>
   <si>
-    <t>ROLE_USER</t>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
-  </si>
-  <si>
     <t>PERMISSION_LEVEL</t>
   </si>
   <si>
@@ -6218,13 +6212,124 @@
   </si>
   <si>
     <t>Phone type:</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
+    <t>daria.sinovcic@hotmail.com</t>
+  </si>
+  <si>
+    <t>glavni.tajnik@szgz.hr</t>
+  </si>
+  <si>
+    <t>josip.vukovic@szgz.hr</t>
+  </si>
+  <si>
+    <t>luka.peranic@grad-zadar.hr</t>
+  </si>
+  <si>
+    <t>marko.l.blaslov@szgz.hr</t>
+  </si>
+  <si>
+    <t>racunovodstvo@szgz.hr</t>
+  </si>
+  <si>
+    <t>radovan.dunatov@grad-zadar.hr</t>
+  </si>
+  <si>
+    <t>snjezana.jurinic@grad-zadar.hr</t>
+  </si>
+  <si>
+    <t>Daria Sinovcic</t>
+  </si>
+  <si>
+    <t>Josip Miočić</t>
+  </si>
+  <si>
+    <t>Josip Vuković</t>
+  </si>
+  <si>
+    <t>Luka Peranić</t>
+  </si>
+  <si>
+    <t>Marko Lorenzo Blaslov</t>
+  </si>
+  <si>
+    <t>Ksenija Jerak</t>
+  </si>
+  <si>
+    <t>Radovan Dunatov</t>
+  </si>
+  <si>
+    <t>Snježana Jurinić</t>
+  </si>
+  <si>
+    <t>$2a$04$Ox25yfzv3y7.YkxhQmhR/O6hCHY5wMVNi5u6eU8YrdhzSfv2TckMq</t>
+  </si>
+  <si>
+    <t>$2a$04$B2OwyfLTe1bVT1jmrUiVS.UCaf0T.14owCbxHlV5r1j.Kt55WN5A.</t>
+  </si>
+  <si>
+    <t>$2a$04$uPLXVOIsgy7eMAn0fmlGbOW41OVf75/szFdfqmTQgxDF26XgX9QC2</t>
+  </si>
+  <si>
+    <t>$2a$04$jGZ0XyUyH6j0uEXMiwf86eFeD8TxCGyJX81LZuoFKPhNGlxjnlzye</t>
+  </si>
+  <si>
+    <t>$2a$04$86W.KpNgjolzLeGnbcxiVeTdHsJbm3viqkWGnDHEDxqIqVBOCgY5a</t>
+  </si>
+  <si>
+    <t>$2a$04$Us2OELxiX3z2xOGF2M4BFekoOtjFOYrkbTs1Zu9LdaTimJv9OdvIu</t>
+  </si>
+  <si>
+    <t>$2a$04$MSwz3wkZPM6D9k2JpNgIsO32JzKY143DAec4TI3A8tl31VSRnWhay</t>
+  </si>
+  <si>
+    <t>$2a$04$IJ/PICL5c/3cqz3tPtdQ3OlfLlmhVsX9gBkcip0Lgz2Jc0Sj4/sCq</t>
+  </si>
+  <si>
+    <t>daria.sinovcic</t>
+  </si>
+  <si>
+    <t>josip.miocic</t>
+  </si>
+  <si>
+    <t>josip.vukovic</t>
+  </si>
+  <si>
+    <t>luka.peranic</t>
+  </si>
+  <si>
+    <t>marko.l.blaslov</t>
+  </si>
+  <si>
+    <t>ksenija.jerak</t>
+  </si>
+  <si>
+    <t>radovan.dunatov</t>
+  </si>
+  <si>
+    <t>snjezana.jurinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROLE_ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROLE_USER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -6316,6 +6421,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -6465,13 +6585,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6575,8 +6696,11 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
@@ -6952,22 +7076,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>1797</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>1798</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E1" s="31" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1799</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>1802</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11083,19 +11207,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>1814</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>1815</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>1816</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -11939,16 +12063,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>1819</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>1821</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -11962,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F2" s="25" t="str">
         <f>"insert into diskobolos.question_choices_def(question_id, label, value, value_type) values ("&amp;A2&amp;", '"&amp;B2&amp;"','"&amp;LOWER(C2)&amp;"', '"&amp;D2&amp;"');"</f>
@@ -11980,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F3" s="25" t="str">
         <f t="shared" ref="F3:F66" si="0">"insert into diskobolos.question_choices_def(question_id, label, value, value_type) values ("&amp;A3&amp;", '"&amp;B3&amp;"','"&amp;LOWER(C3)&amp;"', '"&amp;D3&amp;"');"</f>
@@ -11998,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F4" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12016,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F5" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12034,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F6" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12052,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F7" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12070,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12088,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12106,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F10" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12124,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F11" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12142,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F12" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12160,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F13" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12178,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F14" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12196,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F15" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12214,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F16" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12232,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F17" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12250,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F18" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12268,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F19" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12286,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F20" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12304,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F21" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12322,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F22" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12340,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F23" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12358,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12376,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F25" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12394,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F26" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12412,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F27" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12430,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F28" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12448,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F29" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12466,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F30" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12484,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F31" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12502,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F32" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12520,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F33" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12538,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F34" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12556,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F35" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12574,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F36" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12592,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F37" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12610,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F38" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12628,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F39" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12646,7 +12770,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F40" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12664,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F41" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12682,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F42" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12700,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F43" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12718,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F44" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12736,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F45" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12754,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F46" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12772,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F47" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12790,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F48" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12808,7 +12932,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F49" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12826,7 +12950,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F50" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12844,7 +12968,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F51" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12856,13 +12980,13 @@
         <v>23</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C52" s="13">
         <v>5</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F52" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12880,7 +13004,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F53" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12898,7 +13022,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F54" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12916,7 +13040,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F55" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12934,7 +13058,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F56" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12946,13 +13070,13 @@
         <v>24</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C57" s="13">
         <v>5</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F57" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12970,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F58" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12988,7 +13112,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F59" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13006,7 +13130,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F60" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13024,7 +13148,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F61" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13036,13 +13160,13 @@
         <v>25</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C62" s="13">
         <v>5</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F62" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13060,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F63" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13078,7 +13202,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F64" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13096,7 +13220,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F65" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13114,7 +13238,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F66" s="25" t="str">
         <f t="shared" si="0"/>
@@ -13126,13 +13250,13 @@
         <v>26</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C67" s="13">
         <v>5</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F67" s="25" t="str">
         <f t="shared" ref="F67:F125" si="1">"insert into diskobolos.question_choices_def(question_id, label, value, value_type) values ("&amp;A67&amp;", '"&amp;B67&amp;"','"&amp;LOWER(C67)&amp;"', '"&amp;D67&amp;"');"</f>
@@ -13150,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F68" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13168,7 +13292,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F69" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13186,7 +13310,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F70" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13204,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F71" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13222,7 +13346,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F72" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13240,7 +13364,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F73" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13258,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F74" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13276,7 +13400,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F75" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13294,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F76" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13312,7 +13436,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F77" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13330,7 +13454,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F78" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13348,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F79" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13366,7 +13490,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F80" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13384,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F81" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13402,7 +13526,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F82" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13420,7 +13544,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F83" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13438,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F84" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13456,7 +13580,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F85" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13474,7 +13598,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F86" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13486,13 +13610,13 @@
         <v>34</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C87" s="13">
         <v>50</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F87" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13504,13 +13628,13 @@
         <v>34</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C88" s="13">
         <v>30</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F88" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13522,13 +13646,13 @@
         <v>34</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C89" s="13">
         <v>20</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F89" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13540,13 +13664,13 @@
         <v>34</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C90" s="13">
         <v>10</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F90" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13558,13 +13682,13 @@
         <v>34</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C91" s="13">
         <v>5</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F91" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13576,13 +13700,13 @@
         <v>35</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C92" s="13">
         <v>100</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F92" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13594,13 +13718,13 @@
         <v>35</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C93" s="13">
         <v>70</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F93" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13612,13 +13736,13 @@
         <v>36</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C94" s="13">
         <v>20</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F94" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13630,13 +13754,13 @@
         <v>36</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C95" s="13">
         <v>15</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F95" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13648,13 +13772,13 @@
         <v>36</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C96" s="13">
         <v>10</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F96" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13666,13 +13790,13 @@
         <v>36</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C97" s="13">
         <v>5</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F97" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13684,13 +13808,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C98" s="13">
         <v>100</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F98" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13702,13 +13826,13 @@
         <v>37</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C99" s="13">
         <v>80</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F99" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13720,13 +13844,13 @@
         <v>37</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C100" s="13">
         <v>60</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F100" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13738,13 +13862,13 @@
         <v>37</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C101" s="13">
         <v>40</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F101" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13756,13 +13880,13 @@
         <v>37</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C102" s="13">
         <v>20</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F102" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13774,13 +13898,13 @@
         <v>37</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C103" s="13">
         <v>10</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F103" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13792,13 +13916,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C104" s="13">
         <v>5</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F104" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13810,13 +13934,13 @@
         <v>38</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C105" s="13">
         <v>20</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F105" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13828,13 +13952,13 @@
         <v>38</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C106" s="13">
         <v>15</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F106" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13846,13 +13970,13 @@
         <v>38</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C107" s="13">
         <v>10</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F107" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13864,13 +13988,13 @@
         <v>39</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C108" s="13">
         <v>50</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F108" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13882,13 +14006,13 @@
         <v>39</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C109" s="13">
         <v>40</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F109" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13900,13 +14024,13 @@
         <v>39</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C110" s="13">
         <v>30</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F110" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13918,13 +14042,13 @@
         <v>39</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C111" s="13">
         <v>20</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F111" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13936,13 +14060,13 @@
         <v>39</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C112" s="13">
         <v>10</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F112" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13954,13 +14078,13 @@
         <v>39</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C113" s="13">
         <v>5</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F113" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13972,13 +14096,13 @@
         <v>40</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C114" s="13">
         <v>20</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F114" s="25" t="str">
         <f t="shared" si="1"/>
@@ -13990,13 +14114,13 @@
         <v>40</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C115" s="13">
         <v>15</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F115" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14008,13 +14132,13 @@
         <v>40</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C116" s="13">
         <v>10</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F116" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14026,13 +14150,13 @@
         <v>40</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C117" s="13">
         <v>5</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F117" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14044,13 +14168,13 @@
         <v>40</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C118" s="13">
         <v>0</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F118" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14062,13 +14186,13 @@
         <v>41</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C119" s="13">
         <v>30</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F119" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14080,13 +14204,13 @@
         <v>41</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C120" s="13">
         <v>20</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F120" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14098,13 +14222,13 @@
         <v>41</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C121" s="13">
         <v>10</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F121" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14116,13 +14240,13 @@
         <v>42</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C122" s="13">
         <v>50</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F122" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14134,13 +14258,13 @@
         <v>42</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C123" s="13">
         <v>30</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F123" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14152,13 +14276,13 @@
         <v>42</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C124" s="13">
         <v>20</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F124" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14170,13 +14294,13 @@
         <v>42</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C125" s="13">
         <v>10</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F125" s="25" t="str">
         <f t="shared" si="1"/>
@@ -14191,20 +14315,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1786</v>
       </c>
@@ -14217,8 +14342,14 @@
       <c r="D1" s="30" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1789</v>
       </c>
@@ -14231,30 +14362,237 @@
       <c r="D2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="25" t="str">
-        <f>"insert into diskobolos.users(username, password, email, enabled) values ('"&amp;A2&amp;"', '"&amp;B2&amp;"',  '"&amp;C2&amp;"',  "&amp;D2&amp;");"</f>
-        <v>insert into diskobolos.users(username, password, email, enabled) values ('test', '$2a$04$PGghSlPUBJtDCs8pMXrj0OAbJN3deO1FVUKcgheGuyQgnMN65lx5m',  'test@gmail.com',  TRUE);</v>
+      <c r="E2" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F2" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="str">
+        <f>"insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('"&amp;A2&amp;"', '"&amp;B2&amp;"',  '"&amp;C2&amp;"',  "&amp;D2&amp;", '"&amp;E2&amp;"', "&amp;F2&amp;");"</f>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('test', '$2a$04$PGghSlPUBJtDCs8pMXrj0OAbJN3deO1FVUKcgheGuyQgnMN65lx5m',  'test@gmail.com',  TRUE, 'Test User', FALSE);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F3" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25" t="str">
+        <f t="shared" ref="H3:H10" si="0">"insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('"&amp;A3&amp;"', '"&amp;B3&amp;"',  '"&amp;C3&amp;"',  "&amp;D3&amp;", '"&amp;E3&amp;"', "&amp;F3&amp;");"</f>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('daria.sinovcic', '$2a$04$Ox25yfzv3y7.YkxhQmhR/O6hCHY5wMVNi5u6eU8YrdhzSfv2TckMq',  'daria.sinovcic@hotmail.com',  TRUE, 'Daria Sinovcic', FALSE);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F4" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('josip.miocic', '$2a$04$B2OwyfLTe1bVT1jmrUiVS.UCaf0T.14owCbxHlV5r1j.Kt55WN5A.',  'glavni.tajnik@szgz.hr',  TRUE, 'Josip Miočić', FALSE);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('josip.vukovic', '$2a$04$uPLXVOIsgy7eMAn0fmlGbOW41OVf75/szFdfqmTQgxDF26XgX9QC2',  'josip.vukovic@szgz.hr',  TRUE, 'Josip Vuković', FALSE);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('luka.peranic', '$2a$04$jGZ0XyUyH6j0uEXMiwf86eFeD8TxCGyJX81LZuoFKPhNGlxjnlzye',  'luka.peranic@grad-zadar.hr',  TRUE, 'Luka Peranić', FALSE);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F7" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('marko.l.blaslov', '$2a$04$86W.KpNgjolzLeGnbcxiVeTdHsJbm3viqkWGnDHEDxqIqVBOCgY5a',  'marko.l.blaslov@szgz.hr',  TRUE, 'Marko Lorenzo Blaslov', FALSE);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('ksenija.jerak', '$2a$04$Us2OELxiX3z2xOGF2M4BFekoOtjFOYrkbTs1Zu9LdaTimJv9OdvIu',  'racunovodstvo@szgz.hr',  TRUE, 'Ksenija Jerak', FALSE);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F9" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('radovan.dunatov', '$2a$04$MSwz3wkZPM6D9k2JpNgIsO32JzKY143DAec4TI3A8tl31VSRnWhay',  'radovan.dunatov@grad-zadar.hr',  TRUE, 'Radovan Dunatov', FALSE);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.users(username, password, email, enabled, fullname, account_locked) values ('snjezana.jurinic', '$2a$04$IJ/PICL5c/3cqz3tPtdQ3OlfLlmhVsX9gBkcip0Lgz2Jc0Sj4/sCq',  'snjezana.jurinic@grad-zadar.hr',  TRUE, 'Snježana Jurinić', FALSE);</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14266,37 +14604,157 @@
         <v>1793</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
+        <v>2000</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1998</v>
       </c>
       <c r="C2" s="13">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E2" s="25" t="str">
-        <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A2&amp;"',  "&amp;B2&amp;", "&amp;C2&amp;");"</f>
-        <v>insert into diskobolos.authorities(role, user_id, permission_level) values ('ROLE_USER',  1, 2);</v>
+        <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A2&amp;"',  (select id from diskobolos.users where username='"&amp;B2&amp;"'), "&amp;C2&amp;");"</f>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_ADMIN',  (select id from diskobolos.users where username='radovan.dunatov'), 100);</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
+        <v>2001</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1789</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" s="25" t="str">
-        <f>"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A3&amp;"',  "&amp;B3&amp;", "&amp;C3&amp;");"</f>
-        <v>insert into diskobolos.authorities(role, user_id, permission_level) values ('ROLE_ADMIN',  1, 0);</v>
+        <f t="shared" ref="E3:E11" si="0">"insert into diskobolos.authorities(role, user_id, permission_level) values ('"&amp;A3&amp;"',  (select id from diskobolos.users where username='"&amp;B3&amp;"'), "&amp;C3&amp;");"</f>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_USER',  (select id from diskobolos.users where username='test'), 50);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C4" s="13">
+        <v>100</v>
+      </c>
+      <c r="E4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_ADMIN',  (select id from diskobolos.users where username='test'), 100);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C5" s="13">
+        <v>50</v>
+      </c>
+      <c r="E5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_USER',  (select id from diskobolos.users where username='luka.peranic'), 50);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C6" s="13">
+        <v>50</v>
+      </c>
+      <c r="E6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_USER',  (select id from diskobolos.users where username='daria.sinovcic'), 50);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C7" s="13">
+        <v>50</v>
+      </c>
+      <c r="E7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_USER',  (select id from diskobolos.users where username='josip.vukovic'), 50);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C8" s="13">
+        <v>50</v>
+      </c>
+      <c r="E8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_USER',  (select id from diskobolos.users where username='marko.l.blaslov'), 50);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C9" s="13">
+        <v>50</v>
+      </c>
+      <c r="E9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_USER',  (select id from diskobolos.users where username='ksenija.jerak'), 50);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C10" s="13">
+        <v>100</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_ADMIN',  (select id from diskobolos.users where username='josip.miocic'), 100);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="13">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_ADMIN',  (select id from diskobolos.users where username='snjezana.jurinic'), 100);</v>
       </c>
     </row>
   </sheetData>
@@ -14323,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -14331,7 +14789,7 @@
         <v>1673</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>"insert into membership_category (description, html_color) values ( '"&amp;A2&amp;"', '"&amp;B2&amp;"');"</f>
@@ -14343,7 +14801,7 @@
         <v>1674</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D11" si="0">"insert into membership_category (description, html_color) values ( '"&amp;A3&amp;"', '"&amp;B3&amp;"');"</f>
@@ -14355,7 +14813,7 @@
         <v>1675</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14367,7 +14825,7 @@
         <v>1676</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14379,7 +14837,7 @@
         <v>1677</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14391,7 +14849,7 @@
         <v>1678</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14403,7 +14861,7 @@
         <v>1679</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14415,7 +14873,7 @@
         <v>1680</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14427,7 +14885,7 @@
         <v>1681</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14439,7 +14897,7 @@
         <v>1682</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -14511,7 +14969,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -15605,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15653,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15697,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15745,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15793,7 +16251,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="P28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15837,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15883,7 +16341,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="P30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15931,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="P31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15979,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="P32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16027,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="P33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16075,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="P34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16123,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="P35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16171,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="P36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16219,7 +16677,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="P37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16257,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="P38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16305,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="P39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16349,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16397,7 +16855,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="P41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16439,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="P42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16487,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="P43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16535,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="P44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16581,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16629,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="P46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16677,7 +17135,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="P47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16725,7 +17183,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16773,7 +17231,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16819,7 +17277,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="40" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="P50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16867,7 +17325,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="P51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16915,7 +17373,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="37" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="P52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16963,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="P53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17011,7 +17469,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17059,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="P55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17107,7 +17565,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="P56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17151,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17199,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="P58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17247,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="P59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17343,7 +17801,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17391,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17435,7 +17893,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17483,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17527,7 +17985,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17575,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17621,7 +18079,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P67" s="3" t="str">
         <f t="shared" ref="P67:P130" si="1">"insert into diskobolos.member_register (name, location_id, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category, sport_category) values ('"&amp;B67&amp;"',  "&amp;C67&amp;",'"&amp;D67&amp;"', '"&amp;E67&amp;"','"&amp;F67&amp;"', '"&amp;G67&amp;"', '"&amp;H67&amp;"', '"&amp;I67&amp;"',to_date(NULLIF('"&amp;IF(J67="","",J67)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(K67="","",K67)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(L67="","",L67)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;M67&amp;"', (select id from diskobolos.sport where name = '"&amp;N67&amp;"'));"</f>
@@ -17669,7 +18127,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="37" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="P68" s="3" t="str">
         <f t="shared" si="1"/>
@@ -17713,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="P69" s="3" t="str">
         <f t="shared" si="1"/>
@@ -17761,7 +18219,7 @@
         <v>1</v>
       </c>
       <c r="N70" s="37" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="P70" s="3" t="str">
         <f t="shared" si="1"/>
@@ -17809,7 +18267,7 @@
         <v>1</v>
       </c>
       <c r="N71" s="37" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="P71" s="3" t="str">
         <f t="shared" si="1"/>
@@ -17857,7 +18315,7 @@
         <v>1</v>
       </c>
       <c r="N72" s="40" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="P72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -17905,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="N73" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -17941,7 +18399,7 @@
         <v>1</v>
       </c>
       <c r="N74" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18037,7 +18495,7 @@
         <v>1</v>
       </c>
       <c r="N76" s="37" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="P76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18085,7 +18543,7 @@
         <v>1</v>
       </c>
       <c r="N77" s="40" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="P77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18133,7 +18591,7 @@
         <v>1</v>
       </c>
       <c r="N78" s="37" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="P78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18179,7 +18637,7 @@
         <v>1</v>
       </c>
       <c r="N79" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18225,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="N80" s="37" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="P80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18273,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="N81" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="P81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18321,7 +18779,7 @@
         <v>1</v>
       </c>
       <c r="N82" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="P82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18369,7 +18827,7 @@
         <v>1</v>
       </c>
       <c r="N83" s="37" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="P83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18415,7 +18873,7 @@
         <v>1</v>
       </c>
       <c r="N84" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18463,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="N85" s="37" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="P85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18511,7 +18969,7 @@
         <v>1</v>
       </c>
       <c r="N86" s="37" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="P86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18607,7 +19065,7 @@
         <v>1</v>
       </c>
       <c r="N88" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18655,7 +19113,7 @@
         <v>1</v>
       </c>
       <c r="N89" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18703,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="N90" s="40" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="P90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18747,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="N91" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18793,7 +19251,7 @@
         <v>1</v>
       </c>
       <c r="N92" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P92" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18841,7 +19299,7 @@
         <v>1</v>
       </c>
       <c r="N93" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P93" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18923,7 +19381,7 @@
         <v>1</v>
       </c>
       <c r="N95" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="P95" s="3" t="str">
         <f t="shared" si="1"/>
@@ -18971,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="N96" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P96" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19019,7 +19477,7 @@
         <v>1</v>
       </c>
       <c r="N97" s="40" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="P97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19061,7 +19519,7 @@
         <v>1</v>
       </c>
       <c r="N98" s="40" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="P98" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19109,7 +19567,7 @@
         <v>1</v>
       </c>
       <c r="N99" s="37" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="P99" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19157,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="N100" s="37" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="P100" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19205,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="N101" s="40" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="P101" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19299,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="N103" s="37" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="P103" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19347,7 +19805,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="40" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="P104" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19395,7 +19853,7 @@
         <v>1</v>
       </c>
       <c r="N105" s="37" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="P105" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19439,7 +19897,7 @@
         <v>1</v>
       </c>
       <c r="N106" s="40" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="P106" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19485,7 +19943,7 @@
         <v>1</v>
       </c>
       <c r="N107" s="40" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="P107" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19533,7 +19991,7 @@
         <v>1</v>
       </c>
       <c r="N108" s="40" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="P108" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19579,7 +20037,7 @@
         <v>1</v>
       </c>
       <c r="N109" s="37" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="P109" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19625,7 +20083,7 @@
         <v>1</v>
       </c>
       <c r="N110" s="37" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="P110" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19673,7 +20131,7 @@
         <v>1</v>
       </c>
       <c r="N111" s="37" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="P111" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19721,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="N112" s="40" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="P112" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19769,7 +20227,7 @@
         <v>1</v>
       </c>
       <c r="N113" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P113" s="3" t="str">
         <f t="shared" si="1"/>
@@ -19861,7 +20319,7 @@
         <v>1</v>
       </c>
       <c r="N115" s="37" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="P115" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20235,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="N123" s="37" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="P123" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20283,7 +20741,7 @@
         <v>1</v>
       </c>
       <c r="N124" s="37" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="P124" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20379,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="N126" s="37" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="P126" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20427,7 +20885,7 @@
         <v>1</v>
       </c>
       <c r="N127" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P127" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20469,7 +20927,7 @@
         <v>1</v>
       </c>
       <c r="N128" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P128" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20515,7 +20973,7 @@
         <v>1</v>
       </c>
       <c r="N129" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P129" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20559,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="N130" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P130" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20603,7 +21061,7 @@
         <v>1</v>
       </c>
       <c r="N131" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P131" s="3" t="str">
         <f t="shared" ref="P131:P160" si="2">"insert into diskobolos.member_register (name, location_id, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category, sport_category) values ('"&amp;B131&amp;"',  "&amp;C131&amp;",'"&amp;D131&amp;"', '"&amp;E131&amp;"','"&amp;F131&amp;"', '"&amp;G131&amp;"', '"&amp;H131&amp;"', '"&amp;I131&amp;"',to_date(NULLIF('"&amp;IF(J131="","",J131)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(K131="","",K131)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(L131="","",L131)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;M131&amp;"', (select id from diskobolos.sport where name = '"&amp;N131&amp;"'));"</f>
@@ -20651,7 +21109,7 @@
         <v>1</v>
       </c>
       <c r="N132" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P132" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20693,7 +21151,7 @@
         <v>1</v>
       </c>
       <c r="N133" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P133" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20741,7 +21199,7 @@
         <v>1</v>
       </c>
       <c r="N134" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P134" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20787,7 +21245,7 @@
         <v>1</v>
       </c>
       <c r="N135" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P135" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20835,7 +21293,7 @@
         <v>1</v>
       </c>
       <c r="N136" s="40" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P136" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20883,7 +21341,7 @@
         <v>1</v>
       </c>
       <c r="N137" s="40" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P137" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20931,7 +21389,7 @@
         <v>1</v>
       </c>
       <c r="N138" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="P138" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21027,7 +21485,7 @@
         <v>1</v>
       </c>
       <c r="N140" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P140" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21075,7 +21533,7 @@
         <v>1</v>
       </c>
       <c r="N141" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P141" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21123,7 +21581,7 @@
         <v>1</v>
       </c>
       <c r="N142" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P142" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21171,7 +21629,7 @@
         <v>1</v>
       </c>
       <c r="N143" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P143" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21219,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="N144" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P144" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21265,7 +21723,7 @@
         <v>1</v>
       </c>
       <c r="N145" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P145" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21313,7 +21771,7 @@
         <v>1</v>
       </c>
       <c r="N146" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P146" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21361,7 +21819,7 @@
         <v>1</v>
       </c>
       <c r="N147" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P147" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21409,7 +21867,7 @@
         <v>1</v>
       </c>
       <c r="N148" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P148" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21457,7 +21915,7 @@
         <v>1</v>
       </c>
       <c r="N149" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P149" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21505,7 +21963,7 @@
         <v>1</v>
       </c>
       <c r="N150" s="40" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="P150" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21553,7 +22011,7 @@
         <v>1</v>
       </c>
       <c r="N151" s="40" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="P151" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21649,7 +22107,7 @@
         <v>1</v>
       </c>
       <c r="N153" s="37" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="P153" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21743,7 +22201,7 @@
         <v>1</v>
       </c>
       <c r="N155" s="37" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="P155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21839,7 +22297,7 @@
         <v>1</v>
       </c>
       <c r="N157" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="P157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21885,7 +22343,7 @@
         <v>1</v>
       </c>
       <c r="N158" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="P158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21933,7 +22391,7 @@
         <v>1</v>
       </c>
       <c r="N159" s="40" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="P159" s="3" t="str">
         <f t="shared" si="2"/>
@@ -21979,7 +22437,7 @@
         <v>1</v>
       </c>
       <c r="N160" s="40" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="P160" s="3" t="str">
         <f t="shared" si="2"/>
@@ -22064,7 +22522,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -23291,7 +23749,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="S24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23346,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23397,7 +23855,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23452,7 +23910,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23507,7 +23965,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23558,7 +24016,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23611,7 +24069,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="S30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23666,7 +24124,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23721,7 +24179,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="S32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23776,7 +24234,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="S33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23831,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="S34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23886,7 +24344,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="S35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23939,7 +24397,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="S36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -23994,7 +24452,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="S37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24039,7 +24497,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="S38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24094,7 +24552,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="S39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24145,7 +24603,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24200,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="S41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24249,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="S42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24304,7 +24762,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="S43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24357,7 +24815,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="S44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24410,7 +24868,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24465,7 +24923,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="S46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24520,7 +24978,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="S47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24573,7 +25031,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24626,7 +25084,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24679,7 +25137,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="40" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="S50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24734,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="S51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24785,7 +25243,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="S52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24840,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="37" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="S53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24891,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24946,7 +25404,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="37" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="S55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25001,7 +25459,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="37" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="S56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25052,7 +25510,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25107,7 +25565,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25162,7 +25620,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="37" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="S59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25266,7 +25724,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25321,7 +25779,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25372,7 +25830,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25427,7 +25885,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25478,7 +25936,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25529,7 +25987,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25580,7 +26038,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S67" s="3" t="str">
         <f t="shared" ref="S67:S130" si="1">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category, sport_category) values ('"&amp;B67&amp;"',  "&amp;C67&amp;", '"&amp;D67&amp;"','"&amp;E67&amp;"','"&amp;F67&amp;"','"&amp;G67&amp;"', '"&amp;H67&amp;"','"&amp;I67&amp;"', '"&amp;J67&amp;"', '"&amp;K67&amp;"', '"&amp;L67&amp;"',to_date(NULLIF('"&amp;IF(M67="","",M67)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N67="","",N67)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O67="","",O67)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P67&amp;"', (select id from diskobolos.sport where name = '"&amp;Q67&amp;"'));"</f>
@@ -25631,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="37" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="S68" s="3" t="str">
         <f t="shared" si="1"/>
@@ -25680,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="37" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="S69" s="3" t="str">
         <f t="shared" si="1"/>
@@ -25735,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="37" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="S70" s="3" t="str">
         <f t="shared" si="1"/>
@@ -25790,7 +26248,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="37" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="S71" s="3" t="str">
         <f t="shared" si="1"/>
@@ -25845,7 +26303,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="40" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="S72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -25900,7 +26358,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -25939,7 +26397,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26049,7 +26507,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="37" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26102,7 +26560,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26157,7 +26615,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="37" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="S78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26208,7 +26666,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26261,7 +26719,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="37" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="S80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26316,7 +26774,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="S81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26371,7 +26829,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="S82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26426,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="37" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="S83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26479,7 +26937,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26534,7 +26992,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="37" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="S85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26587,7 +27045,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="37" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="S86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26695,7 +27153,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26750,7 +27208,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26801,7 +27259,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="40" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="S90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26848,7 +27306,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26899,7 +27357,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S92" s="3" t="str">
         <f t="shared" si="1"/>
@@ -26954,7 +27412,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S93" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27048,7 +27506,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="S95" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27103,7 +27561,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S96" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27158,7 +27616,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="40" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="S97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27203,7 +27661,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="40" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="S98" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27254,7 +27712,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="37" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="S99" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27307,7 +27765,7 @@
         <v>1</v>
       </c>
       <c r="Q100" s="37" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="S100" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27358,7 +27816,7 @@
         <v>1</v>
       </c>
       <c r="Q101" s="40" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="S101" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27462,7 +27920,7 @@
         <v>1</v>
       </c>
       <c r="Q103" s="37" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="S103" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27517,7 +27975,7 @@
         <v>1</v>
       </c>
       <c r="Q104" s="40" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="S104" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27572,7 +28030,7 @@
         <v>1</v>
       </c>
       <c r="Q105" s="37" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="S105" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27623,7 +28081,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="40" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="S106" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27672,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="40" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="S107" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27725,7 +28183,7 @@
         <v>1</v>
       </c>
       <c r="Q108" s="40" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="S108" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27774,7 +28232,7 @@
         <v>1</v>
       </c>
       <c r="Q109" s="37" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="S109" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27827,7 +28285,7 @@
         <v>1</v>
       </c>
       <c r="Q110" s="37" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="S110" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27882,7 +28340,7 @@
         <v>1</v>
       </c>
       <c r="Q111" s="37" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="S111" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27937,7 +28395,7 @@
         <v>1</v>
       </c>
       <c r="Q112" s="40" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="S112" s="3" t="str">
         <f t="shared" si="1"/>
@@ -27992,7 +28450,7 @@
         <v>1</v>
       </c>
       <c r="Q113" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S113" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28098,7 +28556,7 @@
         <v>1</v>
       </c>
       <c r="Q115" s="37" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="S115" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28522,7 +28980,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="37" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="S123" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28577,7 +29035,7 @@
         <v>1</v>
       </c>
       <c r="Q124" s="37" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="S124" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28683,7 +29141,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="37" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="S126" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28736,7 +29194,7 @@
         <v>1</v>
       </c>
       <c r="Q127" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S127" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28783,7 +29241,7 @@
         <v>1</v>
       </c>
       <c r="Q128" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S128" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28834,7 +29292,7 @@
         <v>1</v>
       </c>
       <c r="Q129" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S129" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28883,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S130" s="3" t="str">
         <f t="shared" si="1"/>
@@ -28932,7 +29390,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S131" s="3" t="str">
         <f t="shared" ref="S131:S160" si="2">"insert into diskobolos.member_register (name, location_id, phone1, phone2, fax, identification_number, oib, register_number"&amp;", number_of_non_profit_org, chairman, secretary, date_from, date_to, registration_date, membership_category, sport_category) values ('"&amp;B131&amp;"',  "&amp;C131&amp;", '"&amp;D131&amp;"','"&amp;E131&amp;"','"&amp;F131&amp;"','"&amp;G131&amp;"', '"&amp;H131&amp;"','"&amp;I131&amp;"', '"&amp;J131&amp;"', '"&amp;K131&amp;"', '"&amp;L131&amp;"',to_date(NULLIF('"&amp;IF(M131="","",M131)&amp;"', ''),  'DD.MM.YYYY' ),to_date(NULLIF('"&amp;IF(N131="","",N131)&amp;"', ''),  'DD.MM.YYYY' ), to_date(NULLIF('"&amp;IF(O131="","",O131)&amp;"', ''),  'DD.MM.YYYY' ), '"&amp;P131&amp;"', (select id from diskobolos.sport where name = '"&amp;Q131&amp;"'));"</f>
@@ -28987,7 +29445,7 @@
         <v>1</v>
       </c>
       <c r="Q132" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S132" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29038,7 +29496,7 @@
         <v>1</v>
       </c>
       <c r="Q133" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S133" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29093,7 +29551,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S134" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29146,7 +29604,7 @@
         <v>1</v>
       </c>
       <c r="Q135" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S135" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29199,7 +29657,7 @@
         <v>1</v>
       </c>
       <c r="Q136" s="40" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S136" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29252,7 +29710,7 @@
         <v>1</v>
       </c>
       <c r="Q137" s="40" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S137" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29307,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="Q138" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="S138" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29413,7 +29871,7 @@
         <v>1</v>
       </c>
       <c r="Q140" s="37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S140" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29468,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="Q141" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S141" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29523,7 +29981,7 @@
         <v>1</v>
       </c>
       <c r="Q142" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S142" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29578,7 +30036,7 @@
         <v>1</v>
       </c>
       <c r="Q143" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S143" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29631,7 +30089,7 @@
         <v>1</v>
       </c>
       <c r="Q144" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S144" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29682,7 +30140,7 @@
         <v>1</v>
       </c>
       <c r="Q145" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S145" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29737,7 +30195,7 @@
         <v>1</v>
       </c>
       <c r="Q146" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S146" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29790,7 +30248,7 @@
         <v>1</v>
       </c>
       <c r="Q147" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S147" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29845,7 +30303,7 @@
         <v>1</v>
       </c>
       <c r="Q148" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S148" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29900,7 +30358,7 @@
         <v>1</v>
       </c>
       <c r="Q149" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S149" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29955,7 +30413,7 @@
         <v>1</v>
       </c>
       <c r="Q150" s="40" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="S150" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30008,7 +30466,7 @@
         <v>1</v>
       </c>
       <c r="Q151" s="40" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="S151" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30116,7 +30574,7 @@
         <v>1</v>
       </c>
       <c r="Q153" s="37" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S153" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30224,7 +30682,7 @@
         <v>1</v>
       </c>
       <c r="Q155" s="37" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="S155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30334,7 +30792,7 @@
         <v>1</v>
       </c>
       <c r="Q157" s="40" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="S157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30385,7 +30843,7 @@
         <v>1</v>
       </c>
       <c r="Q158" s="37" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30438,7 +30896,7 @@
         <v>1</v>
       </c>
       <c r="Q159" s="40" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="S159" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30489,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="Q160" s="40" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S160" s="3" t="str">
         <f t="shared" si="2"/>
@@ -30509,7 +30967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30518,12 +30976,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -30533,7 +30991,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
   </sheetData>
@@ -30559,10 +31017,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>1655</v>
@@ -30570,7 +31028,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -30600,7 +31058,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>27</v>
@@ -30630,7 +31088,7 @@
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>46</v>
@@ -30660,7 +31118,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>57</v>
@@ -30690,7 +31148,7 @@
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>68</v>
@@ -30720,7 +31178,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>98</v>
@@ -30735,7 +31193,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>109</v>
@@ -30765,7 +31223,7 @@
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>121</v>
@@ -30780,7 +31238,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>121</v>
@@ -30795,7 +31253,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>162</v>
@@ -30825,7 +31283,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>174</v>
@@ -30855,7 +31313,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>184</v>
@@ -30885,7 +31343,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>194</v>
@@ -30915,7 +31373,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>204</v>
@@ -30945,7 +31403,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>220</v>
@@ -30960,7 +31418,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>230</v>
@@ -30990,7 +31448,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>241</v>
@@ -31020,7 +31478,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>250</v>
@@ -31050,7 +31508,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>261</v>
@@ -31080,7 +31538,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>271</v>
@@ -31110,7 +31568,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>280</v>
@@ -31140,7 +31598,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>290</v>
@@ -31170,7 +31628,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>302</v>
@@ -31200,7 +31658,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>312</v>
@@ -31230,7 +31688,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>322</v>
@@ -31260,7 +31718,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>333</v>
@@ -31290,7 +31748,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>342</v>
@@ -31320,7 +31778,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>352</v>
@@ -31350,7 +31808,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>363</v>
@@ -31365,7 +31823,7 @@
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>374</v>
@@ -31395,7 +31853,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>386</v>
@@ -31425,7 +31883,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>396</v>
@@ -31455,7 +31913,7 @@
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>396</v>
@@ -31485,7 +31943,7 @@
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>414</v>
@@ -31515,7 +31973,7 @@
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>423</v>
@@ -31545,7 +32003,7 @@
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>435</v>
@@ -31575,7 +32033,7 @@
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>444</v>
@@ -31590,7 +32048,7 @@
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>454</v>
@@ -31620,7 +32078,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>466</v>
@@ -31650,7 +32108,7 @@
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>476</v>
@@ -31680,7 +32138,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>487</v>
@@ -31695,7 +32153,7 @@
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>497</v>
@@ -31710,7 +32168,7 @@
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>508</v>
@@ -31740,7 +32198,7 @@
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>519</v>
@@ -31755,7 +32213,7 @@
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>529</v>
@@ -31785,7 +32243,7 @@
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>550</v>
@@ -31815,7 +32273,7 @@
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>570</v>
@@ -31845,7 +32303,7 @@
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>580</v>
@@ -31875,7 +32333,7 @@
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>591</v>
@@ -31905,7 +32363,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>1644</v>
@@ -31920,7 +32378,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>1643</v>
@@ -31935,7 +32393,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>610</v>
@@ -31980,7 +32438,7 @@
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>497</v>
@@ -32010,7 +32468,7 @@
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>642</v>
@@ -32040,7 +32498,7 @@
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>653</v>
@@ -32070,7 +32528,7 @@
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>664</v>
@@ -32100,7 +32558,7 @@
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>683</v>
@@ -32115,7 +32573,7 @@
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>702</v>
@@ -32130,7 +32588,7 @@
     </row>
     <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>925</v>
@@ -32160,7 +32618,7 @@
     </row>
     <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>875</v>
@@ -32190,7 +32648,7 @@
     </row>
     <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>948</v>
@@ -32220,7 +32678,7 @@
     </row>
     <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>959</v>
@@ -32250,7 +32708,7 @@
     </row>
     <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>974</v>
@@ -32280,7 +32738,7 @@
     </row>
     <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>986</v>
@@ -32310,7 +32768,7 @@
     </row>
     <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>712</v>
@@ -32325,7 +32783,7 @@
     </row>
     <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>723</v>
@@ -32355,7 +32813,7 @@
     </row>
     <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>734</v>
@@ -32370,7 +32828,7 @@
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>744</v>
@@ -32400,7 +32858,7 @@
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>755</v>
@@ -32430,7 +32888,7 @@
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>766</v>
@@ -32460,7 +32918,7 @@
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>766</v>
@@ -32490,7 +32948,7 @@
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>786</v>
@@ -32520,7 +32978,7 @@
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>795</v>
@@ -32550,7 +33008,7 @@
     </row>
     <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>806</v>
@@ -32565,7 +33023,7 @@
     </row>
     <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>806</v>
@@ -32580,7 +33038,7 @@
     </row>
     <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>823</v>
@@ -32610,7 +33068,7 @@
     </row>
     <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>834</v>
@@ -32640,7 +33098,7 @@
     </row>
     <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>864</v>
@@ -32655,7 +33113,7 @@
     </row>
     <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>874</v>
@@ -32685,7 +33143,7 @@
     </row>
     <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>886</v>
@@ -32700,7 +33158,7 @@
     </row>
     <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>894</v>
@@ -32730,7 +33188,7 @@
     </row>
     <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>902</v>
@@ -32760,7 +33218,7 @@
     </row>
     <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>914</v>
@@ -32790,7 +33248,7 @@
     </row>
     <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>1013</v>
@@ -32805,7 +33263,7 @@
     </row>
     <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>162</v>
@@ -32835,7 +33293,7 @@
     </row>
     <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>744</v>
@@ -32865,7 +33323,7 @@
     </row>
     <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>1122</v>
@@ -32895,7 +33353,7 @@
     </row>
     <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>1133</v>
@@ -32925,7 +33383,7 @@
     </row>
     <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>1153</v>
@@ -32940,7 +33398,7 @@
     </row>
     <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>1170</v>
@@ -32970,7 +33428,7 @@
     </row>
     <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>1180</v>
@@ -33000,7 +33458,7 @@
     </row>
     <row r="164" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>1062</v>
@@ -33030,7 +33488,7 @@
     </row>
     <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>1071</v>
@@ -33060,7 +33518,7 @@
     </row>
     <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>1082</v>
@@ -33090,7 +33548,7 @@
     </row>
     <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>1093</v>
@@ -33120,7 +33578,7 @@
     </row>
     <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>414</v>
@@ -33150,7 +33608,7 @@
     </row>
     <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>414</v>
@@ -33180,7 +33638,7 @@
     </row>
     <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>414</v>
@@ -33210,7 +33668,7 @@
     </row>
     <row r="178" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>414</v>
@@ -33240,7 +33698,7 @@
     </row>
     <row r="180" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>414</v>
@@ -33270,7 +33728,7 @@
     </row>
     <row r="182" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>414</v>
@@ -33300,7 +33758,7 @@
     </row>
     <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>1230</v>
@@ -33315,7 +33773,7 @@
     </row>
     <row r="185" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>1240</v>
@@ -33345,7 +33803,7 @@
     </row>
     <row r="187" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>1250</v>
@@ -33375,7 +33833,7 @@
     </row>
     <row r="189" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>1270</v>
@@ -33405,7 +33863,7 @@
     </row>
     <row r="191" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>1281</v>
@@ -33435,7 +33893,7 @@
     </row>
     <row r="193" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>1290</v>
@@ -33450,7 +33908,7 @@
     </row>
     <row r="194" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>1300</v>
@@ -33465,7 +33923,7 @@
     </row>
     <row r="195" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>1310</v>
@@ -33480,7 +33938,7 @@
     </row>
     <row r="196" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>1319</v>
@@ -33510,7 +33968,7 @@
     </row>
     <row r="198" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>1645</v>
@@ -33525,7 +33983,7 @@
     </row>
     <row r="199" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>1646</v>
@@ -33555,7 +34013,7 @@
     </row>
     <row r="201" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>1341</v>
@@ -33585,7 +34043,7 @@
     </row>
     <row r="203" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>1353</v>
@@ -33615,7 +34073,7 @@
     </row>
     <row r="205" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>1362</v>
@@ -33630,7 +34088,7 @@
     </row>
     <row r="206" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>1373</v>
@@ -33645,7 +34103,7 @@
     </row>
     <row r="207" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>1647</v>
@@ -33660,7 +34118,7 @@
     </row>
     <row r="208" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>1648</v>
@@ -33675,7 +34133,7 @@
     </row>
     <row r="209" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>1394</v>
@@ -33690,7 +34148,7 @@
     </row>
     <row r="210" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>1405</v>
@@ -33705,7 +34163,7 @@
     </row>
     <row r="211" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>1415</v>
@@ -33735,7 +34193,7 @@
     </row>
     <row r="213" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>1427</v>
@@ -33765,7 +34223,7 @@
     </row>
     <row r="215" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>1488</v>
@@ -33795,7 +34253,7 @@
     </row>
     <row r="217" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>1498</v>
@@ -33810,7 +34268,7 @@
     </row>
     <row r="218" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>1509</v>
@@ -33825,7 +34283,7 @@
     </row>
     <row r="219" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>1519</v>
@@ -33855,7 +34313,7 @@
     </row>
     <row r="221" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>1530</v>
@@ -33870,7 +34328,7 @@
     </row>
     <row r="222" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>1651</v>
@@ -33885,7 +34343,7 @@
     </row>
     <row r="223" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>1652</v>
@@ -33900,7 +34358,7 @@
     </row>
     <row r="224" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>1653</v>
@@ -33915,7 +34373,7 @@
     </row>
     <row r="225" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>1654</v>
@@ -33930,7 +34388,7 @@
     </row>
     <row r="226" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>1560</v>
@@ -33960,7 +34418,7 @@
     </row>
     <row r="228" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>1572</v>
@@ -33975,7 +34433,7 @@
     </row>
     <row r="229" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>1438</v>
@@ -33990,7 +34448,7 @@
     </row>
     <row r="230" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>1649</v>
@@ -34005,7 +34463,7 @@
     </row>
     <row r="231" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>1650</v>
@@ -34020,7 +34478,7 @@
     </row>
     <row r="232" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>414</v>
@@ -34050,7 +34508,7 @@
     </row>
     <row r="234" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>1469</v>
@@ -34080,7 +34538,7 @@
     </row>
     <row r="236" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>204</v>
@@ -34110,7 +34568,7 @@
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>1330</v>
@@ -34140,7 +34598,7 @@
     </row>
     <row r="240" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>1583</v>
@@ -34155,7 +34613,7 @@
     </row>
     <row r="241" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>1593</v>
@@ -34170,7 +34628,7 @@
     </row>
     <row r="242" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>1603</v>
@@ -39541,7 +39999,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C20" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39550,7 +40008,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C21" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39559,7 +40017,7 @@
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C22" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39568,7 +40026,7 @@
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C23" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39577,7 +40035,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C24" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39586,7 +40044,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="C25" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39595,7 +40053,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C26" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39604,7 +40062,7 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39613,7 +40071,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39622,7 +40080,7 @@
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C29" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39631,7 +40089,7 @@
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C30" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39640,7 +40098,7 @@
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C31" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39649,7 +40107,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C32" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39658,7 +40116,7 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C33" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39667,7 +40125,7 @@
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C34" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39676,7 +40134,7 @@
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C35" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39685,7 +40143,7 @@
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="C36" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39694,7 +40152,7 @@
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C37" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39703,7 +40161,7 @@
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C38" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39712,7 +40170,7 @@
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C39" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39721,7 +40179,7 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C40" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39730,7 +40188,7 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C41" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39739,7 +40197,7 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C42" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39748,7 +40206,7 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C43" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39757,7 +40215,7 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C44" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39766,7 +40224,7 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C45" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39775,7 +40233,7 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="C46" s="25" t="str">
         <f t="shared" si="0"/>
@@ -39784,7 +40242,7 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28" t="str">
@@ -39794,7 +40252,7 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28" t="str">
@@ -39804,7 +40262,7 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28" t="str">
@@ -39814,7 +40272,7 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28" t="str">
@@ -39824,7 +40282,7 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28" t="str">
@@ -39834,7 +40292,7 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="28" t="str">
@@ -39844,7 +40302,7 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="28" t="str">
@@ -39854,7 +40312,7 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B54" s="28"/>
       <c r="C54" s="28" t="str">
@@ -39864,7 +40322,7 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B55" s="28"/>
       <c r="C55" s="28" t="str">
@@ -39874,7 +40332,7 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="28" t="str">
@@ -39884,7 +40342,7 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B57" s="28"/>
       <c r="C57" s="28" t="str">
@@ -39894,7 +40352,7 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B58" s="28"/>
       <c r="C58" s="28" t="str">
@@ -39904,7 +40362,7 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B59" s="28"/>
       <c r="C59" s="28" t="str">
@@ -39914,7 +40372,7 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28" t="str">
@@ -39924,7 +40382,7 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="28" t="str">
@@ -39934,7 +40392,7 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="28" t="str">
@@ -39944,7 +40402,7 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="B63" s="28"/>
       <c r="C63" s="28" t="str">
@@ -39954,7 +40412,7 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="28" t="str">
@@ -39964,7 +40422,7 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="28" t="str">
@@ -39974,7 +40432,7 @@
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="28" t="str">
@@ -39984,7 +40442,7 @@
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28" t="str">
@@ -39994,7 +40452,7 @@
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B68" s="28"/>
       <c r="C68" s="28" t="str">
@@ -40004,7 +40462,7 @@
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B69" s="28"/>
       <c r="C69" s="28" t="str">
@@ -40014,7 +40472,7 @@
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28" t="str">
@@ -40024,7 +40482,7 @@
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B71" s="28"/>
       <c r="C71" s="28" t="str">
@@ -40034,7 +40492,7 @@
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28" t="str">
@@ -40044,7 +40502,7 @@
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="28" t="str">
@@ -40054,7 +40512,7 @@
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28" t="str">
@@ -40064,7 +40522,7 @@
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28" t="str">
@@ -40074,7 +40532,7 @@
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B76" s="28"/>
       <c r="C76" s="28" t="str">
@@ -40084,7 +40542,7 @@
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B77" s="28"/>
       <c r="C77" s="28" t="str">
@@ -40094,7 +40552,7 @@
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28" t="str">
@@ -40104,7 +40562,7 @@
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B79" s="28"/>
       <c r="C79" s="28" t="str">
@@ -40114,7 +40572,7 @@
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="28" t="str">
@@ -40124,7 +40582,7 @@
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="28" t="str">
@@ -40134,7 +40592,7 @@
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B82" s="28"/>
       <c r="C82" s="28" t="str">
@@ -40144,7 +40602,7 @@
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28" t="str">
@@ -40154,7 +40612,7 @@
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B84" s="28"/>
       <c r="C84" s="28" t="str">
@@ -40164,7 +40622,7 @@
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B85" s="28"/>
       <c r="C85" s="28" t="str">
@@ -40174,7 +40632,7 @@
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="28" t="str">
@@ -40184,7 +40642,7 @@
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28" t="str">
@@ -40194,7 +40652,7 @@
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B88" s="28"/>
       <c r="C88" s="28" t="str">
@@ -40204,7 +40662,7 @@
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="28" t="str">
@@ -40214,7 +40672,7 @@
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B90" s="28"/>
       <c r="C90" s="28" t="str">
@@ -40224,7 +40682,7 @@
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B91" s="28"/>
       <c r="C91" s="28" t="str">
@@ -40244,7 +40702,7 @@
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B93" s="28"/>
       <c r="C93" s="28" t="str">
@@ -40254,7 +40712,7 @@
     </row>
     <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B94" s="28"/>
       <c r="C94" s="28" t="str">
@@ -40264,7 +40722,7 @@
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B95" s="28"/>
       <c r="C95" s="28" t="str">
@@ -40274,7 +40732,7 @@
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B96" s="28"/>
       <c r="C96" s="28" t="str">
@@ -40284,7 +40742,7 @@
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B97" s="28"/>
       <c r="C97" s="28" t="str">
@@ -40294,7 +40752,7 @@
     </row>
     <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B98" s="28"/>
       <c r="C98" s="28" t="str">
@@ -40304,7 +40762,7 @@
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B99" s="28"/>
       <c r="C99" s="28" t="str">
@@ -40324,7 +40782,7 @@
     </row>
     <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B101" s="28"/>
       <c r="C101" s="28" t="str">
@@ -40344,7 +40802,7 @@
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B103" s="28"/>
       <c r="C103" s="28" t="str">
@@ -40354,7 +40812,7 @@
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B104" s="28"/>
       <c r="C104" s="28" t="str">
@@ -40364,7 +40822,7 @@
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B105" s="28"/>
       <c r="C105" s="28" t="str">
@@ -40374,7 +40832,7 @@
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B106" s="28"/>
       <c r="C106" s="28" t="str">
@@ -40384,7 +40842,7 @@
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B107" s="28"/>
       <c r="C107" s="28" t="str">
@@ -40394,7 +40852,7 @@
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B108" s="28"/>
       <c r="C108" s="28" t="str">
@@ -40404,7 +40862,7 @@
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="28" t="str">
@@ -40414,7 +40872,7 @@
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B110" s="28"/>
       <c r="C110" s="28" t="str">
@@ -40424,7 +40882,7 @@
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B111" s="28"/>
       <c r="C111" s="28" t="str">
@@ -40434,7 +40892,7 @@
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B112" s="28"/>
       <c r="C112" s="28" t="str">
@@ -40444,7 +40902,7 @@
     </row>
     <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B113" s="28"/>
       <c r="C113" s="28" t="str">
@@ -40454,7 +40912,7 @@
     </row>
     <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B114" s="28"/>
       <c r="C114" s="28" t="str">
@@ -40464,7 +40922,7 @@
     </row>
     <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B115" s="28"/>
       <c r="C115" s="28" t="str">
@@ -40474,7 +40932,7 @@
     </row>
     <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B116" s="28"/>
       <c r="C116" s="28" t="str">
@@ -40484,7 +40942,7 @@
     </row>
     <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B117" s="28"/>
       <c r="C117" s="28" t="str">

--- a/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
+++ b/complete/src/main/java/scripts/sql/resources/Prepared data for the DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="LOKACIJA" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="VREDNOVANJE_VRIJEDNOSTI_PITANJA" sheetId="10" r:id="rId12"/>
     <sheet name="USERS" sheetId="11" r:id="rId13"/>
     <sheet name="AUTHORITIES" sheetId="12" r:id="rId14"/>
+    <sheet name="FINANCIAL_RESOURCES" sheetId="16" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BANK_ACCOUNT!$A$1:$D$163</definedName>
@@ -317,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951" uniqueCount="2002">
   <si>
     <t>RBR</t>
   </si>
@@ -14586,7 +14587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14755,6 +14758,1460 @@
       <c r="E11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>insert into diskobolos.authorities(role, user_id, permission_level) values (' ROLE_ADMIN',  (select id from diskobolos.users where username='snjezana.jurinic'), 100);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="25" t="str">
+        <f>"insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='"&amp;A2&amp;"'));"</f>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Aikido klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="25" t="str">
+        <f t="shared" ref="C3:C66" si="0">"insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='"&amp;A3&amp;"'));"</f>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Atletski športski klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski aikido klub Donat'));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Atletski klub Alojzije Stepinac'));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Atletski klub Olympionik'));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Atletski klub Start'));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Klub atletskih veterana Zadar'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Automobilistički klub ZD tuning'));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Badminton klub Iader'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Baseball klub Donat'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Biciklistički klub Sv. Donat'));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Biciklistički klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Biciklistički klub Macaklin'));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Biljar klub 11'));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boćarski klub Bili Brig'));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boćarski klub Brodarica'));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boćarski klub Veteran'));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boćarski klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boćarski klub Crvene kuće'));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boksački klub Diabolik'));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boksački klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Jedriličarski klub Uskok'));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Judo klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub Jazine - Arbanasi'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub Zadar š.d.d.'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kuglački klub Donat zaštita'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kuglački klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Nogometni klub Zadar š.d.d.'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Odbojkaški klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Planinarsko društvo Paklenica'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Plivački klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ronilački klub "KPA"'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Stolnoteniski klub Donat'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Streljački klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Šahovski klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športsko ribolovno društvo Zubatac'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ordinacija Športske medicine'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Teniski klub Zadar 08'));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Udruga za šport i rekreaciju invalida Grada Zadra'));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Veslački klub Jadran'));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Javna ustanova za upravljanje športskim objektima - Zadarski šport d.o.o.'));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ženski rukometni klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C44" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski plesni klub Samba'));</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Diklo'));</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ronilaćki klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C47" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Stolnoteniski klub Jadera'));</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C48" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub Voštarnica'));</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Nogometni Klub Arbanasi'));</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Karate klub Croatia'));</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C51" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Plivački klub Jadera'));</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C52" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Triatlon klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C53" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Taekwondo klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C54" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub Pet bunara - veterani'));</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C55" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Rukometni klub Zadar 1954'));</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C56" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Karate klub Zvonimir'));</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C57" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Višnjik'));</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C58" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kuglački klub Donat Zadar - Žene'));</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C59" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Klub ritmičke gimnastike Sirena'));</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C60" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Automobilistički klub RTZ'));</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo Športske rekreacije Vitalnost'));</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C62" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub ABC'));</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C63" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športska škola košarke Zadar'));</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C64" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Udruga za mali nogomet Zadarske županije'));</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C65" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Futsal'));</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C66" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Puntamika'));</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C67" s="25" t="str">
+        <f t="shared" ref="C67:C130" si="1">"insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='"&amp;A67&amp;"'));"</f>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športsko rekreacijska udruga Sklek'));</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C68" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Streličarski klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C69" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ragbi klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C70" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Vaterpolski klub Zadar 1952'));</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C71" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Gimnastički klub Salto'));</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C72" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Šahovski klub Casper'));</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C73" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Silba'));</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C74" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Drakmar Sali'));</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C75" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Županijski savez školskog športa Zadarske županije'));</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C76" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Hrvatsko planinarsko društvo Mala Rava'));</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C77" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kuglački klub Liburnija'));</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C78" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Hrvački klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C79" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo Športske Rekreacije Dite zadarsko'));</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C80" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Odbojkaški klub Arbanasi'));</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C81" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Klub daljinskog plivanja Donat'));</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C82" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kiteboarding udruga Adrenalin'));</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C83" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Klub jedrenja na dasci Fortunal'));</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C84" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo za športsku rekreaciju Relaks'));</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C85" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski klub za skokove u vodu Arno'));</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C86" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kickboxing klub Sv. Krševan'));</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C87" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boksački klub Sv. Krševan'));</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C88" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Varoš'));</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C89" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub Sonik Puntamika'));</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C90" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kickboxing klub Sv. Zoilo'));</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C91" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Euforija'));</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C92" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo za športsku rekreaciju Hula-hop'));</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C93" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Košarkaški klub Zara'));</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C94" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boksački klub Dijagora'));</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C95" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski centar Višnjik d.o.o.'));</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C96" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ženski košarkaški klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C97" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Jedriličarski klub Sv. Krševan'));</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C98" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Karate  klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C99" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ju jitsu klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C100" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ju jitsu klub Donat'));</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C101" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boksački klub Zlatna Rukavica'));</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C102" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Body Building klub Hulk'));</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C103" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Taekwondo klub Plovanija'));</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C104" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Gimnastički klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C105" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Konjički klub Epona'));</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C106" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Streljački klub Lovac'));</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C107" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Klub za skokove u vodu Zadar'));</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C108" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Rukometni klub Arbanasi'));</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C109" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Klub za športski ribolov Paprenica'));</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C110" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski ribolovni klub Donat'));</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C111" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Alpinistički klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C112" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Odbojkaški klub Donat'));</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C113" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Hrvatski nogometni klub Dalmatinac'));</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C114" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Udruga slijepih Zadarske Županije'));</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C115" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski savez gluhih Zadarske Županije'));</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C116" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Odbojkaški klub invalida Zadar'));</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C117" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kuglački klub invalida Dišpet'));</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C118" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Plivački klub osoba s invaliditetom Sv. Nikola'));</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C119" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Stolnoteniski klub osoba s invaliditetom Sv. Krševan'));</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C120" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Streljački klub osoba s invaliditetom Donat'));</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C121" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ribolovni klub osoba s invaliditetom Škartoc'));</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C122" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Športski savez osoba s invaliditetom Zadarske županije'));</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C123" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kendo klub "Ouka"'));</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C124" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Pikado Savez Zadarske župnije'));</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C125" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Udruga za "Down sindrom" Zadarske županije'));</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C126" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ronilački klub 2 dive'));</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C127" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Brodarica'));</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C128" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Zadar'));</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C129" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Petrčane'));</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C130" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Osmijeh za-Dar'));</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C131" s="25" t="str">
+        <f t="shared" ref="C131:C160" si="2">"insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='"&amp;A131&amp;"'));"</f>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Novi Bokanjac'));</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C132" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Kožino'));</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C133" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Dragovoljac'));</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C134" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Crvene kuće'));</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C135" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo Bokanjac Zadar'));</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C136" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Bili Brig'));</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C137" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Društvo športske rekreacije Loptica'));</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C138" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Udruga mladih Ista'));</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C139" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Zadarska plesna udruga Tornadele'));</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C140" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kyudo udruga Yumi - Zadar'));</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C141" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Ženski nogometni klub Donat'));</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C142" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Bili Brig'));</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C143" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Plovanija'));</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C144" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Voštarnica'));</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C145" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Ploča'));</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C146" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Stanovi'));</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C147" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Sv. Ante'));</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C148" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Zapuntel'));</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C149" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Mala Rava'));</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C150" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Rukometni klub Zadar 2013'));</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C151" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Jedriličarski klub Punta Bajlo'));</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C152" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Plivački klub osoba s invaliditetom Frogo'));</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C153" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Hrvatsko planinarsko društvo Zavrata'));</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C154" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Udruga Hrvatskih vojnih invalida domovinskog rata - Zadar'));</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C155" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Aero klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C156" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Boćarski Športski klub Zadar'));</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C157" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='GRADSKI OGRANAK UDRUGE HRVATSKIH DRAGOVOLJACA DOMOVINSKOG RATA GRADA ZADRA'));</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C158" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Malonogometni klub Brodarica'));</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C159" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Kick-Boxing klub Fight Factory'));</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C160" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into diskobolos.financial_resources(member_register_id) values ((select id from diskobolos.member_register where name='Planinarsko društvo Sveti Bernard'));</v>
       </c>
     </row>
   </sheetData>
@@ -14914,8 +16371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P160"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
